--- a/Planilha de vendas.xlsx
+++ b/Planilha de vendas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automatizar input vendas - CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CF2D1D-4D9C-4EF0-9FEA-21985DF8489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7ED245-053E-494C-B5B6-1D02206F5B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>DATA ATENDIMENTO</t>
   </si>
@@ -89,15 +89,6 @@
     <t>Receita de Harmonização Corporal</t>
   </si>
   <si>
-    <t>Consulta</t>
-  </si>
-  <si>
-    <t>Lipolaser</t>
-  </si>
-  <si>
-    <t>Harmonização Corporal</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -138,6 +129,9 @@
   </si>
   <si>
     <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>Prestação de serviços estéticos</t>
   </si>
 </sst>
 </file>
@@ -623,28 +617,28 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -688,7 +682,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>46041</v>
       </c>
@@ -699,10 +693,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -711,13 +705,13 @@
         <v>200</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="K2" s="6">
         <v>46041</v>
@@ -737,7 +731,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>46041</v>
       </c>
@@ -748,10 +742,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -760,13 +754,13 @@
         <v>200</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="K3" s="6">
         <v>46041</v>
@@ -786,7 +780,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>46041</v>
       </c>
@@ -797,10 +791,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -809,13 +803,13 @@
         <v>2000</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" s="6">
         <v>46072</v>
@@ -835,7 +829,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>46041</v>
       </c>
@@ -846,10 +840,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -858,13 +852,13 @@
         <v>2000</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5" s="6">
         <v>46072</v>
@@ -884,7 +878,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>46040</v>
       </c>
@@ -895,10 +889,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -907,13 +901,13 @@
         <v>1000</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K6" s="6">
         <v>46071</v>
@@ -933,7 +927,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>46040</v>
       </c>
@@ -944,10 +938,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -956,13 +950,13 @@
         <v>1000</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7" s="6">
         <v>46071</v>
@@ -982,7 +976,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>46039</v>
       </c>
@@ -993,10 +987,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -1005,13 +999,13 @@
         <v>250</v>
       </c>
       <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="K8" s="6">
         <v>46039</v>
@@ -1031,7 +1025,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1058,7 +1052,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1085,7 +1079,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1112,7 +1106,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1139,7 +1133,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1166,7 +1160,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1193,7 +1187,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1220,7 +1214,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1247,7 +1241,7 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1274,7 +1268,7 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -1301,7 +1295,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1328,7 +1322,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1355,7 +1349,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1382,7 +1376,7 @@
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -1409,7 +1403,7 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -1436,7 +1430,7 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1463,7 +1457,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -1490,7 +1484,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -1517,7 +1511,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -1544,7 +1538,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -1571,7 +1565,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -1598,7 +1592,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -1625,7 +1619,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -1652,7 +1646,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -1679,7 +1673,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -1706,7 +1700,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
@@ -1733,7 +1727,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
@@ -1760,7 +1754,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
@@ -1787,7 +1781,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -1814,7 +1808,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
@@ -1841,7 +1835,7 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -1868,7 +1862,7 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
@@ -1895,7 +1889,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -1922,7 +1916,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -1949,7 +1943,7 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -1976,7 +1970,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -2003,7 +1997,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -2030,7 +2024,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -2057,7 +2051,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
@@ -2084,7 +2078,7 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -2111,7 +2105,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
@@ -2138,7 +2132,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -2165,7 +2159,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -2192,7 +2186,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -2219,7 +2213,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -2246,7 +2240,7 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
@@ -2273,7 +2267,7 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -2300,7 +2294,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -2327,7 +2321,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
@@ -2354,7 +2348,7 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
@@ -2381,7 +2375,7 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -2408,7 +2402,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
@@ -2435,7 +2429,7 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
@@ -2462,7 +2456,7 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
@@ -2489,7 +2483,7 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
@@ -2516,7 +2510,7 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
@@ -2543,7 +2537,7 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -2570,7 +2564,7 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
@@ -2597,7 +2591,7 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
@@ -2624,7 +2618,7 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
@@ -2651,7 +2645,7 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
@@ -2678,7 +2672,7 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
@@ -2705,7 +2699,7 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
@@ -2732,7 +2726,7 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
@@ -2759,7 +2753,7 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
@@ -2786,7 +2780,7 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
@@ -2813,7 +2807,7 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
@@ -2840,7 +2834,7 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
@@ -2867,7 +2861,7 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
@@ -2894,7 +2888,7 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
@@ -2921,7 +2915,7 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
@@ -2948,7 +2942,7 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
@@ -2975,7 +2969,7 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
@@ -3002,7 +2996,7 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
@@ -3029,7 +3023,7 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
@@ -3056,7 +3050,7 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
@@ -3083,7 +3077,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
@@ -3110,7 +3104,7 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
@@ -3137,7 +3131,7 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
@@ -3164,7 +3158,7 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
@@ -3191,7 +3185,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
@@ -3218,7 +3212,7 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
@@ -3245,7 +3239,7 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
@@ -3272,7 +3266,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="8"/>
@@ -3299,7 +3293,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="19"/>
       <c r="C93" s="12"/>
@@ -3326,7 +3320,7 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -3353,7 +3347,7 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="19"/>
       <c r="C95" s="12"/>
@@ -3380,7 +3374,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="19"/>
       <c r="C96" s="12"/>
@@ -3407,7 +3401,7 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="19"/>
       <c r="C97" s="12"/>
@@ -3434,7 +3428,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="19"/>
       <c r="C98" s="12"/>
@@ -3461,7 +3455,7 @@
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="19"/>
       <c r="C99" s="12"/>
@@ -3488,7 +3482,7 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="19"/>
       <c r="C100" s="12"/>
@@ -3515,7 +3509,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="19"/>
       <c r="C101" s="12"/>
@@ -3542,7 +3536,7 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="19"/>
       <c r="C102" s="12"/>
@@ -3569,7 +3563,7 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="19"/>
       <c r="C103" s="12"/>
@@ -3596,7 +3590,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="19"/>
       <c r="C104" s="12"/>
@@ -3623,7 +3617,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="19"/>
       <c r="C105" s="12"/>
@@ -3650,7 +3644,7 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="19"/>
       <c r="C106" s="8"/>
@@ -3677,7 +3671,7 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="19"/>
       <c r="C107" s="8"/>
@@ -3704,7 +3698,7 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
       <c r="B108" s="21"/>
       <c r="C108" s="24"/>
@@ -3731,7 +3725,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="19"/>
       <c r="C109" s="8"/>
@@ -3758,7 +3752,7 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="19"/>
       <c r="C110" s="8"/>
@@ -3785,7 +3779,7 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="19"/>
       <c r="C111" s="12"/>
@@ -3812,7 +3806,7 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="19"/>
       <c r="C112" s="12"/>
@@ -3839,7 +3833,7 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="19"/>
       <c r="C113" s="12"/>
@@ -3866,7 +3860,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="19"/>
       <c r="C114" s="8"/>
@@ -3893,7 +3887,7 @@
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="19"/>
       <c r="C115" s="12"/>
@@ -3920,7 +3914,7 @@
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="19"/>
       <c r="C116" s="8"/>
@@ -3947,7 +3941,7 @@
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="19"/>
       <c r="C117" s="12"/>
@@ -3974,7 +3968,7 @@
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="19"/>
       <c r="C118" s="8"/>
@@ -4001,7 +3995,7 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="19"/>
       <c r="C119" s="12"/>
@@ -4028,7 +4022,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="19"/>
       <c r="C120" s="8"/>
@@ -4055,7 +4049,7 @@
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="19"/>
       <c r="C121" s="12"/>
@@ -4082,7 +4076,7 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="19"/>
       <c r="C122" s="12"/>
@@ -4109,7 +4103,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="19"/>
       <c r="C123" s="12"/>
@@ -4136,7 +4130,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="19"/>
       <c r="C124" s="12"/>
@@ -4163,7 +4157,7 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="19"/>
       <c r="C125" s="12"/>
@@ -4190,7 +4184,7 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="19"/>
       <c r="C126" s="8"/>
@@ -4217,7 +4211,7 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="19"/>
       <c r="C127" s="8"/>
@@ -4244,7 +4238,7 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="19"/>
       <c r="C128" s="8"/>
@@ -4271,7 +4265,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="19"/>
       <c r="C129" s="8"/>
@@ -4298,7 +4292,7 @@
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="19"/>
       <c r="C130" s="8"/>
@@ -4325,7 +4319,7 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="25"/>
       <c r="B131" s="15"/>
       <c r="C131" s="26"/>
@@ -4352,7 +4346,7 @@
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="25"/>
       <c r="B132" s="15"/>
       <c r="C132" s="26"/>
@@ -4379,7 +4373,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="25"/>
       <c r="B133" s="15"/>
       <c r="C133" s="26"/>
@@ -4406,7 +4400,7 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="25"/>
       <c r="B134" s="15"/>
       <c r="C134" s="26"/>
@@ -4433,7 +4427,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="25"/>
       <c r="B135" s="15"/>
       <c r="C135" s="26"/>
@@ -4460,7 +4454,7 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="25"/>
       <c r="B136" s="15"/>
       <c r="C136" s="26"/>
@@ -4487,7 +4481,7 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="25"/>
       <c r="B137" s="15"/>
       <c r="C137" s="26"/>
@@ -4514,7 +4508,7 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="25"/>
       <c r="B138" s="15"/>
       <c r="C138" s="26"/>
@@ -4541,7 +4535,7 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="25"/>
       <c r="B139" s="15"/>
       <c r="C139" s="26"/>
@@ -4568,7 +4562,7 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="25"/>
       <c r="B140" s="15"/>
       <c r="C140" s="26"/>
@@ -4595,7 +4589,7 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="25"/>
       <c r="B141" s="15"/>
       <c r="C141" s="26"/>
@@ -4622,7 +4616,7 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="25"/>
       <c r="B142" s="15"/>
       <c r="C142" s="26"/>
@@ -4649,7 +4643,7 @@
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="25"/>
       <c r="B143" s="15"/>
       <c r="C143" s="26"/>
@@ -4676,7 +4670,7 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="25"/>
       <c r="B144" s="15"/>
       <c r="C144" s="26"/>
@@ -4703,7 +4697,7 @@
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="25"/>
       <c r="B145" s="15"/>
       <c r="C145" s="26"/>
@@ -4730,7 +4724,7 @@
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="25"/>
       <c r="B146" s="15"/>
       <c r="C146" s="26"/>
@@ -4757,7 +4751,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="25"/>
       <c r="B147" s="15"/>
       <c r="C147" s="26"/>
@@ -4784,7 +4778,7 @@
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="25"/>
       <c r="B148" s="15"/>
       <c r="C148" s="26"/>
@@ -4811,7 +4805,7 @@
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="25"/>
       <c r="B149" s="15"/>
       <c r="C149" s="26"/>
@@ -4838,7 +4832,7 @@
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="25"/>
       <c r="B150" s="15"/>
       <c r="C150" s="26"/>
@@ -4865,7 +4859,7 @@
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="25"/>
       <c r="B151" s="15"/>
       <c r="C151" s="26"/>
@@ -4892,7 +4886,7 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="25"/>
       <c r="B152" s="15"/>
       <c r="C152" s="26"/>
@@ -4919,7 +4913,7 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="25"/>
       <c r="B153" s="15"/>
       <c r="C153" s="26"/>
@@ -4946,7 +4940,7 @@
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="25"/>
       <c r="B154" s="15"/>
       <c r="C154" s="26"/>
@@ -4973,7 +4967,7 @@
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="25"/>
       <c r="B155" s="15"/>
       <c r="C155" s="26"/>
@@ -5000,7 +4994,7 @@
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="25"/>
       <c r="B156" s="15"/>
       <c r="C156" s="26"/>
@@ -5027,7 +5021,7 @@
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="25"/>
       <c r="B157" s="15"/>
       <c r="C157" s="26"/>
@@ -5054,7 +5048,7 @@
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="25"/>
       <c r="B158" s="15"/>
       <c r="C158" s="26"/>
@@ -5081,7 +5075,7 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="25"/>
       <c r="B159" s="15"/>
       <c r="C159" s="26"/>
@@ -5108,7 +5102,7 @@
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="25"/>
       <c r="B160" s="15"/>
       <c r="C160" s="26"/>
@@ -5135,7 +5129,7 @@
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="25"/>
       <c r="B161" s="15"/>
       <c r="C161" s="26"/>
@@ -5162,7 +5156,7 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="25"/>
       <c r="B162" s="15"/>
       <c r="C162" s="26"/>
@@ -5189,7 +5183,7 @@
       <c r="X162" s="5"/>
       <c r="Y162" s="5"/>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="25"/>
       <c r="B163" s="15"/>
       <c r="C163" s="26"/>
@@ -5216,7 +5210,7 @@
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="25"/>
       <c r="B164" s="15"/>
       <c r="C164" s="26"/>
@@ -5243,7 +5237,7 @@
       <c r="X164" s="5"/>
       <c r="Y164" s="5"/>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="25"/>
       <c r="B165" s="15"/>
       <c r="C165" s="26"/>
@@ -5270,7 +5264,7 @@
       <c r="X165" s="5"/>
       <c r="Y165" s="5"/>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="25"/>
       <c r="B166" s="15"/>
       <c r="C166" s="26"/>
@@ -5297,7 +5291,7 @@
       <c r="X166" s="5"/>
       <c r="Y166" s="5"/>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="25"/>
       <c r="B167" s="15"/>
       <c r="C167" s="26"/>
@@ -5324,7 +5318,7 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="25"/>
       <c r="B168" s="15"/>
       <c r="C168" s="26"/>
@@ -5351,7 +5345,7 @@
       <c r="X168" s="5"/>
       <c r="Y168" s="5"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="25"/>
       <c r="B169" s="15"/>
       <c r="C169" s="26"/>
@@ -5378,7 +5372,7 @@
       <c r="X169" s="5"/>
       <c r="Y169" s="5"/>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
       <c r="B170" s="15"/>
       <c r="C170" s="26"/>
@@ -5405,7 +5399,7 @@
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="25"/>
       <c r="B171" s="15"/>
       <c r="C171" s="26"/>
@@ -5432,7 +5426,7 @@
       <c r="X171" s="5"/>
       <c r="Y171" s="5"/>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="25"/>
       <c r="B172" s="15"/>
       <c r="C172" s="26"/>
@@ -5459,7 +5453,7 @@
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="25"/>
       <c r="B173" s="15"/>
       <c r="C173" s="26"/>
@@ -5486,7 +5480,7 @@
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="25"/>
       <c r="B174" s="15"/>
       <c r="C174" s="26"/>
@@ -5513,7 +5507,7 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="5"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="25"/>
       <c r="B175" s="15"/>
       <c r="C175" s="26"/>
@@ -5540,7 +5534,7 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="5"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="25"/>
       <c r="B176" s="15"/>
       <c r="C176" s="26"/>
@@ -5567,7 +5561,7 @@
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="25"/>
       <c r="B177" s="15"/>
       <c r="C177" s="26"/>
@@ -5594,7 +5588,7 @@
       <c r="X177" s="5"/>
       <c r="Y177" s="5"/>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="25"/>
       <c r="B178" s="15"/>
       <c r="C178" s="26"/>
@@ -5621,7 +5615,7 @@
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="25"/>
       <c r="B179" s="15"/>
       <c r="C179" s="26"/>
@@ -5648,7 +5642,7 @@
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="25"/>
       <c r="B180" s="15"/>
       <c r="C180" s="26"/>
@@ -5675,7 +5669,7 @@
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="25"/>
       <c r="B181" s="15"/>
       <c r="C181" s="26"/>
@@ -5702,7 +5696,7 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="25"/>
       <c r="B182" s="15"/>
       <c r="C182" s="26"/>
@@ -5729,7 +5723,7 @@
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="15"/>
       <c r="C183" s="26"/>
@@ -5756,7 +5750,7 @@
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="25"/>
       <c r="B184" s="15"/>
       <c r="C184" s="26"/>
@@ -5783,7 +5777,7 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="25"/>
       <c r="B185" s="15"/>
       <c r="C185" s="26"/>
@@ -5810,7 +5804,7 @@
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="25"/>
       <c r="B186" s="15"/>
       <c r="C186" s="26"/>
@@ -5837,7 +5831,7 @@
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="25"/>
       <c r="B187" s="15"/>
       <c r="C187" s="26"/>
@@ -5864,7 +5858,7 @@
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="25"/>
       <c r="B188" s="15"/>
       <c r="C188" s="26"/>
@@ -5891,7 +5885,7 @@
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="25"/>
       <c r="B189" s="15"/>
       <c r="C189" s="26"/>
@@ -5918,7 +5912,7 @@
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="25"/>
       <c r="B190" s="15"/>
       <c r="C190" s="26"/>
@@ -5945,7 +5939,7 @@
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="25"/>
       <c r="B191" s="15"/>
       <c r="C191" s="26"/>
@@ -5972,7 +5966,7 @@
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="25"/>
       <c r="B192" s="15"/>
       <c r="C192" s="26"/>
@@ -5999,7 +5993,7 @@
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="25"/>
       <c r="B193" s="15"/>
       <c r="C193" s="26"/>
@@ -6026,7 +6020,7 @@
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="25"/>
       <c r="B194" s="15"/>
       <c r="C194" s="26"/>
@@ -6053,7 +6047,7 @@
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="25"/>
       <c r="B195" s="15"/>
       <c r="C195" s="26"/>
@@ -6080,7 +6074,7 @@
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="25"/>
       <c r="B196" s="15"/>
       <c r="C196" s="26"/>
@@ -6107,7 +6101,7 @@
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="25"/>
       <c r="B197" s="15"/>
       <c r="C197" s="26"/>
@@ -6134,7 +6128,7 @@
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="25"/>
       <c r="B198" s="15"/>
       <c r="C198" s="26"/>
@@ -6161,7 +6155,7 @@
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="25"/>
       <c r="B199" s="15"/>
       <c r="C199" s="26"/>
@@ -6188,7 +6182,7 @@
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="25"/>
       <c r="B200" s="15"/>
       <c r="C200" s="26"/>
@@ -6215,7 +6209,7 @@
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="25"/>
       <c r="B201" s="15"/>
       <c r="C201" s="26"/>
@@ -6242,7 +6236,7 @@
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="25"/>
       <c r="B202" s="15"/>
       <c r="C202" s="26"/>
@@ -6269,7 +6263,7 @@
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="25"/>
       <c r="B203" s="15"/>
       <c r="C203" s="26"/>
@@ -6296,7 +6290,7 @@
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="25"/>
       <c r="B204" s="15"/>
       <c r="C204" s="26"/>
@@ -6323,7 +6317,7 @@
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="25"/>
       <c r="B205" s="15"/>
       <c r="C205" s="26"/>
@@ -6350,7 +6344,7 @@
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="25"/>
       <c r="B206" s="15"/>
       <c r="C206" s="26"/>
@@ -6377,7 +6371,7 @@
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="25"/>
       <c r="B207" s="15"/>
       <c r="C207" s="26"/>
@@ -6404,7 +6398,7 @@
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="25"/>
       <c r="B208" s="15"/>
       <c r="C208" s="26"/>
@@ -6431,7 +6425,7 @@
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="25"/>
       <c r="B209" s="15"/>
       <c r="C209" s="26"/>
@@ -6458,7 +6452,7 @@
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="25"/>
       <c r="B210" s="15"/>
       <c r="C210" s="26"/>
@@ -6485,7 +6479,7 @@
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="B211" s="15"/>
       <c r="C211" s="26"/>
@@ -6512,7 +6506,7 @@
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="B212" s="15"/>
       <c r="C212" s="26"/>
@@ -6539,7 +6533,7 @@
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="B213" s="15"/>
       <c r="C213" s="26"/>
@@ -6566,7 +6560,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="25"/>
       <c r="B214" s="15"/>
       <c r="C214" s="26"/>
@@ -6593,7 +6587,7 @@
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="25"/>
       <c r="B215" s="15"/>
       <c r="C215" s="26"/>
@@ -6620,7 +6614,7 @@
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="25"/>
       <c r="B216" s="15"/>
       <c r="C216" s="26"/>
@@ -6647,7 +6641,7 @@
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="25"/>
       <c r="B217" s="15"/>
       <c r="C217" s="26"/>
@@ -6674,7 +6668,7 @@
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="25"/>
       <c r="B218" s="15"/>
       <c r="C218" s="26"/>
@@ -6701,7 +6695,7 @@
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="25"/>
       <c r="B219" s="15"/>
       <c r="C219" s="26"/>
@@ -6728,7 +6722,7 @@
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="25"/>
       <c r="B220" s="15"/>
       <c r="C220" s="26"/>
@@ -6755,7 +6749,7 @@
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="25"/>
       <c r="B221" s="15"/>
       <c r="C221" s="26"/>
@@ -6782,7 +6776,7 @@
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="25"/>
       <c r="B222" s="15"/>
       <c r="C222" s="26"/>
@@ -6809,7 +6803,7 @@
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="25"/>
       <c r="B223" s="15"/>
       <c r="C223" s="26"/>
@@ -6836,7 +6830,7 @@
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="25"/>
       <c r="B224" s="15"/>
       <c r="C224" s="26"/>
@@ -6863,7 +6857,7 @@
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="25"/>
       <c r="B225" s="15"/>
       <c r="C225" s="26"/>
@@ -6890,7 +6884,7 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="25"/>
       <c r="B226" s="15"/>
       <c r="C226" s="26"/>
@@ -6917,7 +6911,7 @@
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="25"/>
       <c r="B227" s="15"/>
       <c r="C227" s="26"/>
@@ -6944,7 +6938,7 @@
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="25"/>
       <c r="B228" s="15"/>
       <c r="C228" s="26"/>
@@ -6971,7 +6965,7 @@
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="25"/>
       <c r="B229" s="15"/>
       <c r="C229" s="26"/>
@@ -6998,7 +6992,7 @@
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="25"/>
       <c r="B230" s="15"/>
       <c r="C230" s="26"/>
@@ -7025,7 +7019,7 @@
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="25"/>
       <c r="B231" s="15"/>
       <c r="C231" s="26"/>
@@ -7052,7 +7046,7 @@
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="25"/>
       <c r="B232" s="15"/>
       <c r="C232" s="26"/>
@@ -7079,7 +7073,7 @@
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="25"/>
       <c r="B233" s="15"/>
       <c r="C233" s="26"/>
@@ -7106,7 +7100,7 @@
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="25"/>
       <c r="B234" s="15"/>
       <c r="C234" s="26"/>
@@ -7133,7 +7127,7 @@
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="25"/>
       <c r="B235" s="15"/>
       <c r="C235" s="26"/>
@@ -7160,7 +7154,7 @@
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="25"/>
       <c r="B236" s="15"/>
       <c r="C236" s="26"/>
@@ -7187,7 +7181,7 @@
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="25"/>
       <c r="B237" s="15"/>
       <c r="C237" s="26"/>
@@ -7214,7 +7208,7 @@
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="25"/>
       <c r="B238" s="15"/>
       <c r="C238" s="26"/>
@@ -7241,7 +7235,7 @@
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="25"/>
       <c r="B239" s="15"/>
       <c r="C239" s="26"/>
@@ -7268,7 +7262,7 @@
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="25"/>
       <c r="B240" s="15"/>
       <c r="C240" s="26"/>
@@ -7295,7 +7289,7 @@
       <c r="X240" s="5"/>
       <c r="Y240" s="5"/>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" s="15"/>
       <c r="C241" s="26"/>
@@ -7322,7 +7316,7 @@
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="25"/>
       <c r="B242" s="15"/>
       <c r="C242" s="26"/>
@@ -7349,7 +7343,7 @@
       <c r="X242" s="5"/>
       <c r="Y242" s="5"/>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="25"/>
       <c r="B243" s="15"/>
       <c r="C243" s="26"/>
@@ -7376,7 +7370,7 @@
       <c r="X243" s="5"/>
       <c r="Y243" s="5"/>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" s="15"/>
       <c r="C244" s="26"/>
@@ -7403,7 +7397,7 @@
       <c r="X244" s="5"/>
       <c r="Y244" s="5"/>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" s="15"/>
       <c r="C245" s="26"/>
@@ -7430,7 +7424,7 @@
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" s="15"/>
       <c r="C246" s="26"/>
@@ -7457,7 +7451,7 @@
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" s="15"/>
       <c r="C247" s="26"/>
@@ -7484,7 +7478,7 @@
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" s="15"/>
       <c r="C248" s="26"/>
@@ -7511,7 +7505,7 @@
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="25"/>
       <c r="B249" s="15"/>
       <c r="C249" s="26"/>
@@ -7538,7 +7532,7 @@
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="25"/>
       <c r="B250" s="15"/>
       <c r="C250" s="26"/>
@@ -7565,7 +7559,7 @@
       <c r="X250" s="5"/>
       <c r="Y250" s="5"/>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" s="15"/>
       <c r="C251" s="26"/>
@@ -7592,7 +7586,7 @@
       <c r="X251" s="5"/>
       <c r="Y251" s="5"/>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" s="15"/>
       <c r="C252" s="26"/>
@@ -7619,7 +7613,7 @@
       <c r="X252" s="5"/>
       <c r="Y252" s="5"/>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" s="15"/>
       <c r="C253" s="26"/>
@@ -7646,7 +7640,7 @@
       <c r="X253" s="5"/>
       <c r="Y253" s="5"/>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" s="15"/>
       <c r="C254" s="26"/>
@@ -7673,7 +7667,7 @@
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="28"/>
       <c r="B255" s="29"/>
       <c r="C255" s="30"/>
@@ -7686,7 +7680,7 @@
       <c r="J255" s="29"/>
       <c r="K255" s="32"/>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="28"/>
       <c r="B256" s="29"/>
       <c r="C256" s="30"/>
@@ -7699,7 +7693,7 @@
       <c r="J256" s="29"/>
       <c r="K256" s="32"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="28"/>
       <c r="B257" s="29"/>
       <c r="C257" s="30"/>
@@ -7712,7 +7706,7 @@
       <c r="J257" s="29"/>
       <c r="K257" s="32"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="33"/>
       <c r="B258" s="34"/>
       <c r="C258" s="35"/>
@@ -7725,7 +7719,7 @@
       <c r="J258" s="34"/>
       <c r="K258" s="38"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" s="33"/>
       <c r="B259" s="34"/>
       <c r="C259" s="35"/>
@@ -7738,7 +7732,7 @@
       <c r="J259" s="34"/>
       <c r="K259" s="38"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="33"/>
       <c r="B260" s="34"/>
       <c r="C260" s="35"/>
@@ -7751,7 +7745,7 @@
       <c r="J260" s="34"/>
       <c r="K260" s="38"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="33"/>
       <c r="B261" s="34"/>
       <c r="C261" s="35"/>
@@ -7764,7 +7758,7 @@
       <c r="J261" s="34"/>
       <c r="K261" s="38"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="33"/>
       <c r="B262" s="34"/>
       <c r="C262" s="35"/>
@@ -7777,7 +7771,7 @@
       <c r="J262" s="34"/>
       <c r="K262" s="38"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="33"/>
       <c r="B263" s="34"/>
       <c r="C263" s="35"/>
@@ -7790,7 +7784,7 @@
       <c r="J263" s="34"/>
       <c r="K263" s="38"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="33"/>
       <c r="B264" s="34"/>
       <c r="C264" s="35"/>
@@ -7803,7 +7797,7 @@
       <c r="J264" s="34"/>
       <c r="K264" s="38"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="33"/>
       <c r="B265" s="34"/>
       <c r="C265" s="35"/>
@@ -7816,7 +7810,7 @@
       <c r="J265" s="34"/>
       <c r="K265" s="38"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="33"/>
       <c r="B266" s="34"/>
       <c r="C266" s="35"/>
@@ -7829,7 +7823,7 @@
       <c r="J266" s="34"/>
       <c r="K266" s="38"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="33"/>
       <c r="B267" s="34"/>
       <c r="C267" s="35"/>
@@ -7842,7 +7836,7 @@
       <c r="J267" s="34"/>
       <c r="K267" s="38"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="33"/>
       <c r="B268" s="34"/>
       <c r="C268" s="35"/>
@@ -7855,7 +7849,7 @@
       <c r="J268" s="34"/>
       <c r="K268" s="38"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="33"/>
       <c r="B269" s="34"/>
       <c r="C269" s="35"/>
@@ -7868,7 +7862,7 @@
       <c r="J269" s="34"/>
       <c r="K269" s="38"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="33"/>
       <c r="B270" s="34"/>
       <c r="C270" s="35"/>
@@ -7881,7 +7875,7 @@
       <c r="J270" s="34"/>
       <c r="K270" s="38"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="33"/>
       <c r="B271" s="34"/>
       <c r="C271" s="35"/>
@@ -7894,7 +7888,7 @@
       <c r="J271" s="34"/>
       <c r="K271" s="38"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="33"/>
       <c r="B272" s="34"/>
       <c r="C272" s="35"/>
@@ -7907,7 +7901,7 @@
       <c r="J272" s="34"/>
       <c r="K272" s="38"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="33"/>
       <c r="B273" s="34"/>
       <c r="C273" s="35"/>
@@ -7920,7 +7914,7 @@
       <c r="J273" s="34"/>
       <c r="K273" s="38"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="33"/>
       <c r="B274" s="34"/>
       <c r="C274" s="35"/>
@@ -7933,7 +7927,7 @@
       <c r="J274" s="34"/>
       <c r="K274" s="38"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="33"/>
       <c r="B275" s="34"/>
       <c r="C275" s="35"/>
@@ -7946,7 +7940,7 @@
       <c r="J275" s="34"/>
       <c r="K275" s="38"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="33"/>
       <c r="B276" s="34"/>
       <c r="C276" s="35"/>
@@ -7959,7 +7953,7 @@
       <c r="J276" s="34"/>
       <c r="K276" s="38"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="33"/>
       <c r="B277" s="34"/>
       <c r="C277" s="35"/>
@@ -7972,7 +7966,7 @@
       <c r="J277" s="34"/>
       <c r="K277" s="38"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="33"/>
       <c r="B278" s="34"/>
       <c r="C278" s="35"/>
@@ -7985,7 +7979,7 @@
       <c r="J278" s="34"/>
       <c r="K278" s="38"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="33"/>
       <c r="B279" s="34"/>
       <c r="C279" s="35"/>
@@ -7998,7 +7992,7 @@
       <c r="J279" s="34"/>
       <c r="K279" s="38"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="33"/>
       <c r="B280" s="34"/>
       <c r="C280" s="35"/>
@@ -8011,7 +8005,7 @@
       <c r="J280" s="34"/>
       <c r="K280" s="38"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="33"/>
       <c r="B281" s="34"/>
       <c r="C281" s="35"/>
@@ -8024,7 +8018,7 @@
       <c r="J281" s="34"/>
       <c r="K281" s="38"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="33"/>
       <c r="B282" s="34"/>
       <c r="C282" s="35"/>
@@ -8037,7 +8031,7 @@
       <c r="J282" s="34"/>
       <c r="K282" s="38"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="33"/>
       <c r="B283" s="34"/>
       <c r="C283" s="35"/>
@@ -8050,7 +8044,7 @@
       <c r="J283" s="34"/>
       <c r="K283" s="38"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="33"/>
       <c r="B284" s="34"/>
       <c r="C284" s="35"/>
@@ -8063,7 +8057,7 @@
       <c r="J284" s="34"/>
       <c r="K284" s="38"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" s="33"/>
       <c r="B285" s="34"/>
       <c r="C285" s="35"/>
@@ -8076,7 +8070,7 @@
       <c r="J285" s="34"/>
       <c r="K285" s="38"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="33"/>
       <c r="B286" s="34"/>
       <c r="C286" s="35"/>
@@ -8089,7 +8083,7 @@
       <c r="J286" s="34"/>
       <c r="K286" s="38"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A287" s="33"/>
       <c r="B287" s="34"/>
       <c r="C287" s="35"/>
@@ -8102,7 +8096,7 @@
       <c r="J287" s="34"/>
       <c r="K287" s="38"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="33"/>
       <c r="B288" s="34"/>
       <c r="C288" s="35"/>
@@ -8115,7 +8109,7 @@
       <c r="J288" s="34"/>
       <c r="K288" s="38"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" s="33"/>
       <c r="B289" s="34"/>
       <c r="C289" s="35"/>
@@ -8128,7 +8122,7 @@
       <c r="J289" s="34"/>
       <c r="K289" s="38"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" s="33"/>
       <c r="B290" s="34"/>
       <c r="C290" s="35"/>
@@ -8141,7 +8135,7 @@
       <c r="J290" s="34"/>
       <c r="K290" s="38"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" s="33"/>
       <c r="B291" s="34"/>
       <c r="C291" s="35"/>
@@ -8154,7 +8148,7 @@
       <c r="J291" s="34"/>
       <c r="K291" s="38"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="33"/>
       <c r="B292" s="34"/>
       <c r="C292" s="35"/>
@@ -8167,7 +8161,7 @@
       <c r="J292" s="34"/>
       <c r="K292" s="38"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="33"/>
       <c r="B293" s="34"/>
       <c r="C293" s="35"/>
@@ -8180,7 +8174,7 @@
       <c r="J293" s="34"/>
       <c r="K293" s="38"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="33"/>
       <c r="B294" s="34"/>
       <c r="C294" s="35"/>
@@ -8193,7 +8187,7 @@
       <c r="J294" s="34"/>
       <c r="K294" s="38"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="33"/>
       <c r="B295" s="34"/>
       <c r="C295" s="35"/>
@@ -8206,7 +8200,7 @@
       <c r="J295" s="34"/>
       <c r="K295" s="38"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" s="33"/>
       <c r="B296" s="34"/>
       <c r="C296" s="35"/>
@@ -8219,7 +8213,7 @@
       <c r="J296" s="34"/>
       <c r="K296" s="38"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A297" s="33"/>
       <c r="B297" s="34"/>
       <c r="C297" s="35"/>
@@ -8232,7 +8226,7 @@
       <c r="J297" s="34"/>
       <c r="K297" s="38"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" s="33"/>
       <c r="B298" s="34"/>
       <c r="C298" s="35"/>
@@ -8245,7 +8239,7 @@
       <c r="J298" s="34"/>
       <c r="K298" s="38"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="33"/>
       <c r="B299" s="34"/>
       <c r="C299" s="35"/>
@@ -8258,7 +8252,7 @@
       <c r="J299" s="34"/>
       <c r="K299" s="38"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="33"/>
       <c r="B300" s="34"/>
       <c r="C300" s="35"/>
@@ -8271,7 +8265,7 @@
       <c r="J300" s="34"/>
       <c r="K300" s="38"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="33"/>
       <c r="B301" s="34"/>
       <c r="C301" s="35"/>
@@ -8284,7 +8278,7 @@
       <c r="J301" s="34"/>
       <c r="K301" s="38"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" s="33"/>
       <c r="B302" s="34"/>
       <c r="C302" s="35"/>
@@ -8297,7 +8291,7 @@
       <c r="J302" s="34"/>
       <c r="K302" s="38"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="33"/>
       <c r="B303" s="34"/>
       <c r="C303" s="35"/>
@@ -8310,7 +8304,7 @@
       <c r="J303" s="34"/>
       <c r="K303" s="38"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="33"/>
       <c r="B304" s="34"/>
       <c r="C304" s="35"/>
@@ -8323,7 +8317,7 @@
       <c r="J304" s="34"/>
       <c r="K304" s="38"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" s="33"/>
       <c r="B305" s="34"/>
       <c r="C305" s="35"/>
@@ -8336,7 +8330,7 @@
       <c r="J305" s="34"/>
       <c r="K305" s="38"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="33"/>
       <c r="B306" s="34"/>
       <c r="C306" s="35"/>
@@ -8349,7 +8343,7 @@
       <c r="J306" s="34"/>
       <c r="K306" s="38"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="33"/>
       <c r="B307" s="34"/>
       <c r="C307" s="35"/>
@@ -8362,7 +8356,7 @@
       <c r="J307" s="34"/>
       <c r="K307" s="38"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="33"/>
       <c r="B308" s="34"/>
       <c r="C308" s="35"/>
@@ -8375,7 +8369,7 @@
       <c r="J308" s="34"/>
       <c r="K308" s="38"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A309" s="33"/>
       <c r="B309" s="34"/>
       <c r="C309" s="35"/>
@@ -8388,7 +8382,7 @@
       <c r="J309" s="34"/>
       <c r="K309" s="38"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="33"/>
       <c r="B310" s="34"/>
       <c r="C310" s="35"/>
@@ -8401,7 +8395,7 @@
       <c r="J310" s="34"/>
       <c r="K310" s="38"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="33"/>
       <c r="B311" s="34"/>
       <c r="C311" s="35"/>
@@ -8414,7 +8408,7 @@
       <c r="J311" s="34"/>
       <c r="K311" s="38"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="33"/>
       <c r="B312" s="34"/>
       <c r="C312" s="35"/>
@@ -8427,7 +8421,7 @@
       <c r="J312" s="34"/>
       <c r="K312" s="38"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A313" s="33"/>
       <c r="B313" s="34"/>
       <c r="C313" s="35"/>
@@ -8440,7 +8434,7 @@
       <c r="J313" s="34"/>
       <c r="K313" s="38"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A314" s="33"/>
       <c r="B314" s="34"/>
       <c r="C314" s="35"/>
@@ -8453,7 +8447,7 @@
       <c r="J314" s="34"/>
       <c r="K314" s="38"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A315" s="33"/>
       <c r="B315" s="34"/>
       <c r="C315" s="35"/>
@@ -8466,7 +8460,7 @@
       <c r="J315" s="34"/>
       <c r="K315" s="38"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A316" s="33"/>
       <c r="B316" s="34"/>
       <c r="C316" s="35"/>
@@ -8479,7 +8473,7 @@
       <c r="J316" s="34"/>
       <c r="K316" s="38"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A317" s="33"/>
       <c r="B317" s="34"/>
       <c r="C317" s="35"/>
@@ -8492,7 +8486,7 @@
       <c r="J317" s="34"/>
       <c r="K317" s="38"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A318" s="33"/>
       <c r="B318" s="34"/>
       <c r="C318" s="35"/>
@@ -8505,7 +8499,7 @@
       <c r="J318" s="34"/>
       <c r="K318" s="38"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A319" s="33"/>
       <c r="B319" s="34"/>
       <c r="C319" s="35"/>
@@ -8518,7 +8512,7 @@
       <c r="J319" s="34"/>
       <c r="K319" s="38"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" s="33"/>
       <c r="B320" s="34"/>
       <c r="C320" s="35"/>
@@ -8531,7 +8525,7 @@
       <c r="J320" s="34"/>
       <c r="K320" s="38"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" s="33"/>
       <c r="B321" s="34"/>
       <c r="C321" s="35"/>
@@ -8544,7 +8538,7 @@
       <c r="J321" s="34"/>
       <c r="K321" s="38"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A322" s="33"/>
       <c r="B322" s="34"/>
       <c r="C322" s="35"/>
@@ -8557,7 +8551,7 @@
       <c r="J322" s="34"/>
       <c r="K322" s="38"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A323" s="33"/>
       <c r="B323" s="34"/>
       <c r="C323" s="35"/>
@@ -8570,7 +8564,7 @@
       <c r="J323" s="34"/>
       <c r="K323" s="38"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A324" s="33"/>
       <c r="B324" s="34"/>
       <c r="C324" s="35"/>
@@ -8583,7 +8577,7 @@
       <c r="J324" s="34"/>
       <c r="K324" s="38"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" s="33"/>
       <c r="B325" s="34"/>
       <c r="C325" s="35"/>
@@ -8596,7 +8590,7 @@
       <c r="J325" s="34"/>
       <c r="K325" s="38"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" s="33"/>
       <c r="B326" s="34"/>
       <c r="C326" s="35"/>
@@ -8609,7 +8603,7 @@
       <c r="J326" s="34"/>
       <c r="K326" s="38"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" s="33"/>
       <c r="B327" s="34"/>
       <c r="C327" s="35"/>
@@ -8622,7 +8616,7 @@
       <c r="J327" s="34"/>
       <c r="K327" s="38"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A328" s="33"/>
       <c r="B328" s="34"/>
       <c r="C328" s="35"/>
@@ -8635,7 +8629,7 @@
       <c r="J328" s="34"/>
       <c r="K328" s="38"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" s="33"/>
       <c r="B329" s="34"/>
       <c r="C329" s="35"/>
@@ -8648,7 +8642,7 @@
       <c r="J329" s="34"/>
       <c r="K329" s="38"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A330" s="33"/>
       <c r="B330" s="34"/>
       <c r="C330" s="35"/>
@@ -8661,7 +8655,7 @@
       <c r="J330" s="34"/>
       <c r="K330" s="38"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A331" s="39"/>
       <c r="B331" s="34"/>
       <c r="C331" s="34"/>
@@ -8674,7 +8668,7 @@
       <c r="J331" s="34"/>
       <c r="K331" s="40"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A332" s="39"/>
       <c r="B332" s="34"/>
       <c r="C332" s="34"/>
@@ -8687,7 +8681,7 @@
       <c r="J332" s="34"/>
       <c r="K332" s="40"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A333" s="39"/>
       <c r="B333" s="34"/>
       <c r="C333" s="34"/>
@@ -8700,7 +8694,7 @@
       <c r="J333" s="34"/>
       <c r="K333" s="40"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A334" s="39"/>
       <c r="B334" s="34"/>
       <c r="C334" s="34"/>
@@ -8713,7 +8707,7 @@
       <c r="J334" s="34"/>
       <c r="K334" s="40"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A335" s="39"/>
       <c r="B335" s="34"/>
       <c r="C335" s="34"/>
@@ -8726,7 +8720,7 @@
       <c r="J335" s="34"/>
       <c r="K335" s="40"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A336" s="39"/>
       <c r="B336" s="34"/>
       <c r="C336" s="34"/>
@@ -8739,7 +8733,7 @@
       <c r="J336" s="34"/>
       <c r="K336" s="40"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" s="39"/>
       <c r="B337" s="34"/>
       <c r="C337" s="34"/>
@@ -8752,7 +8746,7 @@
       <c r="J337" s="34"/>
       <c r="K337" s="40"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A338" s="39"/>
       <c r="B338" s="34"/>
       <c r="C338" s="34"/>
@@ -8765,7 +8759,7 @@
       <c r="J338" s="34"/>
       <c r="K338" s="40"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A339" s="39"/>
       <c r="B339" s="34"/>
       <c r="C339" s="34"/>
@@ -8778,7 +8772,7 @@
       <c r="J339" s="34"/>
       <c r="K339" s="40"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A340" s="39"/>
       <c r="B340" s="34"/>
       <c r="C340" s="34"/>
@@ -8791,7 +8785,7 @@
       <c r="J340" s="34"/>
       <c r="K340" s="40"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
       <c r="B341" s="34"/>
       <c r="C341" s="34"/>
@@ -8804,7 +8798,7 @@
       <c r="J341" s="34"/>
       <c r="K341" s="40"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A342" s="39"/>
       <c r="B342" s="34"/>
       <c r="C342" s="34"/>
@@ -8817,7 +8811,7 @@
       <c r="J342" s="34"/>
       <c r="K342" s="40"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A343" s="39"/>
       <c r="B343" s="34"/>
       <c r="C343" s="34"/>
@@ -8830,7 +8824,7 @@
       <c r="J343" s="34"/>
       <c r="K343" s="40"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="34"/>
       <c r="C344" s="34"/>
@@ -8843,7 +8837,7 @@
       <c r="J344" s="34"/>
       <c r="K344" s="40"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A345" s="39"/>
       <c r="B345" s="34"/>
       <c r="C345" s="34"/>
@@ -8856,7 +8850,7 @@
       <c r="J345" s="34"/>
       <c r="K345" s="40"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A346" s="39"/>
       <c r="B346" s="34"/>
       <c r="C346" s="34"/>
@@ -8869,7 +8863,7 @@
       <c r="J346" s="34"/>
       <c r="K346" s="40"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A347" s="39"/>
       <c r="B347" s="34"/>
       <c r="C347" s="34"/>
@@ -8882,7 +8876,7 @@
       <c r="J347" s="34"/>
       <c r="K347" s="40"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A348" s="39"/>
       <c r="B348" s="34"/>
       <c r="C348" s="34"/>
@@ -8895,7 +8889,7 @@
       <c r="J348" s="34"/>
       <c r="K348" s="40"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A349" s="39"/>
       <c r="B349" s="34"/>
       <c r="C349" s="34"/>
@@ -8908,7 +8902,7 @@
       <c r="J349" s="34"/>
       <c r="K349" s="40"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A350" s="39"/>
       <c r="B350" s="34"/>
       <c r="C350" s="34"/>
@@ -8921,7 +8915,7 @@
       <c r="J350" s="34"/>
       <c r="K350" s="40"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A351" s="39"/>
       <c r="B351" s="34"/>
       <c r="C351" s="34"/>
@@ -8934,7 +8928,7 @@
       <c r="J351" s="34"/>
       <c r="K351" s="40"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A352" s="39"/>
       <c r="B352" s="34"/>
       <c r="C352" s="34"/>
@@ -8947,7 +8941,7 @@
       <c r="J352" s="34"/>
       <c r="K352" s="40"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A353" s="39"/>
       <c r="B353" s="34"/>
       <c r="C353" s="34"/>
@@ -8960,7 +8954,7 @@
       <c r="J353" s="34"/>
       <c r="K353" s="40"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A354" s="39"/>
       <c r="B354" s="34"/>
       <c r="C354" s="34"/>
@@ -8973,7 +8967,7 @@
       <c r="J354" s="34"/>
       <c r="K354" s="40"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A355" s="39"/>
       <c r="B355" s="34"/>
       <c r="C355" s="34"/>
@@ -8986,7 +8980,7 @@
       <c r="J355" s="34"/>
       <c r="K355" s="40"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" s="39"/>
       <c r="B356" s="34"/>
       <c r="C356" s="34"/>
@@ -8999,7 +8993,7 @@
       <c r="J356" s="34"/>
       <c r="K356" s="40"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="39"/>
       <c r="B357" s="34"/>
       <c r="C357" s="34"/>
@@ -9012,7 +9006,7 @@
       <c r="J357" s="34"/>
       <c r="K357" s="40"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A358" s="39"/>
       <c r="B358" s="34"/>
       <c r="C358" s="34"/>
@@ -9025,7 +9019,7 @@
       <c r="J358" s="34"/>
       <c r="K358" s="40"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A359" s="39"/>
       <c r="B359" s="34"/>
       <c r="C359" s="34"/>
@@ -9038,7 +9032,7 @@
       <c r="J359" s="34"/>
       <c r="K359" s="40"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A360" s="39"/>
       <c r="B360" s="34"/>
       <c r="C360" s="34"/>
@@ -9051,7 +9045,7 @@
       <c r="J360" s="34"/>
       <c r="K360" s="40"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A361" s="39"/>
       <c r="B361" s="34"/>
       <c r="C361" s="34"/>
@@ -9064,7 +9058,7 @@
       <c r="J361" s="34"/>
       <c r="K361" s="40"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
       <c r="B362" s="34"/>
       <c r="C362" s="34"/>
@@ -9077,7 +9071,7 @@
       <c r="J362" s="34"/>
       <c r="K362" s="40"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A363" s="39"/>
       <c r="B363" s="34"/>
       <c r="C363" s="34"/>
@@ -9090,7 +9084,7 @@
       <c r="J363" s="34"/>
       <c r="K363" s="40"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A364" s="39"/>
       <c r="B364" s="34"/>
       <c r="C364" s="34"/>
@@ -9103,7 +9097,7 @@
       <c r="J364" s="34"/>
       <c r="K364" s="40"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A365" s="39"/>
       <c r="B365" s="34"/>
       <c r="C365" s="34"/>
@@ -9116,7 +9110,7 @@
       <c r="J365" s="34"/>
       <c r="K365" s="40"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A366" s="39"/>
       <c r="B366" s="34"/>
       <c r="C366" s="34"/>
@@ -9129,7 +9123,7 @@
       <c r="J366" s="34"/>
       <c r="K366" s="40"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A367" s="39"/>
       <c r="B367" s="34"/>
       <c r="C367" s="34"/>
@@ -9142,7 +9136,7 @@
       <c r="J367" s="34"/>
       <c r="K367" s="40"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" s="39"/>
       <c r="B368" s="34"/>
       <c r="C368" s="34"/>
@@ -9155,7 +9149,7 @@
       <c r="J368" s="34"/>
       <c r="K368" s="40"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A369" s="39"/>
       <c r="B369" s="34"/>
       <c r="C369" s="34"/>
@@ -9168,7 +9162,7 @@
       <c r="J369" s="34"/>
       <c r="K369" s="40"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A370" s="39"/>
       <c r="B370" s="34"/>
       <c r="C370" s="34"/>
@@ -9181,7 +9175,7 @@
       <c r="J370" s="34"/>
       <c r="K370" s="40"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A371" s="39"/>
       <c r="B371" s="34"/>
       <c r="C371" s="34"/>
@@ -9194,7 +9188,7 @@
       <c r="J371" s="34"/>
       <c r="K371" s="40"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A372" s="39"/>
       <c r="B372" s="34"/>
       <c r="C372" s="34"/>
@@ -9207,7 +9201,7 @@
       <c r="J372" s="34"/>
       <c r="K372" s="40"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A373" s="39"/>
       <c r="B373" s="34"/>
       <c r="C373" s="34"/>
@@ -9220,7 +9214,7 @@
       <c r="J373" s="34"/>
       <c r="K373" s="40"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A374" s="39"/>
       <c r="B374" s="34"/>
       <c r="C374" s="34"/>
@@ -9233,7 +9227,7 @@
       <c r="J374" s="34"/>
       <c r="K374" s="40"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A375" s="39"/>
       <c r="B375" s="34"/>
       <c r="C375" s="34"/>
@@ -9246,7 +9240,7 @@
       <c r="J375" s="34"/>
       <c r="K375" s="40"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A376" s="39"/>
       <c r="B376" s="34"/>
       <c r="C376" s="34"/>
@@ -9259,7 +9253,7 @@
       <c r="J376" s="34"/>
       <c r="K376" s="40"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A377" s="39"/>
       <c r="B377" s="34"/>
       <c r="C377" s="34"/>
@@ -9272,7 +9266,7 @@
       <c r="J377" s="34"/>
       <c r="K377" s="40"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A378" s="39"/>
       <c r="B378" s="34"/>
       <c r="C378" s="34"/>
@@ -9285,7 +9279,7 @@
       <c r="J378" s="34"/>
       <c r="K378" s="40"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A379" s="39"/>
       <c r="B379" s="34"/>
       <c r="C379" s="34"/>
@@ -9298,7 +9292,7 @@
       <c r="J379" s="34"/>
       <c r="K379" s="40"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A380" s="39"/>
       <c r="B380" s="34"/>
       <c r="C380" s="34"/>
@@ -9311,7 +9305,7 @@
       <c r="J380" s="34"/>
       <c r="K380" s="40"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A381" s="39"/>
       <c r="B381" s="34"/>
       <c r="C381" s="34"/>
@@ -9324,7 +9318,7 @@
       <c r="J381" s="34"/>
       <c r="K381" s="40"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A382" s="39"/>
       <c r="B382" s="34"/>
       <c r="C382" s="34"/>
@@ -9337,7 +9331,7 @@
       <c r="J382" s="34"/>
       <c r="K382" s="40"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="39"/>
       <c r="B383" s="34"/>
       <c r="C383" s="34"/>
@@ -9350,7 +9344,7 @@
       <c r="J383" s="34"/>
       <c r="K383" s="40"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" s="39"/>
       <c r="B384" s="34"/>
       <c r="C384" s="34"/>
@@ -9363,7 +9357,7 @@
       <c r="J384" s="34"/>
       <c r="K384" s="40"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A385" s="39"/>
       <c r="B385" s="34"/>
       <c r="C385" s="34"/>
@@ -9376,7 +9370,7 @@
       <c r="J385" s="34"/>
       <c r="K385" s="40"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A386" s="39"/>
       <c r="B386" s="34"/>
       <c r="C386" s="34"/>
@@ -9389,7 +9383,7 @@
       <c r="J386" s="34"/>
       <c r="K386" s="40"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A387" s="39"/>
       <c r="B387" s="34"/>
       <c r="C387" s="34"/>
@@ -9402,7 +9396,7 @@
       <c r="J387" s="34"/>
       <c r="K387" s="40"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" s="39"/>
       <c r="B388" s="34"/>
       <c r="C388" s="34"/>
@@ -9415,7 +9409,7 @@
       <c r="J388" s="34"/>
       <c r="K388" s="40"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A389" s="39"/>
       <c r="B389" s="34"/>
       <c r="C389" s="34"/>
@@ -9428,7 +9422,7 @@
       <c r="J389" s="34"/>
       <c r="K389" s="40"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A390" s="39"/>
       <c r="B390" s="34"/>
       <c r="C390" s="34"/>
@@ -9441,7 +9435,7 @@
       <c r="J390" s="34"/>
       <c r="K390" s="40"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A391" s="39"/>
       <c r="B391" s="34"/>
       <c r="C391" s="34"/>
@@ -9454,7 +9448,7 @@
       <c r="J391" s="34"/>
       <c r="K391" s="40"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A392" s="39"/>
       <c r="B392" s="34"/>
       <c r="C392" s="34"/>
@@ -9467,7 +9461,7 @@
       <c r="J392" s="34"/>
       <c r="K392" s="40"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A393" s="39"/>
       <c r="B393" s="34"/>
       <c r="C393" s="34"/>
@@ -9480,7 +9474,7 @@
       <c r="J393" s="34"/>
       <c r="K393" s="40"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A394" s="39"/>
       <c r="B394" s="34"/>
       <c r="C394" s="34"/>
@@ -9493,7 +9487,7 @@
       <c r="J394" s="34"/>
       <c r="K394" s="40"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A395" s="39"/>
       <c r="B395" s="34"/>
       <c r="C395" s="34"/>
@@ -9506,7 +9500,7 @@
       <c r="J395" s="34"/>
       <c r="K395" s="40"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A396" s="39"/>
       <c r="B396" s="34"/>
       <c r="C396" s="34"/>
@@ -9519,7 +9513,7 @@
       <c r="J396" s="34"/>
       <c r="K396" s="40"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A397" s="39"/>
       <c r="B397" s="34"/>
       <c r="C397" s="34"/>
@@ -9532,7 +9526,7 @@
       <c r="J397" s="34"/>
       <c r="K397" s="40"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A398" s="39"/>
       <c r="B398" s="34"/>
       <c r="C398" s="34"/>
@@ -9545,7 +9539,7 @@
       <c r="J398" s="34"/>
       <c r="K398" s="40"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A399" s="39"/>
       <c r="B399" s="34"/>
       <c r="C399" s="34"/>
@@ -9558,7 +9552,7 @@
       <c r="J399" s="34"/>
       <c r="K399" s="40"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A400" s="39"/>
       <c r="B400" s="34"/>
       <c r="C400" s="34"/>
@@ -9571,7 +9565,7 @@
       <c r="J400" s="34"/>
       <c r="K400" s="40"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A401" s="39"/>
       <c r="B401" s="34"/>
       <c r="C401" s="34"/>
@@ -9584,7 +9578,7 @@
       <c r="J401" s="34"/>
       <c r="K401" s="40"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A402" s="39"/>
       <c r="B402" s="34"/>
       <c r="C402" s="34"/>
@@ -9597,7 +9591,7 @@
       <c r="J402" s="34"/>
       <c r="K402" s="40"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A403" s="39"/>
       <c r="B403" s="34"/>
       <c r="C403" s="34"/>
@@ -9610,7 +9604,7 @@
       <c r="J403" s="34"/>
       <c r="K403" s="40"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A404" s="39"/>
       <c r="B404" s="34"/>
       <c r="C404" s="34"/>
@@ -9623,7 +9617,7 @@
       <c r="J404" s="34"/>
       <c r="K404" s="40"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A405" s="39"/>
       <c r="B405" s="34"/>
       <c r="C405" s="34"/>
@@ -9636,7 +9630,7 @@
       <c r="J405" s="34"/>
       <c r="K405" s="40"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A406" s="39"/>
       <c r="B406" s="34"/>
       <c r="C406" s="34"/>
@@ -9649,7 +9643,7 @@
       <c r="J406" s="34"/>
       <c r="K406" s="40"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A407" s="39"/>
       <c r="B407" s="34"/>
       <c r="C407" s="34"/>
@@ -9662,7 +9656,7 @@
       <c r="J407" s="34"/>
       <c r="K407" s="40"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A408" s="39"/>
       <c r="B408" s="34"/>
       <c r="C408" s="34"/>
@@ -9675,7 +9669,7 @@
       <c r="J408" s="34"/>
       <c r="K408" s="40"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A409" s="39"/>
       <c r="B409" s="34"/>
       <c r="C409" s="34"/>
@@ -9688,7 +9682,7 @@
       <c r="J409" s="34"/>
       <c r="K409" s="40"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A410" s="39"/>
       <c r="B410" s="34"/>
       <c r="C410" s="34"/>
@@ -9701,7 +9695,7 @@
       <c r="J410" s="34"/>
       <c r="K410" s="40"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A411" s="39"/>
       <c r="B411" s="34"/>
       <c r="C411" s="34"/>
@@ -9714,7 +9708,7 @@
       <c r="J411" s="34"/>
       <c r="K411" s="40"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A412" s="39"/>
       <c r="B412" s="34"/>
       <c r="C412" s="34"/>
@@ -9727,7 +9721,7 @@
       <c r="J412" s="34"/>
       <c r="K412" s="40"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A413" s="39"/>
       <c r="B413" s="34"/>
       <c r="C413" s="34"/>
@@ -9740,7 +9734,7 @@
       <c r="J413" s="34"/>
       <c r="K413" s="40"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A414" s="39"/>
       <c r="B414" s="34"/>
       <c r="C414" s="34"/>
@@ -9753,7 +9747,7 @@
       <c r="J414" s="34"/>
       <c r="K414" s="40"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A415" s="39"/>
       <c r="B415" s="34"/>
       <c r="C415" s="34"/>
@@ -9766,7 +9760,7 @@
       <c r="J415" s="34"/>
       <c r="K415" s="40"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A416" s="39"/>
       <c r="B416" s="34"/>
       <c r="C416" s="34"/>
@@ -9779,7 +9773,7 @@
       <c r="J416" s="34"/>
       <c r="K416" s="40"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A417" s="39"/>
       <c r="B417" s="34"/>
       <c r="C417" s="34"/>
@@ -9792,7 +9786,7 @@
       <c r="J417" s="34"/>
       <c r="K417" s="40"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A418" s="39"/>
       <c r="B418" s="34"/>
       <c r="C418" s="34"/>
@@ -9805,7 +9799,7 @@
       <c r="J418" s="34"/>
       <c r="K418" s="40"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A419" s="39"/>
       <c r="B419" s="34"/>
       <c r="C419" s="34"/>
@@ -9818,7 +9812,7 @@
       <c r="J419" s="34"/>
       <c r="K419" s="40"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A420" s="39"/>
       <c r="B420" s="34"/>
       <c r="C420" s="34"/>
@@ -9831,7 +9825,7 @@
       <c r="J420" s="34"/>
       <c r="K420" s="40"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A421" s="39"/>
       <c r="B421" s="34"/>
       <c r="C421" s="34"/>
@@ -9844,7 +9838,7 @@
       <c r="J421" s="34"/>
       <c r="K421" s="40"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A422" s="39"/>
       <c r="B422" s="34"/>
       <c r="C422" s="34"/>
@@ -9857,7 +9851,7 @@
       <c r="J422" s="34"/>
       <c r="K422" s="40"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A423" s="39"/>
       <c r="B423" s="34"/>
       <c r="C423" s="34"/>
@@ -9870,7 +9864,7 @@
       <c r="J423" s="34"/>
       <c r="K423" s="40"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A424" s="39"/>
       <c r="B424" s="34"/>
       <c r="C424" s="34"/>
@@ -9883,7 +9877,7 @@
       <c r="J424" s="34"/>
       <c r="K424" s="40"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A425" s="39"/>
       <c r="B425" s="34"/>
       <c r="C425" s="34"/>
@@ -9896,7 +9890,7 @@
       <c r="J425" s="34"/>
       <c r="K425" s="40"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A426" s="39"/>
       <c r="B426" s="34"/>
       <c r="C426" s="34"/>
@@ -9909,7 +9903,7 @@
       <c r="J426" s="34"/>
       <c r="K426" s="40"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A427" s="39"/>
       <c r="B427" s="34"/>
       <c r="C427" s="34"/>
@@ -9922,7 +9916,7 @@
       <c r="J427" s="34"/>
       <c r="K427" s="40"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A428" s="39"/>
       <c r="B428" s="34"/>
       <c r="C428" s="34"/>
@@ -9935,7 +9929,7 @@
       <c r="J428" s="34"/>
       <c r="K428" s="40"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A429" s="39"/>
       <c r="B429" s="34"/>
       <c r="C429" s="34"/>
@@ -9948,7 +9942,7 @@
       <c r="J429" s="34"/>
       <c r="K429" s="40"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A430" s="39"/>
       <c r="B430" s="34"/>
       <c r="C430" s="34"/>
@@ -9961,7 +9955,7 @@
       <c r="J430" s="34"/>
       <c r="K430" s="40"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A431" s="39"/>
       <c r="B431" s="34"/>
       <c r="C431" s="34"/>
@@ -9974,7 +9968,7 @@
       <c r="J431" s="34"/>
       <c r="K431" s="40"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A432" s="39"/>
       <c r="B432" s="34"/>
       <c r="C432" s="34"/>
@@ -9987,7 +9981,7 @@
       <c r="J432" s="34"/>
       <c r="K432" s="40"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A433" s="39"/>
       <c r="B433" s="34"/>
       <c r="C433" s="34"/>
@@ -10000,7 +9994,7 @@
       <c r="J433" s="34"/>
       <c r="K433" s="40"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A434" s="39"/>
       <c r="B434" s="34"/>
       <c r="C434" s="34"/>
@@ -10013,7 +10007,7 @@
       <c r="J434" s="34"/>
       <c r="K434" s="40"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A435" s="39"/>
       <c r="B435" s="34"/>
       <c r="C435" s="34"/>
@@ -10026,7 +10020,7 @@
       <c r="J435" s="34"/>
       <c r="K435" s="40"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A436" s="39"/>
       <c r="B436" s="34"/>
       <c r="C436" s="34"/>
@@ -10039,7 +10033,7 @@
       <c r="J436" s="34"/>
       <c r="K436" s="40"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A437" s="39"/>
       <c r="B437" s="34"/>
       <c r="C437" s="34"/>
@@ -10052,7 +10046,7 @@
       <c r="J437" s="34"/>
       <c r="K437" s="40"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A438" s="39"/>
       <c r="B438" s="34"/>
       <c r="C438" s="34"/>
@@ -10065,7 +10059,7 @@
       <c r="J438" s="34"/>
       <c r="K438" s="40"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A439" s="39"/>
       <c r="B439" s="34"/>
       <c r="C439" s="34"/>
@@ -10078,7 +10072,7 @@
       <c r="J439" s="34"/>
       <c r="K439" s="40"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A440" s="39"/>
       <c r="B440" s="34"/>
       <c r="C440" s="34"/>
@@ -10091,7 +10085,7 @@
       <c r="J440" s="34"/>
       <c r="K440" s="40"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A441" s="39"/>
       <c r="B441" s="34"/>
       <c r="C441" s="34"/>
@@ -10104,7 +10098,7 @@
       <c r="J441" s="34"/>
       <c r="K441" s="40"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A442" s="39"/>
       <c r="B442" s="34"/>
       <c r="C442" s="34"/>
@@ -10117,7 +10111,7 @@
       <c r="J442" s="34"/>
       <c r="K442" s="40"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A443" s="39"/>
       <c r="B443" s="34"/>
       <c r="C443" s="34"/>
@@ -10130,7 +10124,7 @@
       <c r="J443" s="34"/>
       <c r="K443" s="40"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A444" s="39"/>
       <c r="B444" s="34"/>
       <c r="C444" s="34"/>
@@ -10143,7 +10137,7 @@
       <c r="J444" s="34"/>
       <c r="K444" s="40"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A445" s="39"/>
       <c r="B445" s="34"/>
       <c r="C445" s="34"/>
@@ -10156,7 +10150,7 @@
       <c r="J445" s="34"/>
       <c r="K445" s="40"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A446" s="39"/>
       <c r="B446" s="34"/>
       <c r="C446" s="34"/>
@@ -10169,7 +10163,7 @@
       <c r="J446" s="34"/>
       <c r="K446" s="40"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A447" s="39"/>
       <c r="B447" s="34"/>
       <c r="C447" s="34"/>
@@ -10182,7 +10176,7 @@
       <c r="J447" s="34"/>
       <c r="K447" s="40"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A448" s="39"/>
       <c r="B448" s="34"/>
       <c r="C448" s="34"/>
@@ -10195,7 +10189,7 @@
       <c r="J448" s="34"/>
       <c r="K448" s="40"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A449" s="39"/>
       <c r="B449" s="34"/>
       <c r="C449" s="34"/>
@@ -10208,7 +10202,7 @@
       <c r="J449" s="34"/>
       <c r="K449" s="40"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A450" s="39"/>
       <c r="B450" s="34"/>
       <c r="C450" s="34"/>
@@ -10221,7 +10215,7 @@
       <c r="J450" s="34"/>
       <c r="K450" s="40"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A451" s="39"/>
       <c r="B451" s="34"/>
       <c r="C451" s="34"/>
@@ -10234,7 +10228,7 @@
       <c r="J451" s="34"/>
       <c r="K451" s="40"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A452" s="39"/>
       <c r="B452" s="34"/>
       <c r="C452" s="34"/>
@@ -10247,7 +10241,7 @@
       <c r="J452" s="34"/>
       <c r="K452" s="40"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A453" s="39"/>
       <c r="B453" s="34"/>
       <c r="C453" s="34"/>
@@ -10260,7 +10254,7 @@
       <c r="J453" s="34"/>
       <c r="K453" s="40"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A454" s="39"/>
       <c r="B454" s="34"/>
       <c r="C454" s="34"/>
@@ -10273,7 +10267,7 @@
       <c r="J454" s="34"/>
       <c r="K454" s="40"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A455" s="39"/>
       <c r="B455" s="34"/>
       <c r="C455" s="34"/>
@@ -10286,7 +10280,7 @@
       <c r="J455" s="34"/>
       <c r="K455" s="40"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A456" s="39"/>
       <c r="B456" s="34"/>
       <c r="C456" s="34"/>
@@ -10299,7 +10293,7 @@
       <c r="J456" s="34"/>
       <c r="K456" s="40"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A457" s="39"/>
       <c r="B457" s="34"/>
       <c r="C457" s="34"/>
@@ -10312,7 +10306,7 @@
       <c r="J457" s="34"/>
       <c r="K457" s="40"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A458" s="39"/>
       <c r="B458" s="34"/>
       <c r="C458" s="34"/>
@@ -10325,7 +10319,7 @@
       <c r="J458" s="34"/>
       <c r="K458" s="40"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A459" s="39"/>
       <c r="B459" s="34"/>
       <c r="C459" s="34"/>
@@ -10338,7 +10332,7 @@
       <c r="J459" s="34"/>
       <c r="K459" s="40"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A460" s="39"/>
       <c r="B460" s="34"/>
       <c r="C460" s="34"/>
@@ -10351,7 +10345,7 @@
       <c r="J460" s="34"/>
       <c r="K460" s="40"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A461" s="39"/>
       <c r="B461" s="34"/>
       <c r="C461" s="34"/>
@@ -10364,7 +10358,7 @@
       <c r="J461" s="34"/>
       <c r="K461" s="40"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A462" s="39"/>
       <c r="B462" s="34"/>
       <c r="C462" s="34"/>
@@ -10377,7 +10371,7 @@
       <c r="J462" s="34"/>
       <c r="K462" s="40"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A463" s="39"/>
       <c r="B463" s="34"/>
       <c r="C463" s="34"/>
@@ -10390,7 +10384,7 @@
       <c r="J463" s="34"/>
       <c r="K463" s="40"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A464" s="39"/>
       <c r="B464" s="34"/>
       <c r="C464" s="34"/>
@@ -10403,7 +10397,7 @@
       <c r="J464" s="34"/>
       <c r="K464" s="40"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A465" s="39"/>
       <c r="B465" s="34"/>
       <c r="C465" s="34"/>
@@ -10416,7 +10410,7 @@
       <c r="J465" s="34"/>
       <c r="K465" s="40"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A466" s="39"/>
       <c r="B466" s="34"/>
       <c r="C466" s="34"/>
@@ -10429,7 +10423,7 @@
       <c r="J466" s="34"/>
       <c r="K466" s="40"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A467" s="39"/>
       <c r="B467" s="34"/>
       <c r="C467" s="34"/>
@@ -10442,7 +10436,7 @@
       <c r="J467" s="34"/>
       <c r="K467" s="40"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A468" s="39"/>
       <c r="B468" s="34"/>
       <c r="C468" s="34"/>
@@ -10455,7 +10449,7 @@
       <c r="J468" s="34"/>
       <c r="K468" s="40"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A469" s="39"/>
       <c r="B469" s="34"/>
       <c r="C469" s="34"/>
@@ -10468,7 +10462,7 @@
       <c r="J469" s="34"/>
       <c r="K469" s="40"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A470" s="39"/>
       <c r="B470" s="34"/>
       <c r="C470" s="34"/>
@@ -10481,7 +10475,7 @@
       <c r="J470" s="34"/>
       <c r="K470" s="40"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A471" s="39"/>
       <c r="B471" s="34"/>
       <c r="C471" s="34"/>
@@ -10494,7 +10488,7 @@
       <c r="J471" s="34"/>
       <c r="K471" s="40"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A472" s="39"/>
       <c r="B472" s="34"/>
       <c r="C472" s="34"/>
@@ -10507,7 +10501,7 @@
       <c r="J472" s="34"/>
       <c r="K472" s="40"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A473" s="39"/>
       <c r="B473" s="34"/>
       <c r="C473" s="34"/>
@@ -10520,7 +10514,7 @@
       <c r="J473" s="34"/>
       <c r="K473" s="40"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A474" s="39"/>
       <c r="B474" s="34"/>
       <c r="C474" s="34"/>
@@ -10533,7 +10527,7 @@
       <c r="J474" s="34"/>
       <c r="K474" s="40"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A475" s="39"/>
       <c r="B475" s="34"/>
       <c r="C475" s="34"/>
@@ -10546,7 +10540,7 @@
       <c r="J475" s="34"/>
       <c r="K475" s="40"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A476" s="39"/>
       <c r="B476" s="34"/>
       <c r="C476" s="34"/>
@@ -10559,7 +10553,7 @@
       <c r="J476" s="34"/>
       <c r="K476" s="40"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A477" s="39"/>
       <c r="B477" s="34"/>
       <c r="C477" s="34"/>
@@ -10572,7 +10566,7 @@
       <c r="J477" s="34"/>
       <c r="K477" s="40"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A478" s="39"/>
       <c r="B478" s="34"/>
       <c r="C478" s="34"/>
@@ -10585,7 +10579,7 @@
       <c r="J478" s="34"/>
       <c r="K478" s="40"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A479" s="39"/>
       <c r="B479" s="34"/>
       <c r="C479" s="34"/>
@@ -10598,7 +10592,7 @@
       <c r="J479" s="34"/>
       <c r="K479" s="40"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A480" s="39"/>
       <c r="B480" s="34"/>
       <c r="C480" s="34"/>
@@ -10611,7 +10605,7 @@
       <c r="J480" s="34"/>
       <c r="K480" s="40"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A481" s="39"/>
       <c r="B481" s="34"/>
       <c r="C481" s="34"/>
@@ -10624,7 +10618,7 @@
       <c r="J481" s="34"/>
       <c r="K481" s="40"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A482" s="39"/>
       <c r="B482" s="34"/>
       <c r="C482" s="34"/>
@@ -10637,7 +10631,7 @@
       <c r="J482" s="34"/>
       <c r="K482" s="40"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A483" s="39"/>
       <c r="B483" s="34"/>
       <c r="C483" s="34"/>
@@ -10650,7 +10644,7 @@
       <c r="J483" s="34"/>
       <c r="K483" s="40"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A484" s="39"/>
       <c r="B484" s="34"/>
       <c r="C484" s="34"/>
@@ -10663,7 +10657,7 @@
       <c r="J484" s="34"/>
       <c r="K484" s="40"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A485" s="39"/>
       <c r="B485" s="34"/>
       <c r="C485" s="34"/>
@@ -10676,7 +10670,7 @@
       <c r="J485" s="34"/>
       <c r="K485" s="40"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A486" s="39"/>
       <c r="B486" s="34"/>
       <c r="C486" s="34"/>
@@ -10689,7 +10683,7 @@
       <c r="J486" s="34"/>
       <c r="K486" s="40"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A487" s="39"/>
       <c r="B487" s="34"/>
       <c r="C487" s="34"/>
@@ -10702,7 +10696,7 @@
       <c r="J487" s="34"/>
       <c r="K487" s="40"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A488" s="39"/>
       <c r="B488" s="34"/>
       <c r="C488" s="34"/>
@@ -10715,7 +10709,7 @@
       <c r="J488" s="34"/>
       <c r="K488" s="40"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A489" s="39"/>
       <c r="B489" s="34"/>
       <c r="C489" s="34"/>
@@ -10728,7 +10722,7 @@
       <c r="J489" s="34"/>
       <c r="K489" s="40"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A490" s="39"/>
       <c r="B490" s="34"/>
       <c r="C490" s="34"/>
@@ -10741,7 +10735,7 @@
       <c r="J490" s="34"/>
       <c r="K490" s="40"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A491" s="39"/>
       <c r="B491" s="34"/>
       <c r="C491" s="34"/>
@@ -10754,7 +10748,7 @@
       <c r="J491" s="34"/>
       <c r="K491" s="40"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A492" s="39"/>
       <c r="B492" s="34"/>
       <c r="C492" s="34"/>
@@ -10767,7 +10761,7 @@
       <c r="J492" s="34"/>
       <c r="K492" s="40"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A493" s="39"/>
       <c r="B493" s="34"/>
       <c r="C493" s="34"/>
@@ -10780,7 +10774,7 @@
       <c r="J493" s="34"/>
       <c r="K493" s="40"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A494" s="39"/>
       <c r="B494" s="34"/>
       <c r="C494" s="34"/>
@@ -10793,7 +10787,7 @@
       <c r="J494" s="34"/>
       <c r="K494" s="40"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A495" s="39"/>
       <c r="B495" s="34"/>
       <c r="C495" s="34"/>
@@ -10806,7 +10800,7 @@
       <c r="J495" s="34"/>
       <c r="K495" s="40"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A496" s="39"/>
       <c r="B496" s="34"/>
       <c r="C496" s="34"/>
@@ -10819,7 +10813,7 @@
       <c r="J496" s="34"/>
       <c r="K496" s="40"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A497" s="39"/>
       <c r="B497" s="34"/>
       <c r="C497" s="34"/>
@@ -10832,7 +10826,7 @@
       <c r="J497" s="34"/>
       <c r="K497" s="40"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A498" s="39"/>
       <c r="B498" s="34"/>
       <c r="C498" s="34"/>
@@ -10845,7 +10839,7 @@
       <c r="J498" s="34"/>
       <c r="K498" s="40"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A499" s="39"/>
       <c r="B499" s="34"/>
       <c r="C499" s="34"/>
@@ -10858,7 +10852,7 @@
       <c r="J499" s="34"/>
       <c r="K499" s="40"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A500" s="39"/>
       <c r="B500" s="34"/>
       <c r="C500" s="34"/>
@@ -10871,7 +10865,7 @@
       <c r="J500" s="34"/>
       <c r="K500" s="40"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A501" s="39"/>
       <c r="B501" s="34"/>
       <c r="C501" s="34"/>
@@ -10884,7 +10878,7 @@
       <c r="J501" s="34"/>
       <c r="K501" s="40"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A502" s="39"/>
       <c r="B502" s="34"/>
       <c r="C502" s="34"/>
@@ -10897,7 +10891,7 @@
       <c r="J502" s="34"/>
       <c r="K502" s="40"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A503" s="39"/>
       <c r="B503" s="34"/>
       <c r="C503" s="34"/>
@@ -10910,7 +10904,7 @@
       <c r="J503" s="34"/>
       <c r="K503" s="40"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A504" s="39"/>
       <c r="B504" s="34"/>
       <c r="C504" s="34"/>
@@ -10923,7 +10917,7 @@
       <c r="J504" s="34"/>
       <c r="K504" s="40"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A505" s="39"/>
       <c r="B505" s="34"/>
       <c r="C505" s="34"/>
@@ -10936,7 +10930,7 @@
       <c r="J505" s="34"/>
       <c r="K505" s="40"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A506" s="39"/>
       <c r="B506" s="34"/>
       <c r="C506" s="34"/>
@@ -10949,7 +10943,7 @@
       <c r="J506" s="34"/>
       <c r="K506" s="40"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A507" s="39"/>
       <c r="B507" s="34"/>
       <c r="C507" s="34"/>
@@ -10962,7 +10956,7 @@
       <c r="J507" s="34"/>
       <c r="K507" s="40"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A508" s="39"/>
       <c r="B508" s="34"/>
       <c r="C508" s="34"/>
@@ -10975,7 +10969,7 @@
       <c r="J508" s="34"/>
       <c r="K508" s="40"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A509" s="39"/>
       <c r="B509" s="34"/>
       <c r="C509" s="34"/>
@@ -10988,7 +10982,7 @@
       <c r="J509" s="34"/>
       <c r="K509" s="40"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A510" s="39"/>
       <c r="B510" s="34"/>
       <c r="C510" s="34"/>
@@ -11001,7 +10995,7 @@
       <c r="J510" s="34"/>
       <c r="K510" s="40"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A511" s="39"/>
       <c r="B511" s="34"/>
       <c r="C511" s="34"/>
@@ -11014,7 +11008,7 @@
       <c r="J511" s="34"/>
       <c r="K511" s="40"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A512" s="39"/>
       <c r="B512" s="34"/>
       <c r="C512" s="34"/>
@@ -11027,7 +11021,7 @@
       <c r="J512" s="34"/>
       <c r="K512" s="40"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A513" s="39"/>
       <c r="B513" s="34"/>
       <c r="C513" s="34"/>
@@ -11040,7 +11034,7 @@
       <c r="J513" s="34"/>
       <c r="K513" s="40"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A514" s="39"/>
       <c r="B514" s="34"/>
       <c r="C514" s="34"/>
@@ -11053,7 +11047,7 @@
       <c r="J514" s="34"/>
       <c r="K514" s="40"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A515" s="39"/>
       <c r="B515" s="34"/>
       <c r="C515" s="34"/>
@@ -11066,7 +11060,7 @@
       <c r="J515" s="34"/>
       <c r="K515" s="40"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A516" s="39"/>
       <c r="B516" s="34"/>
       <c r="C516" s="34"/>
@@ -11079,7 +11073,7 @@
       <c r="J516" s="34"/>
       <c r="K516" s="40"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A517" s="39"/>
       <c r="B517" s="34"/>
       <c r="C517" s="34"/>
@@ -11092,7 +11086,7 @@
       <c r="J517" s="34"/>
       <c r="K517" s="40"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A518" s="39"/>
       <c r="B518" s="34"/>
       <c r="C518" s="34"/>
@@ -11105,7 +11099,7 @@
       <c r="J518" s="34"/>
       <c r="K518" s="40"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A519" s="39"/>
       <c r="B519" s="34"/>
       <c r="C519" s="34"/>
@@ -11118,7 +11112,7 @@
       <c r="J519" s="34"/>
       <c r="K519" s="40"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A520" s="39"/>
       <c r="B520" s="34"/>
       <c r="C520" s="34"/>
@@ -11131,7 +11125,7 @@
       <c r="J520" s="34"/>
       <c r="K520" s="40"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A521" s="39"/>
       <c r="B521" s="34"/>
       <c r="C521" s="34"/>
@@ -11144,7 +11138,7 @@
       <c r="J521" s="34"/>
       <c r="K521" s="40"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A522" s="39"/>
       <c r="B522" s="34"/>
       <c r="C522" s="34"/>
@@ -11157,7 +11151,7 @@
       <c r="J522" s="34"/>
       <c r="K522" s="40"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A523" s="39"/>
       <c r="B523" s="34"/>
       <c r="C523" s="34"/>
@@ -11170,7 +11164,7 @@
       <c r="J523" s="34"/>
       <c r="K523" s="40"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A524" s="39"/>
       <c r="B524" s="34"/>
       <c r="C524" s="34"/>
@@ -11183,7 +11177,7 @@
       <c r="J524" s="34"/>
       <c r="K524" s="40"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A525" s="39"/>
       <c r="B525" s="34"/>
       <c r="C525" s="34"/>
@@ -11196,7 +11190,7 @@
       <c r="J525" s="34"/>
       <c r="K525" s="40"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A526" s="39"/>
       <c r="B526" s="34"/>
       <c r="C526" s="34"/>
@@ -11209,7 +11203,7 @@
       <c r="J526" s="34"/>
       <c r="K526" s="40"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A527" s="39"/>
       <c r="B527" s="34"/>
       <c r="C527" s="34"/>
@@ -11222,7 +11216,7 @@
       <c r="J527" s="34"/>
       <c r="K527" s="40"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A528" s="39"/>
       <c r="B528" s="34"/>
       <c r="C528" s="34"/>
@@ -11235,7 +11229,7 @@
       <c r="J528" s="34"/>
       <c r="K528" s="40"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A529" s="39"/>
       <c r="B529" s="34"/>
       <c r="C529" s="34"/>
@@ -11248,7 +11242,7 @@
       <c r="J529" s="34"/>
       <c r="K529" s="40"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A530" s="39"/>
       <c r="B530" s="34"/>
       <c r="C530" s="34"/>
@@ -11261,7 +11255,7 @@
       <c r="J530" s="34"/>
       <c r="K530" s="40"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A531" s="39"/>
       <c r="B531" s="34"/>
       <c r="C531" s="34"/>
@@ -11274,7 +11268,7 @@
       <c r="J531" s="34"/>
       <c r="K531" s="40"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A532" s="39"/>
       <c r="B532" s="34"/>
       <c r="C532" s="34"/>
@@ -11287,7 +11281,7 @@
       <c r="J532" s="34"/>
       <c r="K532" s="40"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A533" s="39"/>
       <c r="B533" s="34"/>
       <c r="C533" s="34"/>
@@ -11300,7 +11294,7 @@
       <c r="J533" s="34"/>
       <c r="K533" s="40"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A534" s="39"/>
       <c r="B534" s="34"/>
       <c r="C534" s="34"/>
@@ -11313,7 +11307,7 @@
       <c r="J534" s="34"/>
       <c r="K534" s="40"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A535" s="39"/>
       <c r="B535" s="34"/>
       <c r="C535" s="34"/>
@@ -11326,7 +11320,7 @@
       <c r="J535" s="34"/>
       <c r="K535" s="40"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A536" s="39"/>
       <c r="B536" s="34"/>
       <c r="C536" s="34"/>
@@ -11339,7 +11333,7 @@
       <c r="J536" s="34"/>
       <c r="K536" s="40"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A537" s="39"/>
       <c r="B537" s="34"/>
       <c r="C537" s="34"/>
@@ -11352,7 +11346,7 @@
       <c r="J537" s="34"/>
       <c r="K537" s="40"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A538" s="39"/>
       <c r="B538" s="34"/>
       <c r="C538" s="34"/>
@@ -11365,7 +11359,7 @@
       <c r="J538" s="34"/>
       <c r="K538" s="40"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A539" s="39"/>
       <c r="B539" s="34"/>
       <c r="C539" s="34"/>
@@ -11378,7 +11372,7 @@
       <c r="J539" s="34"/>
       <c r="K539" s="40"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A540" s="39"/>
       <c r="B540" s="34"/>
       <c r="C540" s="34"/>
@@ -11391,7 +11385,7 @@
       <c r="J540" s="34"/>
       <c r="K540" s="40"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A541" s="39"/>
       <c r="B541" s="34"/>
       <c r="C541" s="34"/>
@@ -11404,7 +11398,7 @@
       <c r="J541" s="34"/>
       <c r="K541" s="40"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A542" s="39"/>
       <c r="B542" s="34"/>
       <c r="C542" s="34"/>
@@ -11417,7 +11411,7 @@
       <c r="J542" s="34"/>
       <c r="K542" s="40"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A543" s="39"/>
       <c r="B543" s="34"/>
       <c r="C543" s="34"/>
@@ -11430,7 +11424,7 @@
       <c r="J543" s="34"/>
       <c r="K543" s="40"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A544" s="39"/>
       <c r="B544" s="34"/>
       <c r="C544" s="34"/>
@@ -11443,7 +11437,7 @@
       <c r="J544" s="34"/>
       <c r="K544" s="40"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A545" s="39"/>
       <c r="B545" s="34"/>
       <c r="C545" s="34"/>
@@ -11456,7 +11450,7 @@
       <c r="J545" s="34"/>
       <c r="K545" s="40"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A546" s="39"/>
       <c r="B546" s="34"/>
       <c r="C546" s="34"/>
@@ -11469,7 +11463,7 @@
       <c r="J546" s="34"/>
       <c r="K546" s="40"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A547" s="39"/>
       <c r="B547" s="34"/>
       <c r="C547" s="34"/>
@@ -11482,7 +11476,7 @@
       <c r="J547" s="34"/>
       <c r="K547" s="40"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A548" s="39"/>
       <c r="B548" s="34"/>
       <c r="C548" s="34"/>
@@ -11495,7 +11489,7 @@
       <c r="J548" s="34"/>
       <c r="K548" s="40"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A549" s="39"/>
       <c r="B549" s="34"/>
       <c r="C549" s="34"/>
@@ -11508,7 +11502,7 @@
       <c r="J549" s="34"/>
       <c r="K549" s="40"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A550" s="39"/>
       <c r="B550" s="34"/>
       <c r="C550" s="34"/>
@@ -11521,7 +11515,7 @@
       <c r="J550" s="34"/>
       <c r="K550" s="40"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A551" s="39"/>
       <c r="B551" s="34"/>
       <c r="C551" s="34"/>
@@ -11534,7 +11528,7 @@
       <c r="J551" s="34"/>
       <c r="K551" s="40"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A552" s="39"/>
       <c r="B552" s="34"/>
       <c r="C552" s="34"/>
@@ -11547,7 +11541,7 @@
       <c r="J552" s="34"/>
       <c r="K552" s="40"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A553" s="39"/>
       <c r="B553" s="34"/>
       <c r="C553" s="34"/>
@@ -11560,7 +11554,7 @@
       <c r="J553" s="34"/>
       <c r="K553" s="40"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A554" s="39"/>
       <c r="B554" s="34"/>
       <c r="C554" s="34"/>
@@ -11573,7 +11567,7 @@
       <c r="J554" s="34"/>
       <c r="K554" s="40"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A555" s="39"/>
       <c r="B555" s="34"/>
       <c r="C555" s="34"/>
@@ -11586,7 +11580,7 @@
       <c r="J555" s="34"/>
       <c r="K555" s="40"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A556" s="39"/>
       <c r="B556" s="34"/>
       <c r="C556" s="34"/>
@@ -11599,7 +11593,7 @@
       <c r="J556" s="34"/>
       <c r="K556" s="40"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A557" s="39"/>
       <c r="B557" s="34"/>
       <c r="C557" s="34"/>
@@ -11612,7 +11606,7 @@
       <c r="J557" s="34"/>
       <c r="K557" s="40"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A558" s="39"/>
       <c r="B558" s="34"/>
       <c r="C558" s="34"/>
@@ -11625,7 +11619,7 @@
       <c r="J558" s="34"/>
       <c r="K558" s="40"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A559" s="39"/>
       <c r="B559" s="34"/>
       <c r="C559" s="34"/>
@@ -11638,7 +11632,7 @@
       <c r="J559" s="34"/>
       <c r="K559" s="40"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A560" s="39"/>
       <c r="B560" s="34"/>
       <c r="C560" s="34"/>
@@ -11651,7 +11645,7 @@
       <c r="J560" s="34"/>
       <c r="K560" s="40"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A561" s="39"/>
       <c r="B561" s="34"/>
       <c r="C561" s="34"/>
@@ -11664,7 +11658,7 @@
       <c r="J561" s="34"/>
       <c r="K561" s="40"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A562" s="39"/>
       <c r="B562" s="34"/>
       <c r="C562" s="34"/>
@@ -11677,7 +11671,7 @@
       <c r="J562" s="34"/>
       <c r="K562" s="40"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A563" s="39"/>
       <c r="B563" s="34"/>
       <c r="C563" s="34"/>
@@ -11690,7 +11684,7 @@
       <c r="J563" s="34"/>
       <c r="K563" s="40"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A564" s="39"/>
       <c r="B564" s="34"/>
       <c r="C564" s="34"/>
@@ -11703,7 +11697,7 @@
       <c r="J564" s="34"/>
       <c r="K564" s="40"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A565" s="39"/>
       <c r="B565" s="34"/>
       <c r="C565" s="34"/>
@@ -11716,7 +11710,7 @@
       <c r="J565" s="34"/>
       <c r="K565" s="40"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A566" s="39"/>
       <c r="B566" s="34"/>
       <c r="C566" s="34"/>
@@ -11729,7 +11723,7 @@
       <c r="J566" s="34"/>
       <c r="K566" s="40"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A567" s="39"/>
       <c r="B567" s="34"/>
       <c r="C567" s="34"/>
@@ -11742,7 +11736,7 @@
       <c r="J567" s="34"/>
       <c r="K567" s="40"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A568" s="39"/>
       <c r="B568" s="34"/>
       <c r="C568" s="34"/>
@@ -11755,7 +11749,7 @@
       <c r="J568" s="34"/>
       <c r="K568" s="40"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A569" s="39"/>
       <c r="B569" s="34"/>
       <c r="C569" s="34"/>
@@ -11768,7 +11762,7 @@
       <c r="J569" s="34"/>
       <c r="K569" s="40"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A570" s="39"/>
       <c r="B570" s="34"/>
       <c r="C570" s="34"/>
@@ -11781,7 +11775,7 @@
       <c r="J570" s="34"/>
       <c r="K570" s="40"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A571" s="39"/>
       <c r="B571" s="34"/>
       <c r="C571" s="34"/>
@@ -11794,7 +11788,7 @@
       <c r="J571" s="34"/>
       <c r="K571" s="40"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A572" s="39"/>
       <c r="B572" s="34"/>
       <c r="C572" s="34"/>
@@ -11807,7 +11801,7 @@
       <c r="J572" s="34"/>
       <c r="K572" s="40"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A573" s="39"/>
       <c r="B573" s="34"/>
       <c r="C573" s="34"/>
@@ -11820,7 +11814,7 @@
       <c r="J573" s="34"/>
       <c r="K573" s="40"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A574" s="39"/>
       <c r="B574" s="34"/>
       <c r="C574" s="34"/>
@@ -11833,7 +11827,7 @@
       <c r="J574" s="34"/>
       <c r="K574" s="40"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A575" s="39"/>
       <c r="B575" s="34"/>
       <c r="C575" s="34"/>
@@ -11846,7 +11840,7 @@
       <c r="J575" s="34"/>
       <c r="K575" s="40"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A576" s="39"/>
       <c r="B576" s="34"/>
       <c r="C576" s="34"/>
@@ -11859,7 +11853,7 @@
       <c r="J576" s="34"/>
       <c r="K576" s="40"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A577" s="39"/>
       <c r="B577" s="34"/>
       <c r="C577" s="34"/>
@@ -11872,7 +11866,7 @@
       <c r="J577" s="34"/>
       <c r="K577" s="40"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A578" s="39"/>
       <c r="B578" s="34"/>
       <c r="C578" s="34"/>
@@ -11885,7 +11879,7 @@
       <c r="J578" s="34"/>
       <c r="K578" s="40"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A579" s="39"/>
       <c r="B579" s="34"/>
       <c r="C579" s="34"/>
@@ -11898,7 +11892,7 @@
       <c r="J579" s="34"/>
       <c r="K579" s="40"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A580" s="39"/>
       <c r="B580" s="34"/>
       <c r="C580" s="34"/>
@@ -11911,7 +11905,7 @@
       <c r="J580" s="34"/>
       <c r="K580" s="40"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A581" s="39"/>
       <c r="B581" s="34"/>
       <c r="C581" s="34"/>
@@ -11924,7 +11918,7 @@
       <c r="J581" s="34"/>
       <c r="K581" s="40"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A582" s="39"/>
       <c r="B582" s="34"/>
       <c r="C582" s="34"/>
@@ -11937,7 +11931,7 @@
       <c r="J582" s="34"/>
       <c r="K582" s="40"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A583" s="39"/>
       <c r="B583" s="34"/>
       <c r="C583" s="34"/>
@@ -11950,7 +11944,7 @@
       <c r="J583" s="34"/>
       <c r="K583" s="40"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A584" s="39"/>
       <c r="B584" s="34"/>
       <c r="C584" s="34"/>
@@ -11963,7 +11957,7 @@
       <c r="J584" s="34"/>
       <c r="K584" s="40"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A585" s="39"/>
       <c r="B585" s="34"/>
       <c r="C585" s="34"/>
@@ -11976,7 +11970,7 @@
       <c r="J585" s="34"/>
       <c r="K585" s="40"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A586" s="39"/>
       <c r="B586" s="34"/>
       <c r="C586" s="34"/>
@@ -11989,7 +11983,7 @@
       <c r="J586" s="34"/>
       <c r="K586" s="40"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A587" s="39"/>
       <c r="B587" s="34"/>
       <c r="C587" s="34"/>
@@ -12002,7 +11996,7 @@
       <c r="J587" s="34"/>
       <c r="K587" s="40"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A588" s="39"/>
       <c r="B588" s="34"/>
       <c r="C588" s="34"/>
@@ -12015,7 +12009,7 @@
       <c r="J588" s="34"/>
       <c r="K588" s="40"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A589" s="39"/>
       <c r="B589" s="34"/>
       <c r="C589" s="34"/>
@@ -12028,7 +12022,7 @@
       <c r="J589" s="34"/>
       <c r="K589" s="40"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A590" s="39"/>
       <c r="B590" s="34"/>
       <c r="C590" s="34"/>
@@ -12041,7 +12035,7 @@
       <c r="J590" s="34"/>
       <c r="K590" s="40"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A591" s="39"/>
       <c r="B591" s="34"/>
       <c r="C591" s="34"/>
@@ -12054,7 +12048,7 @@
       <c r="J591" s="34"/>
       <c r="K591" s="40"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A592" s="39"/>
       <c r="B592" s="34"/>
       <c r="C592" s="34"/>
@@ -12067,7 +12061,7 @@
       <c r="J592" s="34"/>
       <c r="K592" s="40"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A593" s="39"/>
       <c r="B593" s="34"/>
       <c r="C593" s="34"/>
@@ -12080,7 +12074,7 @@
       <c r="J593" s="34"/>
       <c r="K593" s="40"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A594" s="39"/>
       <c r="B594" s="34"/>
       <c r="C594" s="34"/>
@@ -12093,7 +12087,7 @@
       <c r="J594" s="34"/>
       <c r="K594" s="40"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A595" s="39"/>
       <c r="B595" s="34"/>
       <c r="C595" s="34"/>
@@ -12106,7 +12100,7 @@
       <c r="J595" s="34"/>
       <c r="K595" s="40"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A596" s="39"/>
       <c r="B596" s="34"/>
       <c r="C596" s="34"/>
@@ -12119,7 +12113,7 @@
       <c r="J596" s="34"/>
       <c r="K596" s="40"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A597" s="39"/>
       <c r="B597" s="34"/>
       <c r="C597" s="34"/>
@@ -12132,7 +12126,7 @@
       <c r="J597" s="34"/>
       <c r="K597" s="40"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A598" s="39"/>
       <c r="B598" s="34"/>
       <c r="C598" s="34"/>
@@ -12145,7 +12139,7 @@
       <c r="J598" s="34"/>
       <c r="K598" s="40"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A599" s="39"/>
       <c r="B599" s="34"/>
       <c r="C599" s="34"/>
@@ -12158,7 +12152,7 @@
       <c r="J599" s="34"/>
       <c r="K599" s="40"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A600" s="39"/>
       <c r="B600" s="34"/>
       <c r="C600" s="34"/>
@@ -12171,7 +12165,7 @@
       <c r="J600" s="34"/>
       <c r="K600" s="40"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A601" s="39"/>
       <c r="B601" s="34"/>
       <c r="C601" s="34"/>
@@ -12184,7 +12178,7 @@
       <c r="J601" s="34"/>
       <c r="K601" s="40"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A602" s="39"/>
       <c r="B602" s="34"/>
       <c r="C602" s="34"/>
@@ -12197,7 +12191,7 @@
       <c r="J602" s="34"/>
       <c r="K602" s="40"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A603" s="39"/>
       <c r="B603" s="34"/>
       <c r="C603" s="34"/>
@@ -12210,7 +12204,7 @@
       <c r="J603" s="34"/>
       <c r="K603" s="40"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A604" s="39"/>
       <c r="B604" s="34"/>
       <c r="C604" s="34"/>
@@ -12223,7 +12217,7 @@
       <c r="J604" s="34"/>
       <c r="K604" s="40"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A605" s="39"/>
       <c r="B605" s="34"/>
       <c r="C605" s="34"/>
@@ -12236,7 +12230,7 @@
       <c r="J605" s="34"/>
       <c r="K605" s="40"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A606" s="39"/>
       <c r="B606" s="34"/>
       <c r="C606" s="34"/>
@@ -12249,7 +12243,7 @@
       <c r="J606" s="34"/>
       <c r="K606" s="40"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A607" s="39"/>
       <c r="B607" s="34"/>
       <c r="C607" s="34"/>
@@ -12262,7 +12256,7 @@
       <c r="J607" s="34"/>
       <c r="K607" s="40"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A608" s="39"/>
       <c r="B608" s="34"/>
       <c r="C608" s="34"/>
@@ -12275,7 +12269,7 @@
       <c r="J608" s="34"/>
       <c r="K608" s="40"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A609" s="39"/>
       <c r="B609" s="34"/>
       <c r="C609" s="34"/>
@@ -12288,7 +12282,7 @@
       <c r="J609" s="34"/>
       <c r="K609" s="40"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A610" s="39"/>
       <c r="B610" s="34"/>
       <c r="C610" s="34"/>
@@ -12301,7 +12295,7 @@
       <c r="J610" s="34"/>
       <c r="K610" s="40"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A611" s="39"/>
       <c r="B611" s="34"/>
       <c r="C611" s="34"/>
@@ -12314,7 +12308,7 @@
       <c r="J611" s="34"/>
       <c r="K611" s="40"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A612" s="39"/>
       <c r="B612" s="34"/>
       <c r="C612" s="34"/>
@@ -12327,7 +12321,7 @@
       <c r="J612" s="34"/>
       <c r="K612" s="40"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A613" s="39"/>
       <c r="B613" s="34"/>
       <c r="C613" s="34"/>
@@ -12340,7 +12334,7 @@
       <c r="J613" s="34"/>
       <c r="K613" s="40"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A614" s="39"/>
       <c r="B614" s="34"/>
       <c r="C614" s="34"/>
@@ -12353,7 +12347,7 @@
       <c r="J614" s="34"/>
       <c r="K614" s="40"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A615" s="39"/>
       <c r="B615" s="34"/>
       <c r="C615" s="34"/>
@@ -12366,7 +12360,7 @@
       <c r="J615" s="34"/>
       <c r="K615" s="40"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A616" s="39"/>
       <c r="B616" s="34"/>
       <c r="C616" s="34"/>
@@ -12379,7 +12373,7 @@
       <c r="J616" s="34"/>
       <c r="K616" s="40"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A617" s="39"/>
       <c r="B617" s="34"/>
       <c r="C617" s="34"/>
@@ -12392,7 +12386,7 @@
       <c r="J617" s="34"/>
       <c r="K617" s="40"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A618" s="39"/>
       <c r="B618" s="34"/>
       <c r="C618" s="34"/>
@@ -12405,7 +12399,7 @@
       <c r="J618" s="34"/>
       <c r="K618" s="40"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A619" s="39"/>
       <c r="B619" s="34"/>
       <c r="C619" s="34"/>
@@ -12418,7 +12412,7 @@
       <c r="J619" s="34"/>
       <c r="K619" s="40"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A620" s="39"/>
       <c r="B620" s="34"/>
       <c r="C620" s="34"/>
@@ -12431,7 +12425,7 @@
       <c r="J620" s="34"/>
       <c r="K620" s="40"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A621" s="39"/>
       <c r="B621" s="34"/>
       <c r="C621" s="34"/>
@@ -12444,7 +12438,7 @@
       <c r="J621" s="34"/>
       <c r="K621" s="40"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A622" s="39"/>
       <c r="B622" s="34"/>
       <c r="C622" s="34"/>
@@ -12457,7 +12451,7 @@
       <c r="J622" s="34"/>
       <c r="K622" s="40"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A623" s="39"/>
       <c r="B623" s="34"/>
       <c r="C623" s="34"/>
@@ -12470,7 +12464,7 @@
       <c r="J623" s="34"/>
       <c r="K623" s="40"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A624" s="39"/>
       <c r="B624" s="34"/>
       <c r="C624" s="34"/>
@@ -12483,7 +12477,7 @@
       <c r="J624" s="34"/>
       <c r="K624" s="40"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A625" s="39"/>
       <c r="B625" s="34"/>
       <c r="C625" s="34"/>
@@ -12496,7 +12490,7 @@
       <c r="J625" s="34"/>
       <c r="K625" s="40"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A626" s="39"/>
       <c r="B626" s="34"/>
       <c r="C626" s="34"/>
@@ -12509,7 +12503,7 @@
       <c r="J626" s="34"/>
       <c r="K626" s="40"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A627" s="39"/>
       <c r="B627" s="34"/>
       <c r="C627" s="34"/>
@@ -12522,7 +12516,7 @@
       <c r="J627" s="34"/>
       <c r="K627" s="40"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A628" s="39"/>
       <c r="B628" s="34"/>
       <c r="C628" s="34"/>
@@ -12535,7 +12529,7 @@
       <c r="J628" s="34"/>
       <c r="K628" s="40"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A629" s="39"/>
       <c r="B629" s="34"/>
       <c r="C629" s="34"/>
@@ -12548,7 +12542,7 @@
       <c r="J629" s="34"/>
       <c r="K629" s="40"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A630" s="39"/>
       <c r="B630" s="34"/>
       <c r="C630" s="34"/>
@@ -12561,7 +12555,7 @@
       <c r="J630" s="34"/>
       <c r="K630" s="40"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A631" s="39"/>
       <c r="B631" s="34"/>
       <c r="C631" s="34"/>
@@ -12574,7 +12568,7 @@
       <c r="J631" s="34"/>
       <c r="K631" s="40"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A632" s="39"/>
       <c r="B632" s="34"/>
       <c r="C632" s="34"/>
@@ -12587,7 +12581,7 @@
       <c r="J632" s="34"/>
       <c r="K632" s="40"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A633" s="39"/>
       <c r="B633" s="34"/>
       <c r="C633" s="34"/>
@@ -12600,7 +12594,7 @@
       <c r="J633" s="34"/>
       <c r="K633" s="40"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A634" s="39"/>
       <c r="B634" s="34"/>
       <c r="C634" s="34"/>
@@ -12613,7 +12607,7 @@
       <c r="J634" s="34"/>
       <c r="K634" s="40"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A635" s="39"/>
       <c r="B635" s="34"/>
       <c r="C635" s="34"/>
@@ -12626,7 +12620,7 @@
       <c r="J635" s="34"/>
       <c r="K635" s="40"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A636" s="39"/>
       <c r="B636" s="34"/>
       <c r="C636" s="34"/>
@@ -12639,7 +12633,7 @@
       <c r="J636" s="34"/>
       <c r="K636" s="40"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A637" s="39"/>
       <c r="B637" s="34"/>
       <c r="C637" s="34"/>
@@ -12652,7 +12646,7 @@
       <c r="J637" s="34"/>
       <c r="K637" s="40"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A638" s="39"/>
       <c r="B638" s="34"/>
       <c r="C638" s="34"/>
@@ -12665,7 +12659,7 @@
       <c r="J638" s="34"/>
       <c r="K638" s="40"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A639" s="39"/>
       <c r="B639" s="34"/>
       <c r="C639" s="34"/>
@@ -12678,7 +12672,7 @@
       <c r="J639" s="34"/>
       <c r="K639" s="40"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A640" s="39"/>
       <c r="B640" s="34"/>
       <c r="C640" s="34"/>
@@ -12691,7 +12685,7 @@
       <c r="J640" s="34"/>
       <c r="K640" s="40"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A641" s="39"/>
       <c r="B641" s="34"/>
       <c r="C641" s="34"/>
@@ -12704,7 +12698,7 @@
       <c r="J641" s="34"/>
       <c r="K641" s="40"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A642" s="39"/>
       <c r="B642" s="34"/>
       <c r="C642" s="34"/>
@@ -12717,7 +12711,7 @@
       <c r="J642" s="34"/>
       <c r="K642" s="40"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A643" s="39"/>
       <c r="B643" s="34"/>
       <c r="C643" s="34"/>
@@ -12730,7 +12724,7 @@
       <c r="J643" s="34"/>
       <c r="K643" s="40"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A644" s="39"/>
       <c r="B644" s="34"/>
       <c r="C644" s="34"/>
@@ -12743,7 +12737,7 @@
       <c r="J644" s="34"/>
       <c r="K644" s="40"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A645" s="39"/>
       <c r="B645" s="34"/>
       <c r="C645" s="34"/>
@@ -12756,7 +12750,7 @@
       <c r="J645" s="34"/>
       <c r="K645" s="40"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A646" s="39"/>
       <c r="B646" s="34"/>
       <c r="C646" s="34"/>
@@ -12769,7 +12763,7 @@
       <c r="J646" s="34"/>
       <c r="K646" s="40"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A647" s="39"/>
       <c r="B647" s="34"/>
       <c r="C647" s="34"/>
@@ -12782,7 +12776,7 @@
       <c r="J647" s="34"/>
       <c r="K647" s="40"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A648" s="39"/>
       <c r="B648" s="34"/>
       <c r="C648" s="34"/>
@@ -12795,7 +12789,7 @@
       <c r="J648" s="34"/>
       <c r="K648" s="40"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A649" s="39"/>
       <c r="B649" s="34"/>
       <c r="C649" s="34"/>
@@ -12808,7 +12802,7 @@
       <c r="J649" s="34"/>
       <c r="K649" s="40"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A650" s="39"/>
       <c r="B650" s="34"/>
       <c r="C650" s="34"/>
@@ -12821,7 +12815,7 @@
       <c r="J650" s="34"/>
       <c r="K650" s="40"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A651" s="39"/>
       <c r="B651" s="34"/>
       <c r="C651" s="34"/>
@@ -12834,7 +12828,7 @@
       <c r="J651" s="34"/>
       <c r="K651" s="40"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A652" s="39"/>
       <c r="B652" s="34"/>
       <c r="C652" s="34"/>
@@ -12847,7 +12841,7 @@
       <c r="J652" s="34"/>
       <c r="K652" s="40"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A653" s="39"/>
       <c r="B653" s="34"/>
       <c r="C653" s="34"/>
@@ -12860,7 +12854,7 @@
       <c r="J653" s="34"/>
       <c r="K653" s="40"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A654" s="39"/>
       <c r="B654" s="34"/>
       <c r="C654" s="34"/>
@@ -12873,7 +12867,7 @@
       <c r="J654" s="34"/>
       <c r="K654" s="40"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A655" s="39"/>
       <c r="B655" s="34"/>
       <c r="C655" s="34"/>
@@ -12886,7 +12880,7 @@
       <c r="J655" s="34"/>
       <c r="K655" s="40"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A656" s="39"/>
       <c r="B656" s="34"/>
       <c r="C656" s="34"/>
@@ -12899,7 +12893,7 @@
       <c r="J656" s="34"/>
       <c r="K656" s="40"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A657" s="39"/>
       <c r="B657" s="34"/>
       <c r="C657" s="34"/>
@@ -12912,7 +12906,7 @@
       <c r="J657" s="34"/>
       <c r="K657" s="40"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A658" s="39"/>
       <c r="B658" s="34"/>
       <c r="C658" s="34"/>
@@ -12925,7 +12919,7 @@
       <c r="J658" s="34"/>
       <c r="K658" s="40"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A659" s="39"/>
       <c r="B659" s="34"/>
       <c r="C659" s="34"/>
@@ -12938,7 +12932,7 @@
       <c r="J659" s="34"/>
       <c r="K659" s="40"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A660" s="39"/>
       <c r="B660" s="34"/>
       <c r="C660" s="34"/>
@@ -12951,7 +12945,7 @@
       <c r="J660" s="34"/>
       <c r="K660" s="40"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A661" s="39"/>
       <c r="B661" s="34"/>
       <c r="C661" s="34"/>
@@ -12964,7 +12958,7 @@
       <c r="J661" s="34"/>
       <c r="K661" s="40"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A662" s="39"/>
       <c r="B662" s="34"/>
       <c r="C662" s="34"/>
@@ -12977,7 +12971,7 @@
       <c r="J662" s="34"/>
       <c r="K662" s="40"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A663" s="39"/>
       <c r="B663" s="34"/>
       <c r="C663" s="34"/>
@@ -12990,7 +12984,7 @@
       <c r="J663" s="34"/>
       <c r="K663" s="40"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A664" s="39"/>
       <c r="B664" s="34"/>
       <c r="C664" s="34"/>
@@ -13003,7 +12997,7 @@
       <c r="J664" s="34"/>
       <c r="K664" s="40"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A665" s="39"/>
       <c r="B665" s="34"/>
       <c r="C665" s="34"/>
@@ -13016,7 +13010,7 @@
       <c r="J665" s="34"/>
       <c r="K665" s="40"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A666" s="39"/>
       <c r="B666" s="34"/>
       <c r="C666" s="34"/>
@@ -13029,7 +13023,7 @@
       <c r="J666" s="34"/>
       <c r="K666" s="40"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A667" s="39"/>
       <c r="B667" s="34"/>
       <c r="C667" s="34"/>
@@ -13042,7 +13036,7 @@
       <c r="J667" s="34"/>
       <c r="K667" s="40"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A668" s="39"/>
       <c r="B668" s="34"/>
       <c r="C668" s="34"/>
@@ -13055,7 +13049,7 @@
       <c r="J668" s="34"/>
       <c r="K668" s="40"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A669" s="39"/>
       <c r="B669" s="34"/>
       <c r="C669" s="34"/>
@@ -13068,7 +13062,7 @@
       <c r="J669" s="34"/>
       <c r="K669" s="40"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A670" s="39"/>
       <c r="B670" s="34"/>
       <c r="C670" s="34"/>
@@ -13081,7 +13075,7 @@
       <c r="J670" s="34"/>
       <c r="K670" s="40"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A671" s="39"/>
       <c r="B671" s="34"/>
       <c r="C671" s="34"/>
@@ -13094,7 +13088,7 @@
       <c r="J671" s="34"/>
       <c r="K671" s="40"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A672" s="39"/>
       <c r="B672" s="34"/>
       <c r="C672" s="34"/>
@@ -13107,7 +13101,7 @@
       <c r="J672" s="34"/>
       <c r="K672" s="40"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A673" s="39"/>
       <c r="B673" s="34"/>
       <c r="C673" s="34"/>
@@ -13120,7 +13114,7 @@
       <c r="J673" s="34"/>
       <c r="K673" s="40"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A674" s="39"/>
       <c r="B674" s="34"/>
       <c r="C674" s="34"/>
@@ -13133,7 +13127,7 @@
       <c r="J674" s="34"/>
       <c r="K674" s="40"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A675" s="39"/>
       <c r="B675" s="34"/>
       <c r="C675" s="34"/>
@@ -13146,7 +13140,7 @@
       <c r="J675" s="34"/>
       <c r="K675" s="40"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A676" s="39"/>
       <c r="B676" s="34"/>
       <c r="C676" s="34"/>
@@ -13159,7 +13153,7 @@
       <c r="J676" s="34"/>
       <c r="K676" s="40"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A677" s="39"/>
       <c r="B677" s="34"/>
       <c r="C677" s="34"/>
@@ -13172,7 +13166,7 @@
       <c r="J677" s="34"/>
       <c r="K677" s="40"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A678" s="39"/>
       <c r="B678" s="34"/>
       <c r="C678" s="34"/>
@@ -13185,7 +13179,7 @@
       <c r="J678" s="34"/>
       <c r="K678" s="40"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A679" s="39"/>
       <c r="B679" s="34"/>
       <c r="C679" s="34"/>
@@ -13198,7 +13192,7 @@
       <c r="J679" s="34"/>
       <c r="K679" s="40"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A680" s="39"/>
       <c r="B680" s="34"/>
       <c r="C680" s="34"/>
@@ -13211,7 +13205,7 @@
       <c r="J680" s="34"/>
       <c r="K680" s="40"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A681" s="39"/>
       <c r="B681" s="34"/>
       <c r="C681" s="34"/>
@@ -13224,7 +13218,7 @@
       <c r="J681" s="34"/>
       <c r="K681" s="40"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A682" s="39"/>
       <c r="B682" s="34"/>
       <c r="C682" s="34"/>
@@ -13237,7 +13231,7 @@
       <c r="J682" s="34"/>
       <c r="K682" s="40"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A683" s="39"/>
       <c r="B683" s="34"/>
       <c r="C683" s="34"/>
@@ -13250,7 +13244,7 @@
       <c r="J683" s="34"/>
       <c r="K683" s="40"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A684" s="39"/>
       <c r="B684" s="34"/>
       <c r="C684" s="34"/>
@@ -13263,7 +13257,7 @@
       <c r="J684" s="34"/>
       <c r="K684" s="40"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A685" s="39"/>
       <c r="B685" s="34"/>
       <c r="C685" s="34"/>
@@ -13276,7 +13270,7 @@
       <c r="J685" s="34"/>
       <c r="K685" s="40"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A686" s="39"/>
       <c r="B686" s="34"/>
       <c r="C686" s="34"/>
@@ -13289,7 +13283,7 @@
       <c r="J686" s="34"/>
       <c r="K686" s="40"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A687" s="39"/>
       <c r="B687" s="34"/>
       <c r="C687" s="34"/>
@@ -13302,7 +13296,7 @@
       <c r="J687" s="34"/>
       <c r="K687" s="40"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A688" s="39"/>
       <c r="B688" s="34"/>
       <c r="C688" s="34"/>
@@ -13315,7 +13309,7 @@
       <c r="J688" s="34"/>
       <c r="K688" s="40"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A689" s="39"/>
       <c r="B689" s="34"/>
       <c r="C689" s="34"/>
@@ -13328,7 +13322,7 @@
       <c r="J689" s="34"/>
       <c r="K689" s="40"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A690" s="39"/>
       <c r="B690" s="34"/>
       <c r="C690" s="34"/>
@@ -13341,7 +13335,7 @@
       <c r="J690" s="34"/>
       <c r="K690" s="40"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A691" s="39"/>
       <c r="B691" s="34"/>
       <c r="C691" s="34"/>
@@ -13354,7 +13348,7 @@
       <c r="J691" s="34"/>
       <c r="K691" s="40"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A692" s="39"/>
       <c r="B692" s="34"/>
       <c r="C692" s="34"/>
@@ -13367,7 +13361,7 @@
       <c r="J692" s="34"/>
       <c r="K692" s="40"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A693" s="39"/>
       <c r="B693" s="34"/>
       <c r="C693" s="34"/>
@@ -13380,7 +13374,7 @@
       <c r="J693" s="34"/>
       <c r="K693" s="40"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A694" s="39"/>
       <c r="B694" s="34"/>
       <c r="C694" s="34"/>
@@ -13393,7 +13387,7 @@
       <c r="J694" s="34"/>
       <c r="K694" s="40"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A695" s="39"/>
       <c r="B695" s="34"/>
       <c r="C695" s="34"/>
@@ -13406,7 +13400,7 @@
       <c r="J695" s="34"/>
       <c r="K695" s="40"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A696" s="39"/>
       <c r="B696" s="34"/>
       <c r="C696" s="34"/>
@@ -13419,7 +13413,7 @@
       <c r="J696" s="34"/>
       <c r="K696" s="40"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A697" s="39"/>
       <c r="B697" s="34"/>
       <c r="C697" s="34"/>
@@ -13432,7 +13426,7 @@
       <c r="J697" s="34"/>
       <c r="K697" s="40"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A698" s="39"/>
       <c r="B698" s="34"/>
       <c r="C698" s="34"/>
@@ -13445,7 +13439,7 @@
       <c r="J698" s="34"/>
       <c r="K698" s="40"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A699" s="39"/>
       <c r="B699" s="34"/>
       <c r="C699" s="34"/>
@@ -13458,7 +13452,7 @@
       <c r="J699" s="34"/>
       <c r="K699" s="40"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A700" s="39"/>
       <c r="B700" s="34"/>
       <c r="C700" s="34"/>
@@ -13471,7 +13465,7 @@
       <c r="J700" s="34"/>
       <c r="K700" s="40"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A701" s="39"/>
       <c r="B701" s="34"/>
       <c r="C701" s="34"/>
@@ -13484,7 +13478,7 @@
       <c r="J701" s="34"/>
       <c r="K701" s="40"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A702" s="39"/>
       <c r="B702" s="34"/>
       <c r="C702" s="34"/>
@@ -13497,7 +13491,7 @@
       <c r="J702" s="34"/>
       <c r="K702" s="40"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A703" s="39"/>
       <c r="B703" s="34"/>
       <c r="C703" s="34"/>
@@ -13510,7 +13504,7 @@
       <c r="J703" s="34"/>
       <c r="K703" s="40"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A704" s="39"/>
       <c r="B704" s="34"/>
       <c r="C704" s="34"/>
@@ -13523,7 +13517,7 @@
       <c r="J704" s="34"/>
       <c r="K704" s="40"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A705" s="39"/>
       <c r="B705" s="34"/>
       <c r="C705" s="34"/>
@@ -13536,7 +13530,7 @@
       <c r="J705" s="34"/>
       <c r="K705" s="40"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A706" s="39"/>
       <c r="B706" s="34"/>
       <c r="C706" s="34"/>
@@ -13549,7 +13543,7 @@
       <c r="J706" s="34"/>
       <c r="K706" s="40"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A707" s="39"/>
       <c r="B707" s="34"/>
       <c r="C707" s="34"/>
@@ -13562,7 +13556,7 @@
       <c r="J707" s="34"/>
       <c r="K707" s="40"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A708" s="39"/>
       <c r="B708" s="34"/>
       <c r="C708" s="34"/>
@@ -13575,7 +13569,7 @@
       <c r="J708" s="34"/>
       <c r="K708" s="40"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A709" s="39"/>
       <c r="B709" s="34"/>
       <c r="C709" s="34"/>
@@ -13588,7 +13582,7 @@
       <c r="J709" s="34"/>
       <c r="K709" s="40"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A710" s="39"/>
       <c r="B710" s="34"/>
       <c r="C710" s="34"/>
@@ -13601,7 +13595,7 @@
       <c r="J710" s="34"/>
       <c r="K710" s="40"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A711" s="39"/>
       <c r="B711" s="34"/>
       <c r="C711" s="34"/>
@@ -13614,7 +13608,7 @@
       <c r="J711" s="34"/>
       <c r="K711" s="40"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A712" s="39"/>
       <c r="B712" s="34"/>
       <c r="C712" s="34"/>
@@ -13627,7 +13621,7 @@
       <c r="J712" s="34"/>
       <c r="K712" s="40"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A713" s="39"/>
       <c r="B713" s="34"/>
       <c r="C713" s="34"/>
@@ -13640,7 +13634,7 @@
       <c r="J713" s="34"/>
       <c r="K713" s="40"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A714" s="39"/>
       <c r="B714" s="34"/>
       <c r="C714" s="34"/>
@@ -13653,7 +13647,7 @@
       <c r="J714" s="34"/>
       <c r="K714" s="40"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A715" s="39"/>
       <c r="B715" s="34"/>
       <c r="C715" s="34"/>
@@ -13666,7 +13660,7 @@
       <c r="J715" s="34"/>
       <c r="K715" s="40"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A716" s="39"/>
       <c r="B716" s="34"/>
       <c r="C716" s="34"/>
@@ -13679,7 +13673,7 @@
       <c r="J716" s="34"/>
       <c r="K716" s="40"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A717" s="39"/>
       <c r="B717" s="34"/>
       <c r="C717" s="34"/>
@@ -13692,7 +13686,7 @@
       <c r="J717" s="34"/>
       <c r="K717" s="40"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A718" s="39"/>
       <c r="B718" s="34"/>
       <c r="C718" s="34"/>
@@ -13705,7 +13699,7 @@
       <c r="J718" s="34"/>
       <c r="K718" s="40"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A719" s="39"/>
       <c r="B719" s="34"/>
       <c r="C719" s="34"/>
@@ -13718,7 +13712,7 @@
       <c r="J719" s="34"/>
       <c r="K719" s="40"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A720" s="39"/>
       <c r="B720" s="34"/>
       <c r="C720" s="34"/>
@@ -13731,7 +13725,7 @@
       <c r="J720" s="34"/>
       <c r="K720" s="40"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A721" s="39"/>
       <c r="B721" s="34"/>
       <c r="C721" s="34"/>
@@ -13744,7 +13738,7 @@
       <c r="J721" s="34"/>
       <c r="K721" s="40"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A722" s="39"/>
       <c r="B722" s="34"/>
       <c r="C722" s="34"/>
@@ -13757,7 +13751,7 @@
       <c r="J722" s="34"/>
       <c r="K722" s="40"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A723" s="39"/>
       <c r="B723" s="34"/>
       <c r="C723" s="34"/>
@@ -13770,7 +13764,7 @@
       <c r="J723" s="34"/>
       <c r="K723" s="40"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A724" s="39"/>
       <c r="B724" s="34"/>
       <c r="C724" s="34"/>
@@ -13783,7 +13777,7 @@
       <c r="J724" s="34"/>
       <c r="K724" s="40"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A725" s="39"/>
       <c r="B725" s="34"/>
       <c r="C725" s="34"/>
@@ -13796,7 +13790,7 @@
       <c r="J725" s="34"/>
       <c r="K725" s="40"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A726" s="39"/>
       <c r="B726" s="34"/>
       <c r="C726" s="34"/>
@@ -13809,7 +13803,7 @@
       <c r="J726" s="34"/>
       <c r="K726" s="40"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A727" s="39"/>
       <c r="B727" s="34"/>
       <c r="C727" s="34"/>
@@ -13822,7 +13816,7 @@
       <c r="J727" s="34"/>
       <c r="K727" s="40"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A728" s="39"/>
       <c r="B728" s="34"/>
       <c r="C728" s="34"/>
@@ -13835,7 +13829,7 @@
       <c r="J728" s="34"/>
       <c r="K728" s="40"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A729" s="39"/>
       <c r="B729" s="34"/>
       <c r="C729" s="34"/>
@@ -13848,7 +13842,7 @@
       <c r="J729" s="34"/>
       <c r="K729" s="40"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A730" s="39"/>
       <c r="B730" s="34"/>
       <c r="C730" s="34"/>
@@ -13861,7 +13855,7 @@
       <c r="J730" s="34"/>
       <c r="K730" s="40"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A731" s="39"/>
       <c r="B731" s="34"/>
       <c r="C731" s="34"/>
@@ -13874,7 +13868,7 @@
       <c r="J731" s="34"/>
       <c r="K731" s="40"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A732" s="39"/>
       <c r="B732" s="34"/>
       <c r="C732" s="34"/>
@@ -13887,7 +13881,7 @@
       <c r="J732" s="34"/>
       <c r="K732" s="40"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A733" s="39"/>
       <c r="B733" s="34"/>
       <c r="C733" s="34"/>
@@ -13900,7 +13894,7 @@
       <c r="J733" s="34"/>
       <c r="K733" s="40"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A734" s="39"/>
       <c r="B734" s="34"/>
       <c r="C734" s="34"/>
@@ -13913,7 +13907,7 @@
       <c r="J734" s="34"/>
       <c r="K734" s="40"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A735" s="39"/>
       <c r="B735" s="34"/>
       <c r="C735" s="34"/>
@@ -13926,7 +13920,7 @@
       <c r="J735" s="34"/>
       <c r="K735" s="40"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A736" s="39"/>
       <c r="B736" s="34"/>
       <c r="C736" s="34"/>
@@ -13939,7 +13933,7 @@
       <c r="J736" s="34"/>
       <c r="K736" s="40"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A737" s="39"/>
       <c r="B737" s="34"/>
       <c r="C737" s="34"/>
@@ -13952,7 +13946,7 @@
       <c r="J737" s="34"/>
       <c r="K737" s="40"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A738" s="39"/>
       <c r="B738" s="34"/>
       <c r="C738" s="34"/>
@@ -13965,7 +13959,7 @@
       <c r="J738" s="34"/>
       <c r="K738" s="40"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A739" s="39"/>
       <c r="B739" s="34"/>
       <c r="C739" s="34"/>
@@ -13978,7 +13972,7 @@
       <c r="J739" s="34"/>
       <c r="K739" s="40"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A740" s="39"/>
       <c r="B740" s="34"/>
       <c r="C740" s="34"/>
@@ -13991,7 +13985,7 @@
       <c r="J740" s="34"/>
       <c r="K740" s="40"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A741" s="39"/>
       <c r="B741" s="34"/>
       <c r="C741" s="34"/>
@@ -14004,7 +13998,7 @@
       <c r="J741" s="34"/>
       <c r="K741" s="40"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A742" s="39"/>
       <c r="B742" s="34"/>
       <c r="C742" s="34"/>
@@ -14017,7 +14011,7 @@
       <c r="J742" s="34"/>
       <c r="K742" s="40"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A743" s="39"/>
       <c r="B743" s="34"/>
       <c r="C743" s="34"/>
@@ -14030,7 +14024,7 @@
       <c r="J743" s="34"/>
       <c r="K743" s="40"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A744" s="39"/>
       <c r="B744" s="34"/>
       <c r="C744" s="34"/>
@@ -14043,7 +14037,7 @@
       <c r="J744" s="34"/>
       <c r="K744" s="40"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A745" s="39"/>
       <c r="B745" s="34"/>
       <c r="C745" s="34"/>
@@ -14056,7 +14050,7 @@
       <c r="J745" s="34"/>
       <c r="K745" s="40"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A746" s="39"/>
       <c r="B746" s="34"/>
       <c r="C746" s="34"/>
@@ -14069,7 +14063,7 @@
       <c r="J746" s="34"/>
       <c r="K746" s="40"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A747" s="39"/>
       <c r="B747" s="34"/>
       <c r="C747" s="34"/>
@@ -14082,7 +14076,7 @@
       <c r="J747" s="34"/>
       <c r="K747" s="40"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A748" s="39"/>
       <c r="B748" s="34"/>
       <c r="C748" s="34"/>
@@ -14095,7 +14089,7 @@
       <c r="J748" s="34"/>
       <c r="K748" s="40"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A749" s="39"/>
       <c r="B749" s="34"/>
       <c r="C749" s="34"/>
@@ -14108,7 +14102,7 @@
       <c r="J749" s="34"/>
       <c r="K749" s="40"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A750" s="39"/>
       <c r="B750" s="34"/>
       <c r="C750" s="34"/>
@@ -14121,7 +14115,7 @@
       <c r="J750" s="34"/>
       <c r="K750" s="40"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A751" s="39"/>
       <c r="B751" s="34"/>
       <c r="C751" s="34"/>
@@ -14134,7 +14128,7 @@
       <c r="J751" s="34"/>
       <c r="K751" s="40"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A752" s="39"/>
       <c r="B752" s="34"/>
       <c r="C752" s="34"/>
@@ -14147,7 +14141,7 @@
       <c r="J752" s="34"/>
       <c r="K752" s="40"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A753" s="39"/>
       <c r="B753" s="34"/>
       <c r="C753" s="34"/>
@@ -14160,7 +14154,7 @@
       <c r="J753" s="34"/>
       <c r="K753" s="40"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A754" s="39"/>
       <c r="B754" s="34"/>
       <c r="C754" s="34"/>
@@ -14173,7 +14167,7 @@
       <c r="J754" s="34"/>
       <c r="K754" s="40"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A755" s="39"/>
       <c r="B755" s="34"/>
       <c r="C755" s="34"/>
@@ -14186,7 +14180,7 @@
       <c r="J755" s="34"/>
       <c r="K755" s="40"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A756" s="39"/>
       <c r="B756" s="34"/>
       <c r="C756" s="34"/>
@@ -14199,7 +14193,7 @@
       <c r="J756" s="34"/>
       <c r="K756" s="40"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A757" s="39"/>
       <c r="B757" s="34"/>
       <c r="C757" s="34"/>
@@ -14212,7 +14206,7 @@
       <c r="J757" s="34"/>
       <c r="K757" s="40"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A758" s="39"/>
       <c r="B758" s="34"/>
       <c r="C758" s="34"/>
@@ -14225,7 +14219,7 @@
       <c r="J758" s="34"/>
       <c r="K758" s="40"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A759" s="39"/>
       <c r="B759" s="34"/>
       <c r="C759" s="34"/>
@@ -14238,7 +14232,7 @@
       <c r="J759" s="34"/>
       <c r="K759" s="40"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A760" s="39"/>
       <c r="B760" s="34"/>
       <c r="C760" s="34"/>
@@ -14251,7 +14245,7 @@
       <c r="J760" s="34"/>
       <c r="K760" s="40"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A761" s="39"/>
       <c r="B761" s="34"/>
       <c r="C761" s="34"/>
@@ -14264,7 +14258,7 @@
       <c r="J761" s="34"/>
       <c r="K761" s="40"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A762" s="39"/>
       <c r="B762" s="34"/>
       <c r="C762" s="34"/>
@@ -14277,7 +14271,7 @@
       <c r="J762" s="34"/>
       <c r="K762" s="40"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A763" s="39"/>
       <c r="B763" s="34"/>
       <c r="C763" s="34"/>
@@ -14290,7 +14284,7 @@
       <c r="J763" s="34"/>
       <c r="K763" s="40"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A764" s="39"/>
       <c r="B764" s="34"/>
       <c r="C764" s="34"/>
@@ -14303,7 +14297,7 @@
       <c r="J764" s="34"/>
       <c r="K764" s="40"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A765" s="39"/>
       <c r="B765" s="34"/>
       <c r="C765" s="34"/>
@@ -14316,7 +14310,7 @@
       <c r="J765" s="34"/>
       <c r="K765" s="40"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A766" s="39"/>
       <c r="B766" s="34"/>
       <c r="C766" s="34"/>
@@ -14329,7 +14323,7 @@
       <c r="J766" s="34"/>
       <c r="K766" s="40"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A767" s="39"/>
       <c r="B767" s="34"/>
       <c r="C767" s="34"/>
@@ -14342,7 +14336,7 @@
       <c r="J767" s="34"/>
       <c r="K767" s="40"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A768" s="39"/>
       <c r="B768" s="34"/>
       <c r="C768" s="34"/>
@@ -14355,7 +14349,7 @@
       <c r="J768" s="34"/>
       <c r="K768" s="40"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A769" s="39"/>
       <c r="B769" s="34"/>
       <c r="C769" s="34"/>
@@ -14368,7 +14362,7 @@
       <c r="J769" s="34"/>
       <c r="K769" s="40"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A770" s="39"/>
       <c r="B770" s="34"/>
       <c r="C770" s="34"/>
@@ -14381,7 +14375,7 @@
       <c r="J770" s="34"/>
       <c r="K770" s="40"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A771" s="39"/>
       <c r="B771" s="34"/>
       <c r="C771" s="34"/>
@@ -14394,7 +14388,7 @@
       <c r="J771" s="34"/>
       <c r="K771" s="40"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A772" s="39"/>
       <c r="B772" s="34"/>
       <c r="C772" s="34"/>
@@ -14407,7 +14401,7 @@
       <c r="J772" s="34"/>
       <c r="K772" s="40"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A773" s="39"/>
       <c r="B773" s="34"/>
       <c r="C773" s="34"/>
@@ -14420,7 +14414,7 @@
       <c r="J773" s="34"/>
       <c r="K773" s="40"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A774" s="39"/>
       <c r="B774" s="34"/>
       <c r="C774" s="34"/>
@@ -14433,7 +14427,7 @@
       <c r="J774" s="34"/>
       <c r="K774" s="40"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A775" s="39"/>
       <c r="B775" s="34"/>
       <c r="C775" s="34"/>
@@ -14446,7 +14440,7 @@
       <c r="J775" s="34"/>
       <c r="K775" s="40"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A776" s="39"/>
       <c r="B776" s="34"/>
       <c r="C776" s="34"/>
@@ -14459,7 +14453,7 @@
       <c r="J776" s="34"/>
       <c r="K776" s="40"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A777" s="39"/>
       <c r="B777" s="34"/>
       <c r="C777" s="34"/>
@@ -14472,7 +14466,7 @@
       <c r="J777" s="34"/>
       <c r="K777" s="40"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A778" s="39"/>
       <c r="B778" s="34"/>
       <c r="C778" s="34"/>
@@ -14485,7 +14479,7 @@
       <c r="J778" s="34"/>
       <c r="K778" s="40"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A779" s="39"/>
       <c r="B779" s="34"/>
       <c r="C779" s="34"/>
@@ -14498,7 +14492,7 @@
       <c r="J779" s="34"/>
       <c r="K779" s="40"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A780" s="39"/>
       <c r="B780" s="34"/>
       <c r="C780" s="34"/>
@@ -14511,7 +14505,7 @@
       <c r="J780" s="34"/>
       <c r="K780" s="40"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A781" s="39"/>
       <c r="B781" s="34"/>
       <c r="C781" s="34"/>
@@ -14524,7 +14518,7 @@
       <c r="J781" s="34"/>
       <c r="K781" s="40"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A782" s="39"/>
       <c r="B782" s="34"/>
       <c r="C782" s="34"/>
@@ -14537,7 +14531,7 @@
       <c r="J782" s="34"/>
       <c r="K782" s="40"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A783" s="39"/>
       <c r="B783" s="34"/>
       <c r="C783" s="34"/>
@@ -14550,7 +14544,7 @@
       <c r="J783" s="34"/>
       <c r="K783" s="40"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A784" s="39"/>
       <c r="B784" s="34"/>
       <c r="C784" s="34"/>
@@ -14563,7 +14557,7 @@
       <c r="J784" s="34"/>
       <c r="K784" s="40"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A785" s="39"/>
       <c r="B785" s="34"/>
       <c r="C785" s="34"/>
@@ -14576,7 +14570,7 @@
       <c r="J785" s="34"/>
       <c r="K785" s="40"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A786" s="39"/>
       <c r="B786" s="34"/>
       <c r="C786" s="34"/>
@@ -14589,7 +14583,7 @@
       <c r="J786" s="34"/>
       <c r="K786" s="40"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A787" s="39"/>
       <c r="B787" s="34"/>
       <c r="C787" s="34"/>
@@ -14602,7 +14596,7 @@
       <c r="J787" s="34"/>
       <c r="K787" s="40"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A788" s="39"/>
       <c r="B788" s="34"/>
       <c r="C788" s="34"/>
@@ -14615,7 +14609,7 @@
       <c r="J788" s="34"/>
       <c r="K788" s="40"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A789" s="39"/>
       <c r="B789" s="34"/>
       <c r="C789" s="34"/>
@@ -14628,7 +14622,7 @@
       <c r="J789" s="34"/>
       <c r="K789" s="40"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A790" s="39"/>
       <c r="B790" s="34"/>
       <c r="C790" s="34"/>
@@ -14641,7 +14635,7 @@
       <c r="J790" s="34"/>
       <c r="K790" s="40"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A791" s="39"/>
       <c r="B791" s="34"/>
       <c r="C791" s="34"/>
@@ -14654,7 +14648,7 @@
       <c r="J791" s="34"/>
       <c r="K791" s="40"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A792" s="39"/>
       <c r="B792" s="34"/>
       <c r="C792" s="34"/>
@@ -14667,7 +14661,7 @@
       <c r="J792" s="34"/>
       <c r="K792" s="40"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A793" s="39"/>
       <c r="B793" s="34"/>
       <c r="C793" s="34"/>
@@ -14680,7 +14674,7 @@
       <c r="J793" s="34"/>
       <c r="K793" s="40"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A794" s="39"/>
       <c r="B794" s="34"/>
       <c r="C794" s="34"/>
@@ -14693,7 +14687,7 @@
       <c r="J794" s="34"/>
       <c r="K794" s="40"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A795" s="39"/>
       <c r="B795" s="34"/>
       <c r="C795" s="34"/>
@@ -14706,7 +14700,7 @@
       <c r="J795" s="34"/>
       <c r="K795" s="40"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A796" s="39"/>
       <c r="B796" s="34"/>
       <c r="C796" s="34"/>
@@ -14719,7 +14713,7 @@
       <c r="J796" s="34"/>
       <c r="K796" s="40"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A797" s="39"/>
       <c r="B797" s="34"/>
       <c r="C797" s="34"/>
@@ -14732,7 +14726,7 @@
       <c r="J797" s="34"/>
       <c r="K797" s="40"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A798" s="39"/>
       <c r="B798" s="34"/>
       <c r="C798" s="34"/>
@@ -14745,7 +14739,7 @@
       <c r="J798" s="34"/>
       <c r="K798" s="40"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A799" s="39"/>
       <c r="B799" s="34"/>
       <c r="C799" s="34"/>
@@ -14758,7 +14752,7 @@
       <c r="J799" s="34"/>
       <c r="K799" s="40"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A800" s="39"/>
       <c r="B800" s="34"/>
       <c r="C800" s="34"/>
@@ -14771,7 +14765,7 @@
       <c r="J800" s="34"/>
       <c r="K800" s="40"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A801" s="39"/>
       <c r="B801" s="34"/>
       <c r="C801" s="34"/>
@@ -14784,7 +14778,7 @@
       <c r="J801" s="34"/>
       <c r="K801" s="40"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A802" s="39"/>
       <c r="B802" s="34"/>
       <c r="C802" s="34"/>
@@ -14797,7 +14791,7 @@
       <c r="J802" s="34"/>
       <c r="K802" s="40"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A803" s="39"/>
       <c r="B803" s="34"/>
       <c r="C803" s="34"/>
@@ -14810,7 +14804,7 @@
       <c r="J803" s="34"/>
       <c r="K803" s="40"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A804" s="39"/>
       <c r="B804" s="34"/>
       <c r="C804" s="34"/>
@@ -14823,7 +14817,7 @@
       <c r="J804" s="34"/>
       <c r="K804" s="40"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A805" s="39"/>
       <c r="B805" s="34"/>
       <c r="C805" s="34"/>
@@ -14836,7 +14830,7 @@
       <c r="J805" s="34"/>
       <c r="K805" s="40"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A806" s="39"/>
       <c r="B806" s="34"/>
       <c r="C806" s="34"/>
@@ -14849,7 +14843,7 @@
       <c r="J806" s="34"/>
       <c r="K806" s="40"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A807" s="39"/>
       <c r="B807" s="34"/>
       <c r="C807" s="34"/>
@@ -14862,7 +14856,7 @@
       <c r="J807" s="34"/>
       <c r="K807" s="40"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A808" s="39"/>
       <c r="B808" s="34"/>
       <c r="C808" s="34"/>
@@ -14875,7 +14869,7 @@
       <c r="J808" s="34"/>
       <c r="K808" s="40"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A809" s="39"/>
       <c r="B809" s="34"/>
       <c r="C809" s="34"/>
@@ -14888,7 +14882,7 @@
       <c r="J809" s="34"/>
       <c r="K809" s="40"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A810" s="39"/>
       <c r="B810" s="34"/>
       <c r="C810" s="34"/>
@@ -14901,7 +14895,7 @@
       <c r="J810" s="34"/>
       <c r="K810" s="40"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A811" s="39"/>
       <c r="B811" s="34"/>
       <c r="C811" s="34"/>
@@ -14914,7 +14908,7 @@
       <c r="J811" s="34"/>
       <c r="K811" s="40"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A812" s="39"/>
       <c r="B812" s="34"/>
       <c r="C812" s="34"/>
@@ -14927,7 +14921,7 @@
       <c r="J812" s="34"/>
       <c r="K812" s="40"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A813" s="39"/>
       <c r="B813" s="34"/>
       <c r="C813" s="34"/>
@@ -14940,7 +14934,7 @@
       <c r="J813" s="34"/>
       <c r="K813" s="40"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A814" s="39"/>
       <c r="B814" s="34"/>
       <c r="C814" s="34"/>
@@ -14953,7 +14947,7 @@
       <c r="J814" s="34"/>
       <c r="K814" s="40"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A815" s="39"/>
       <c r="B815" s="34"/>
       <c r="C815" s="34"/>
@@ -14966,7 +14960,7 @@
       <c r="J815" s="34"/>
       <c r="K815" s="40"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A816" s="39"/>
       <c r="B816" s="34"/>
       <c r="C816" s="34"/>
@@ -14979,7 +14973,7 @@
       <c r="J816" s="34"/>
       <c r="K816" s="40"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A817" s="39"/>
       <c r="B817" s="34"/>
       <c r="C817" s="34"/>
@@ -14992,7 +14986,7 @@
       <c r="J817" s="34"/>
       <c r="K817" s="40"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A818" s="39"/>
       <c r="B818" s="34"/>
       <c r="C818" s="34"/>
@@ -15005,7 +14999,7 @@
       <c r="J818" s="34"/>
       <c r="K818" s="40"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A819" s="39"/>
       <c r="B819" s="34"/>
       <c r="C819" s="34"/>
@@ -15018,7 +15012,7 @@
       <c r="J819" s="34"/>
       <c r="K819" s="40"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A820" s="39"/>
       <c r="B820" s="34"/>
       <c r="C820" s="34"/>
@@ -15031,7 +15025,7 @@
       <c r="J820" s="34"/>
       <c r="K820" s="40"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A821" s="39"/>
       <c r="B821" s="34"/>
       <c r="C821" s="34"/>
@@ -15044,7 +15038,7 @@
       <c r="J821" s="34"/>
       <c r="K821" s="40"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A822" s="39"/>
       <c r="B822" s="34"/>
       <c r="C822" s="34"/>
@@ -15057,7 +15051,7 @@
       <c r="J822" s="34"/>
       <c r="K822" s="40"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A823" s="39"/>
       <c r="B823" s="34"/>
       <c r="C823" s="34"/>
@@ -15070,7 +15064,7 @@
       <c r="J823" s="34"/>
       <c r="K823" s="40"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A824" s="39"/>
       <c r="B824" s="34"/>
       <c r="C824" s="34"/>
@@ -15083,7 +15077,7 @@
       <c r="J824" s="34"/>
       <c r="K824" s="40"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A825" s="39"/>
       <c r="B825" s="34"/>
       <c r="C825" s="34"/>
@@ -15096,7 +15090,7 @@
       <c r="J825" s="34"/>
       <c r="K825" s="40"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A826" s="39"/>
       <c r="B826" s="34"/>
       <c r="C826" s="34"/>
@@ -15109,7 +15103,7 @@
       <c r="J826" s="34"/>
       <c r="K826" s="40"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A827" s="39"/>
       <c r="B827" s="34"/>
       <c r="C827" s="34"/>
@@ -15122,7 +15116,7 @@
       <c r="J827" s="34"/>
       <c r="K827" s="40"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A828" s="39"/>
       <c r="B828" s="34"/>
       <c r="C828" s="34"/>
@@ -15135,7 +15129,7 @@
       <c r="J828" s="34"/>
       <c r="K828" s="40"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A829" s="39"/>
       <c r="B829" s="34"/>
       <c r="C829" s="34"/>
@@ -15148,7 +15142,7 @@
       <c r="J829" s="34"/>
       <c r="K829" s="40"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A830" s="39"/>
       <c r="B830" s="34"/>
       <c r="C830" s="34"/>
@@ -15161,7 +15155,7 @@
       <c r="J830" s="34"/>
       <c r="K830" s="40"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A831" s="39"/>
       <c r="B831" s="34"/>
       <c r="C831" s="34"/>
@@ -15174,7 +15168,7 @@
       <c r="J831" s="34"/>
       <c r="K831" s="40"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A832" s="39"/>
       <c r="B832" s="34"/>
       <c r="C832" s="34"/>
@@ -15187,7 +15181,7 @@
       <c r="J832" s="34"/>
       <c r="K832" s="40"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A833" s="39"/>
       <c r="B833" s="34"/>
       <c r="C833" s="34"/>
@@ -15200,7 +15194,7 @@
       <c r="J833" s="34"/>
       <c r="K833" s="40"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A834" s="39"/>
       <c r="B834" s="34"/>
       <c r="C834" s="34"/>
@@ -15213,7 +15207,7 @@
       <c r="J834" s="34"/>
       <c r="K834" s="40"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A835" s="39"/>
       <c r="B835" s="34"/>
       <c r="C835" s="34"/>
@@ -15226,7 +15220,7 @@
       <c r="J835" s="34"/>
       <c r="K835" s="40"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A836" s="39"/>
       <c r="B836" s="34"/>
       <c r="C836" s="34"/>
@@ -15239,7 +15233,7 @@
       <c r="J836" s="34"/>
       <c r="K836" s="40"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A837" s="39"/>
       <c r="B837" s="34"/>
       <c r="C837" s="34"/>
@@ -15252,7 +15246,7 @@
       <c r="J837" s="34"/>
       <c r="K837" s="40"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A838" s="39"/>
       <c r="B838" s="34"/>
       <c r="C838" s="34"/>
@@ -15265,7 +15259,7 @@
       <c r="J838" s="34"/>
       <c r="K838" s="40"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A839" s="39"/>
       <c r="B839" s="34"/>
       <c r="C839" s="34"/>
@@ -15278,7 +15272,7 @@
       <c r="J839" s="34"/>
       <c r="K839" s="40"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A840" s="39"/>
       <c r="B840" s="34"/>
       <c r="C840" s="34"/>
@@ -15291,7 +15285,7 @@
       <c r="J840" s="34"/>
       <c r="K840" s="40"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A841" s="39"/>
       <c r="B841" s="34"/>
       <c r="C841" s="34"/>
@@ -15304,7 +15298,7 @@
       <c r="J841" s="34"/>
       <c r="K841" s="40"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A842" s="39"/>
       <c r="B842" s="34"/>
       <c r="C842" s="34"/>
@@ -15317,7 +15311,7 @@
       <c r="J842" s="34"/>
       <c r="K842" s="40"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A843" s="39"/>
       <c r="B843" s="34"/>
       <c r="C843" s="34"/>
@@ -15330,7 +15324,7 @@
       <c r="J843" s="34"/>
       <c r="K843" s="40"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A844" s="39"/>
       <c r="B844" s="34"/>
       <c r="C844" s="34"/>
@@ -15343,7 +15337,7 @@
       <c r="J844" s="34"/>
       <c r="K844" s="40"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A845" s="39"/>
       <c r="B845" s="34"/>
       <c r="C845" s="34"/>
@@ -15356,7 +15350,7 @@
       <c r="J845" s="34"/>
       <c r="K845" s="40"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A846" s="39"/>
       <c r="B846" s="34"/>
       <c r="C846" s="34"/>
@@ -15369,7 +15363,7 @@
       <c r="J846" s="34"/>
       <c r="K846" s="40"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A847" s="39"/>
       <c r="B847" s="34"/>
       <c r="C847" s="34"/>
@@ -15382,7 +15376,7 @@
       <c r="J847" s="34"/>
       <c r="K847" s="40"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A848" s="39"/>
       <c r="B848" s="34"/>
       <c r="C848" s="34"/>
@@ -15395,7 +15389,7 @@
       <c r="J848" s="34"/>
       <c r="K848" s="40"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A849" s="39"/>
       <c r="B849" s="34"/>
       <c r="C849" s="34"/>
@@ -15408,7 +15402,7 @@
       <c r="J849" s="34"/>
       <c r="K849" s="40"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A850" s="39"/>
       <c r="B850" s="34"/>
       <c r="C850" s="34"/>
@@ -15421,7 +15415,7 @@
       <c r="J850" s="34"/>
       <c r="K850" s="40"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A851" s="39"/>
       <c r="B851" s="34"/>
       <c r="C851" s="34"/>
@@ -15434,7 +15428,7 @@
       <c r="J851" s="34"/>
       <c r="K851" s="40"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A852" s="39"/>
       <c r="B852" s="34"/>
       <c r="C852" s="34"/>
@@ -15447,7 +15441,7 @@
       <c r="J852" s="34"/>
       <c r="K852" s="40"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A853" s="39"/>
       <c r="B853" s="34"/>
       <c r="C853" s="34"/>
@@ -15460,7 +15454,7 @@
       <c r="J853" s="34"/>
       <c r="K853" s="40"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A854" s="39"/>
       <c r="B854" s="34"/>
       <c r="C854" s="34"/>
@@ -15473,7 +15467,7 @@
       <c r="J854" s="34"/>
       <c r="K854" s="40"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A855" s="39"/>
       <c r="B855" s="34"/>
       <c r="C855" s="34"/>
@@ -15486,7 +15480,7 @@
       <c r="J855" s="34"/>
       <c r="K855" s="40"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A856" s="39"/>
       <c r="B856" s="34"/>
       <c r="C856" s="34"/>
@@ -15499,7 +15493,7 @@
       <c r="J856" s="34"/>
       <c r="K856" s="40"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A857" s="39"/>
       <c r="B857" s="34"/>
       <c r="C857" s="34"/>
@@ -15512,7 +15506,7 @@
       <c r="J857" s="34"/>
       <c r="K857" s="40"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A858" s="39"/>
       <c r="B858" s="34"/>
       <c r="C858" s="34"/>
@@ -15525,7 +15519,7 @@
       <c r="J858" s="34"/>
       <c r="K858" s="40"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A859" s="39"/>
       <c r="B859" s="34"/>
       <c r="C859" s="34"/>
@@ -15538,7 +15532,7 @@
       <c r="J859" s="34"/>
       <c r="K859" s="40"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A860" s="39"/>
       <c r="B860" s="34"/>
       <c r="C860" s="34"/>
@@ -15551,7 +15545,7 @@
       <c r="J860" s="34"/>
       <c r="K860" s="40"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A861" s="39"/>
       <c r="B861" s="34"/>
       <c r="C861" s="34"/>
@@ -15564,7 +15558,7 @@
       <c r="J861" s="34"/>
       <c r="K861" s="40"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A862" s="39"/>
       <c r="B862" s="34"/>
       <c r="C862" s="34"/>
@@ -15577,7 +15571,7 @@
       <c r="J862" s="34"/>
       <c r="K862" s="40"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A863" s="39"/>
       <c r="B863" s="34"/>
       <c r="C863" s="34"/>
@@ -15590,7 +15584,7 @@
       <c r="J863" s="34"/>
       <c r="K863" s="40"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A864" s="39"/>
       <c r="B864" s="34"/>
       <c r="C864" s="34"/>
@@ -15603,7 +15597,7 @@
       <c r="J864" s="34"/>
       <c r="K864" s="40"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A865" s="39"/>
       <c r="B865" s="34"/>
       <c r="C865" s="34"/>
@@ -15616,7 +15610,7 @@
       <c r="J865" s="34"/>
       <c r="K865" s="40"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A866" s="39"/>
       <c r="B866" s="34"/>
       <c r="C866" s="34"/>
@@ -15629,7 +15623,7 @@
       <c r="J866" s="34"/>
       <c r="K866" s="40"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A867" s="39"/>
       <c r="B867" s="34"/>
       <c r="C867" s="34"/>
@@ -15642,7 +15636,7 @@
       <c r="J867" s="34"/>
       <c r="K867" s="40"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A868" s="39"/>
       <c r="B868" s="34"/>
       <c r="C868" s="34"/>
@@ -15655,7 +15649,7 @@
       <c r="J868" s="34"/>
       <c r="K868" s="40"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A869" s="39"/>
       <c r="B869" s="34"/>
       <c r="C869" s="34"/>
@@ -15668,7 +15662,7 @@
       <c r="J869" s="34"/>
       <c r="K869" s="40"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A870" s="39"/>
       <c r="B870" s="34"/>
       <c r="C870" s="34"/>
@@ -15681,7 +15675,7 @@
       <c r="J870" s="34"/>
       <c r="K870" s="40"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A871" s="39"/>
       <c r="B871" s="34"/>
       <c r="C871" s="34"/>
@@ -15694,7 +15688,7 @@
       <c r="J871" s="34"/>
       <c r="K871" s="40"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A872" s="39"/>
       <c r="B872" s="34"/>
       <c r="C872" s="34"/>
@@ -15707,7 +15701,7 @@
       <c r="J872" s="34"/>
       <c r="K872" s="40"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A873" s="39"/>
       <c r="B873" s="34"/>
       <c r="C873" s="34"/>
@@ -15720,7 +15714,7 @@
       <c r="J873" s="34"/>
       <c r="K873" s="40"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A874" s="39"/>
       <c r="B874" s="34"/>
       <c r="C874" s="34"/>
@@ -15733,7 +15727,7 @@
       <c r="J874" s="34"/>
       <c r="K874" s="40"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A875" s="39"/>
       <c r="B875" s="34"/>
       <c r="C875" s="34"/>
@@ -15746,7 +15740,7 @@
       <c r="J875" s="34"/>
       <c r="K875" s="40"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A876" s="39"/>
       <c r="B876" s="34"/>
       <c r="C876" s="34"/>
@@ -15759,7 +15753,7 @@
       <c r="J876" s="34"/>
       <c r="K876" s="40"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A877" s="39"/>
       <c r="B877" s="34"/>
       <c r="C877" s="34"/>
@@ -15772,7 +15766,7 @@
       <c r="J877" s="34"/>
       <c r="K877" s="40"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A878" s="39"/>
       <c r="B878" s="34"/>
       <c r="C878" s="34"/>
@@ -15785,7 +15779,7 @@
       <c r="J878" s="34"/>
       <c r="K878" s="40"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A879" s="39"/>
       <c r="B879" s="34"/>
       <c r="C879" s="34"/>
@@ -15798,7 +15792,7 @@
       <c r="J879" s="34"/>
       <c r="K879" s="40"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A880" s="39"/>
       <c r="B880" s="34"/>
       <c r="C880" s="34"/>
@@ -15811,7 +15805,7 @@
       <c r="J880" s="34"/>
       <c r="K880" s="40"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A881" s="39"/>
       <c r="B881" s="34"/>
       <c r="C881" s="34"/>
@@ -15824,7 +15818,7 @@
       <c r="J881" s="34"/>
       <c r="K881" s="40"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A882" s="39"/>
       <c r="B882" s="34"/>
       <c r="C882" s="34"/>
@@ -15837,7 +15831,7 @@
       <c r="J882" s="34"/>
       <c r="K882" s="40"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A883" s="39"/>
       <c r="B883" s="34"/>
       <c r="C883" s="34"/>
@@ -15850,7 +15844,7 @@
       <c r="J883" s="34"/>
       <c r="K883" s="40"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A884" s="39"/>
       <c r="B884" s="34"/>
       <c r="C884" s="34"/>
@@ -15863,7 +15857,7 @@
       <c r="J884" s="34"/>
       <c r="K884" s="40"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A885" s="39"/>
       <c r="B885" s="34"/>
       <c r="C885" s="34"/>
@@ -15876,7 +15870,7 @@
       <c r="J885" s="34"/>
       <c r="K885" s="40"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A886" s="39"/>
       <c r="B886" s="34"/>
       <c r="C886" s="34"/>
@@ -15889,7 +15883,7 @@
       <c r="J886" s="34"/>
       <c r="K886" s="40"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A887" s="39"/>
       <c r="B887" s="34"/>
       <c r="C887" s="34"/>
@@ -15902,7 +15896,7 @@
       <c r="J887" s="34"/>
       <c r="K887" s="40"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A888" s="39"/>
       <c r="B888" s="34"/>
       <c r="C888" s="34"/>
@@ -15915,7 +15909,7 @@
       <c r="J888" s="34"/>
       <c r="K888" s="40"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A889" s="39"/>
       <c r="B889" s="34"/>
       <c r="C889" s="34"/>
@@ -15928,7 +15922,7 @@
       <c r="J889" s="34"/>
       <c r="K889" s="40"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A890" s="39"/>
       <c r="B890" s="34"/>
       <c r="C890" s="34"/>
@@ -15941,7 +15935,7 @@
       <c r="J890" s="34"/>
       <c r="K890" s="40"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A891" s="39"/>
       <c r="B891" s="34"/>
       <c r="C891" s="34"/>
@@ -15954,7 +15948,7 @@
       <c r="J891" s="34"/>
       <c r="K891" s="40"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A892" s="39"/>
       <c r="B892" s="34"/>
       <c r="C892" s="34"/>
@@ -15967,7 +15961,7 @@
       <c r="J892" s="34"/>
       <c r="K892" s="40"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A893" s="39"/>
       <c r="B893" s="34"/>
       <c r="C893" s="34"/>
@@ -15980,7 +15974,7 @@
       <c r="J893" s="34"/>
       <c r="K893" s="40"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A894" s="39"/>
       <c r="B894" s="34"/>
       <c r="C894" s="34"/>
@@ -15993,7 +15987,7 @@
       <c r="J894" s="34"/>
       <c r="K894" s="40"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A895" s="39"/>
       <c r="B895" s="34"/>
       <c r="C895" s="34"/>
@@ -16006,7 +16000,7 @@
       <c r="J895" s="34"/>
       <c r="K895" s="40"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A896" s="39"/>
       <c r="B896" s="34"/>
       <c r="C896" s="34"/>
@@ -16019,7 +16013,7 @@
       <c r="J896" s="34"/>
       <c r="K896" s="40"/>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A897" s="39"/>
       <c r="B897" s="34"/>
       <c r="C897" s="34"/>
@@ -16032,7 +16026,7 @@
       <c r="J897" s="34"/>
       <c r="K897" s="40"/>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A898" s="39"/>
       <c r="B898" s="34"/>
       <c r="C898" s="34"/>
@@ -16045,7 +16039,7 @@
       <c r="J898" s="34"/>
       <c r="K898" s="40"/>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A899" s="39"/>
       <c r="B899" s="34"/>
       <c r="C899" s="34"/>
@@ -16058,7 +16052,7 @@
       <c r="J899" s="34"/>
       <c r="K899" s="40"/>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A900" s="39"/>
       <c r="B900" s="34"/>
       <c r="C900" s="34"/>
@@ -16071,7 +16065,7 @@
       <c r="J900" s="34"/>
       <c r="K900" s="40"/>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A901" s="39"/>
       <c r="B901" s="34"/>
       <c r="C901" s="34"/>
@@ -16084,7 +16078,7 @@
       <c r="J901" s="34"/>
       <c r="K901" s="40"/>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A902" s="39"/>
       <c r="B902" s="34"/>
       <c r="C902" s="34"/>
@@ -16097,7 +16091,7 @@
       <c r="J902" s="34"/>
       <c r="K902" s="40"/>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A903" s="39"/>
       <c r="B903" s="34"/>
       <c r="C903" s="34"/>
@@ -16110,7 +16104,7 @@
       <c r="J903" s="34"/>
       <c r="K903" s="40"/>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A904" s="39"/>
       <c r="B904" s="34"/>
       <c r="C904" s="34"/>
@@ -16123,7 +16117,7 @@
       <c r="J904" s="34"/>
       <c r="K904" s="40"/>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A905" s="39"/>
       <c r="B905" s="34"/>
       <c r="C905" s="34"/>
@@ -16136,7 +16130,7 @@
       <c r="J905" s="34"/>
       <c r="K905" s="40"/>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A906" s="39"/>
       <c r="B906" s="34"/>
       <c r="C906" s="34"/>
@@ -16149,7 +16143,7 @@
       <c r="J906" s="34"/>
       <c r="K906" s="40"/>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A907" s="39"/>
       <c r="B907" s="34"/>
       <c r="C907" s="34"/>
@@ -16162,7 +16156,7 @@
       <c r="J907" s="34"/>
       <c r="K907" s="40"/>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A908" s="39"/>
       <c r="B908" s="34"/>
       <c r="C908" s="34"/>
@@ -16175,7 +16169,7 @@
       <c r="J908" s="34"/>
       <c r="K908" s="40"/>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A909" s="39"/>
       <c r="B909" s="34"/>
       <c r="C909" s="34"/>
@@ -16188,7 +16182,7 @@
       <c r="J909" s="34"/>
       <c r="K909" s="40"/>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A910" s="39"/>
       <c r="B910" s="34"/>
       <c r="C910" s="34"/>
@@ -16201,7 +16195,7 @@
       <c r="J910" s="34"/>
       <c r="K910" s="40"/>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A911" s="39"/>
       <c r="B911" s="34"/>
       <c r="C911" s="34"/>
@@ -16214,7 +16208,7 @@
       <c r="J911" s="34"/>
       <c r="K911" s="40"/>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A912" s="39"/>
       <c r="B912" s="34"/>
       <c r="C912" s="34"/>
@@ -16227,7 +16221,7 @@
       <c r="J912" s="34"/>
       <c r="K912" s="40"/>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A913" s="39"/>
       <c r="B913" s="34"/>
       <c r="C913" s="34"/>
@@ -16240,7 +16234,7 @@
       <c r="J913" s="34"/>
       <c r="K913" s="40"/>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A914" s="39"/>
       <c r="B914" s="34"/>
       <c r="C914" s="34"/>
@@ -16253,7 +16247,7 @@
       <c r="J914" s="34"/>
       <c r="K914" s="40"/>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A915" s="39"/>
       <c r="B915" s="34"/>
       <c r="C915" s="34"/>
@@ -16266,7 +16260,7 @@
       <c r="J915" s="34"/>
       <c r="K915" s="40"/>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A916" s="39"/>
       <c r="B916" s="34"/>
       <c r="C916" s="34"/>
@@ -16279,7 +16273,7 @@
       <c r="J916" s="34"/>
       <c r="K916" s="40"/>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A917" s="39"/>
       <c r="B917" s="34"/>
       <c r="C917" s="34"/>
@@ -16292,7 +16286,7 @@
       <c r="J917" s="34"/>
       <c r="K917" s="40"/>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A918" s="39"/>
       <c r="B918" s="34"/>
       <c r="C918" s="34"/>
@@ -16305,7 +16299,7 @@
       <c r="J918" s="34"/>
       <c r="K918" s="40"/>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A919" s="39"/>
       <c r="B919" s="34"/>
       <c r="C919" s="34"/>
@@ -16318,7 +16312,7 @@
       <c r="J919" s="34"/>
       <c r="K919" s="40"/>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A920" s="39"/>
       <c r="B920" s="34"/>
       <c r="C920" s="34"/>
@@ -16331,7 +16325,7 @@
       <c r="J920" s="34"/>
       <c r="K920" s="40"/>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A921" s="39"/>
       <c r="B921" s="34"/>
       <c r="C921" s="34"/>
@@ -16344,7 +16338,7 @@
       <c r="J921" s="34"/>
       <c r="K921" s="40"/>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A922" s="39"/>
       <c r="B922" s="34"/>
       <c r="C922" s="34"/>
@@ -16357,7 +16351,7 @@
       <c r="J922" s="34"/>
       <c r="K922" s="40"/>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A923" s="39"/>
       <c r="B923" s="34"/>
       <c r="C923" s="34"/>
@@ -16370,7 +16364,7 @@
       <c r="J923" s="34"/>
       <c r="K923" s="40"/>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A924" s="39"/>
       <c r="B924" s="34"/>
       <c r="C924" s="34"/>
@@ -16383,7 +16377,7 @@
       <c r="J924" s="34"/>
       <c r="K924" s="40"/>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A925" s="39"/>
       <c r="B925" s="34"/>
       <c r="C925" s="34"/>
@@ -16396,7 +16390,7 @@
       <c r="J925" s="34"/>
       <c r="K925" s="40"/>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A926" s="39"/>
       <c r="B926" s="34"/>
       <c r="C926" s="34"/>
@@ -16409,7 +16403,7 @@
       <c r="J926" s="34"/>
       <c r="K926" s="40"/>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A927" s="39"/>
       <c r="B927" s="34"/>
       <c r="C927" s="34"/>
@@ -16422,7 +16416,7 @@
       <c r="J927" s="34"/>
       <c r="K927" s="40"/>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A928" s="39"/>
       <c r="B928" s="34"/>
       <c r="C928" s="34"/>
@@ -16435,7 +16429,7 @@
       <c r="J928" s="34"/>
       <c r="K928" s="40"/>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A929" s="39"/>
       <c r="B929" s="34"/>
       <c r="C929" s="34"/>
@@ -16448,7 +16442,7 @@
       <c r="J929" s="34"/>
       <c r="K929" s="40"/>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A930" s="39"/>
       <c r="B930" s="34"/>
       <c r="C930" s="34"/>
@@ -16461,7 +16455,7 @@
       <c r="J930" s="34"/>
       <c r="K930" s="40"/>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A931" s="39"/>
       <c r="B931" s="34"/>
       <c r="C931" s="34"/>
@@ -16474,7 +16468,7 @@
       <c r="J931" s="34"/>
       <c r="K931" s="40"/>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A932" s="39"/>
       <c r="B932" s="34"/>
       <c r="C932" s="34"/>
@@ -16487,7 +16481,7 @@
       <c r="J932" s="34"/>
       <c r="K932" s="40"/>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A933" s="39"/>
       <c r="B933" s="34"/>
       <c r="C933" s="34"/>
@@ -16500,7 +16494,7 @@
       <c r="J933" s="34"/>
       <c r="K933" s="40"/>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A934" s="39"/>
       <c r="B934" s="34"/>
       <c r="C934" s="34"/>
@@ -16513,7 +16507,7 @@
       <c r="J934" s="34"/>
       <c r="K934" s="40"/>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A935" s="39"/>
       <c r="B935" s="34"/>
       <c r="C935" s="34"/>
@@ -16526,7 +16520,7 @@
       <c r="J935" s="34"/>
       <c r="K935" s="40"/>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A936" s="39"/>
       <c r="B936" s="34"/>
       <c r="C936" s="34"/>
@@ -16539,7 +16533,7 @@
       <c r="J936" s="34"/>
       <c r="K936" s="40"/>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A937" s="39"/>
       <c r="B937" s="34"/>
       <c r="C937" s="34"/>
@@ -16552,7 +16546,7 @@
       <c r="J937" s="34"/>
       <c r="K937" s="40"/>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A938" s="39"/>
       <c r="B938" s="34"/>
       <c r="C938" s="34"/>
@@ -16565,7 +16559,7 @@
       <c r="J938" s="34"/>
       <c r="K938" s="40"/>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A939" s="39"/>
       <c r="B939" s="34"/>
       <c r="C939" s="34"/>
@@ -16578,7 +16572,7 @@
       <c r="J939" s="34"/>
       <c r="K939" s="40"/>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A940" s="39"/>
       <c r="B940" s="34"/>
       <c r="C940" s="34"/>
@@ -16591,7 +16585,7 @@
       <c r="J940" s="34"/>
       <c r="K940" s="40"/>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A941" s="39"/>
       <c r="B941" s="34"/>
       <c r="C941" s="34"/>
@@ -16604,7 +16598,7 @@
       <c r="J941" s="34"/>
       <c r="K941" s="40"/>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A942" s="39"/>
       <c r="B942" s="34"/>
       <c r="C942" s="34"/>
@@ -16617,7 +16611,7 @@
       <c r="J942" s="34"/>
       <c r="K942" s="40"/>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A943" s="39"/>
       <c r="B943" s="34"/>
       <c r="C943" s="34"/>
@@ -16630,7 +16624,7 @@
       <c r="J943" s="34"/>
       <c r="K943" s="40"/>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A944" s="39"/>
       <c r="B944" s="34"/>
       <c r="C944" s="34"/>
@@ -16643,7 +16637,7 @@
       <c r="J944" s="34"/>
       <c r="K944" s="40"/>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A945" s="39"/>
       <c r="B945" s="34"/>
       <c r="C945" s="34"/>
@@ -16656,7 +16650,7 @@
       <c r="J945" s="34"/>
       <c r="K945" s="40"/>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A946" s="39"/>
       <c r="B946" s="34"/>
       <c r="C946" s="34"/>
@@ -16669,7 +16663,7 @@
       <c r="J946" s="34"/>
       <c r="K946" s="40"/>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A947" s="39"/>
       <c r="B947" s="34"/>
       <c r="C947" s="34"/>
@@ -16682,7 +16676,7 @@
       <c r="J947" s="34"/>
       <c r="K947" s="40"/>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A948" s="39"/>
       <c r="B948" s="34"/>
       <c r="C948" s="34"/>
@@ -16695,7 +16689,7 @@
       <c r="J948" s="34"/>
       <c r="K948" s="40"/>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A949" s="39"/>
       <c r="B949" s="34"/>
       <c r="C949" s="34"/>
@@ -16708,7 +16702,7 @@
       <c r="J949" s="34"/>
       <c r="K949" s="40"/>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A950" s="39"/>
       <c r="B950" s="34"/>
       <c r="C950" s="34"/>
@@ -16721,7 +16715,7 @@
       <c r="J950" s="34"/>
       <c r="K950" s="40"/>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A951" s="39"/>
       <c r="B951" s="34"/>
       <c r="C951" s="34"/>
@@ -16734,7 +16728,7 @@
       <c r="J951" s="34"/>
       <c r="K951" s="40"/>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A952" s="39"/>
       <c r="B952" s="34"/>
       <c r="C952" s="34"/>
@@ -16747,7 +16741,7 @@
       <c r="J952" s="34"/>
       <c r="K952" s="40"/>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A953" s="39"/>
       <c r="B953" s="34"/>
       <c r="C953" s="34"/>
@@ -16760,7 +16754,7 @@
       <c r="J953" s="34"/>
       <c r="K953" s="40"/>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A954" s="39"/>
       <c r="B954" s="34"/>
       <c r="C954" s="34"/>
@@ -16773,7 +16767,7 @@
       <c r="J954" s="34"/>
       <c r="K954" s="40"/>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A955" s="39"/>
       <c r="B955" s="34"/>
       <c r="C955" s="34"/>
@@ -16786,7 +16780,7 @@
       <c r="J955" s="34"/>
       <c r="K955" s="40"/>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A956" s="39"/>
       <c r="B956" s="34"/>
       <c r="C956" s="34"/>
@@ -16799,7 +16793,7 @@
       <c r="J956" s="34"/>
       <c r="K956" s="40"/>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A957" s="39"/>
       <c r="B957" s="34"/>
       <c r="C957" s="34"/>
@@ -16812,7 +16806,7 @@
       <c r="J957" s="34"/>
       <c r="K957" s="40"/>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A958" s="39"/>
       <c r="B958" s="34"/>
       <c r="C958" s="34"/>
@@ -16825,7 +16819,7 @@
       <c r="J958" s="34"/>
       <c r="K958" s="40"/>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A959" s="39"/>
       <c r="B959" s="34"/>
       <c r="C959" s="34"/>
@@ -16838,7 +16832,7 @@
       <c r="J959" s="34"/>
       <c r="K959" s="40"/>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A960" s="39"/>
       <c r="B960" s="34"/>
       <c r="C960" s="34"/>
@@ -16851,7 +16845,7 @@
       <c r="J960" s="34"/>
       <c r="K960" s="40"/>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A961" s="39"/>
       <c r="B961" s="34"/>
       <c r="C961" s="34"/>
@@ -16864,7 +16858,7 @@
       <c r="J961" s="34"/>
       <c r="K961" s="40"/>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A962" s="39"/>
       <c r="B962" s="34"/>
       <c r="C962" s="34"/>
@@ -16877,7 +16871,7 @@
       <c r="J962" s="34"/>
       <c r="K962" s="40"/>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A963" s="39"/>
       <c r="B963" s="34"/>
       <c r="C963" s="34"/>
@@ -16890,7 +16884,7 @@
       <c r="J963" s="34"/>
       <c r="K963" s="40"/>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A964" s="39"/>
       <c r="B964" s="34"/>
       <c r="C964" s="34"/>
@@ -16903,7 +16897,7 @@
       <c r="J964" s="34"/>
       <c r="K964" s="40"/>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A965" s="39"/>
       <c r="B965" s="34"/>
       <c r="C965" s="34"/>
@@ -16916,7 +16910,7 @@
       <c r="J965" s="34"/>
       <c r="K965" s="40"/>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A966" s="39"/>
       <c r="B966" s="34"/>
       <c r="C966" s="34"/>
@@ -16929,7 +16923,7 @@
       <c r="J966" s="34"/>
       <c r="K966" s="40"/>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A967" s="39"/>
       <c r="B967" s="34"/>
       <c r="C967" s="34"/>
@@ -16942,7 +16936,7 @@
       <c r="J967" s="34"/>
       <c r="K967" s="40"/>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A968" s="39"/>
       <c r="B968" s="34"/>
       <c r="C968" s="34"/>
@@ -16955,7 +16949,7 @@
       <c r="J968" s="34"/>
       <c r="K968" s="40"/>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A969" s="39"/>
       <c r="B969" s="34"/>
       <c r="C969" s="34"/>
@@ -16968,7 +16962,7 @@
       <c r="J969" s="34"/>
       <c r="K969" s="40"/>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A970" s="39"/>
       <c r="B970" s="34"/>
       <c r="C970" s="34"/>
@@ -16981,7 +16975,7 @@
       <c r="J970" s="34"/>
       <c r="K970" s="40"/>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A971" s="39"/>
       <c r="B971" s="34"/>
       <c r="C971" s="34"/>
@@ -16994,7 +16988,7 @@
       <c r="J971" s="34"/>
       <c r="K971" s="40"/>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A972" s="39"/>
       <c r="B972" s="34"/>
       <c r="C972" s="34"/>
@@ -17007,7 +17001,7 @@
       <c r="J972" s="34"/>
       <c r="K972" s="40"/>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A973" s="39"/>
       <c r="B973" s="34"/>
       <c r="C973" s="34"/>
@@ -17020,7 +17014,7 @@
       <c r="J973" s="34"/>
       <c r="K973" s="40"/>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A974" s="39"/>
       <c r="B974" s="34"/>
       <c r="C974" s="34"/>
@@ -17033,7 +17027,7 @@
       <c r="J974" s="34"/>
       <c r="K974" s="40"/>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A975" s="39"/>
       <c r="B975" s="34"/>
       <c r="C975" s="34"/>
@@ -17046,7 +17040,7 @@
       <c r="J975" s="34"/>
       <c r="K975" s="40"/>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A976" s="39"/>
       <c r="B976" s="34"/>
       <c r="C976" s="34"/>
@@ -17059,7 +17053,7 @@
       <c r="J976" s="34"/>
       <c r="K976" s="40"/>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A977" s="39"/>
       <c r="B977" s="34"/>
       <c r="C977" s="34"/>
@@ -17072,7 +17066,7 @@
       <c r="J977" s="34"/>
       <c r="K977" s="40"/>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A978" s="39"/>
       <c r="B978" s="34"/>
       <c r="C978" s="34"/>
@@ -17085,7 +17079,7 @@
       <c r="J978" s="34"/>
       <c r="K978" s="40"/>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A979" s="39"/>
       <c r="B979" s="34"/>
       <c r="C979" s="34"/>
@@ -17098,7 +17092,7 @@
       <c r="J979" s="34"/>
       <c r="K979" s="40"/>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A980" s="39"/>
       <c r="B980" s="34"/>
       <c r="C980" s="34"/>
@@ -17111,7 +17105,7 @@
       <c r="J980" s="34"/>
       <c r="K980" s="40"/>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A981" s="39"/>
       <c r="B981" s="34"/>
       <c r="C981" s="34"/>
@@ -17124,7 +17118,7 @@
       <c r="J981" s="34"/>
       <c r="K981" s="40"/>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A982" s="39"/>
       <c r="B982" s="34"/>
       <c r="C982" s="34"/>
@@ -17137,7 +17131,7 @@
       <c r="J982" s="34"/>
       <c r="K982" s="40"/>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A983" s="39"/>
       <c r="B983" s="34"/>
       <c r="C983" s="34"/>
@@ -17150,7 +17144,7 @@
       <c r="J983" s="34"/>
       <c r="K983" s="40"/>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A984" s="39"/>
       <c r="B984" s="34"/>
       <c r="C984" s="34"/>
@@ -17163,7 +17157,7 @@
       <c r="J984" s="34"/>
       <c r="K984" s="40"/>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A985" s="39"/>
       <c r="B985" s="34"/>
       <c r="C985" s="34"/>
@@ -17176,7 +17170,7 @@
       <c r="J985" s="34"/>
       <c r="K985" s="40"/>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A986" s="39"/>
       <c r="B986" s="34"/>
       <c r="C986" s="34"/>
@@ -17189,7 +17183,7 @@
       <c r="J986" s="34"/>
       <c r="K986" s="40"/>
     </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A987" s="39"/>
       <c r="B987" s="34"/>
       <c r="C987" s="34"/>
@@ -17202,7 +17196,7 @@
       <c r="J987" s="34"/>
       <c r="K987" s="40"/>
     </row>
-    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A988" s="39"/>
       <c r="B988" s="34"/>
       <c r="C988" s="34"/>
@@ -17215,7 +17209,7 @@
       <c r="J988" s="34"/>
       <c r="K988" s="40"/>
     </row>
-    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A989" s="39"/>
       <c r="B989" s="34"/>
       <c r="C989" s="34"/>
@@ -17228,7 +17222,7 @@
       <c r="J989" s="34"/>
       <c r="K989" s="40"/>
     </row>
-    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A990" s="39"/>
       <c r="B990" s="34"/>
       <c r="C990" s="34"/>
@@ -17241,7 +17235,7 @@
       <c r="J990" s="34"/>
       <c r="K990" s="40"/>
     </row>
-    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A991" s="39"/>
       <c r="B991" s="34"/>
       <c r="C991" s="34"/>
@@ -17254,7 +17248,7 @@
       <c r="J991" s="34"/>
       <c r="K991" s="40"/>
     </row>
-    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A992" s="39"/>
       <c r="B992" s="34"/>
       <c r="C992" s="34"/>
@@ -17267,7 +17261,7 @@
       <c r="J992" s="34"/>
       <c r="K992" s="40"/>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A993" s="39"/>
       <c r="B993" s="34"/>
       <c r="C993" s="34"/>

--- a/Planilha de vendas.xlsx
+++ b/Planilha de vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automatizar input vendas - CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7ED245-053E-494C-B5B6-1D02206F5B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B5BE5-1B03-4D08-87EC-E69E0E7ADCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -617,23 +617,23 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>46041</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>46041</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>46041</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>46041</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>46040</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>46040</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>46039</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -1052,7 +1052,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -1079,7 +1079,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -1106,7 +1106,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1133,7 +1133,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1160,7 +1160,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -1187,7 +1187,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -1214,7 +1214,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1241,7 +1241,7 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
     </row>
-    <row r="17" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -1268,7 +1268,7 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -1295,7 +1295,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
     </row>
-    <row r="19" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1322,7 +1322,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1349,7 +1349,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
     </row>
-    <row r="21" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1376,7 +1376,7 @@
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
     </row>
-    <row r="22" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -1403,7 +1403,7 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
     </row>
-    <row r="23" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -1430,7 +1430,7 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
     </row>
-    <row r="24" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1457,7 +1457,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -1484,7 +1484,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -1511,7 +1511,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -1538,7 +1538,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -1565,7 +1565,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -1592,7 +1592,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -1619,7 +1619,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -1646,7 +1646,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -1673,7 +1673,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -1700,7 +1700,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
@@ -1727,7 +1727,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
@@ -1754,7 +1754,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
@@ -1781,7 +1781,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -1808,7 +1808,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
@@ -1835,7 +1835,7 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -1862,7 +1862,7 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
@@ -1889,7 +1889,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -1916,7 +1916,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -1943,7 +1943,7 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -1970,7 +1970,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -1997,7 +1997,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -2024,7 +2024,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -2051,7 +2051,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
@@ -2078,7 +2078,7 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -2105,7 +2105,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
@@ -2132,7 +2132,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -2159,7 +2159,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -2186,7 +2186,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -2213,7 +2213,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -2240,7 +2240,7 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
@@ -2267,7 +2267,7 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -2294,7 +2294,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -2321,7 +2321,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
@@ -2348,7 +2348,7 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
@@ -2375,7 +2375,7 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -2402,7 +2402,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
@@ -2429,7 +2429,7 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
@@ -2456,7 +2456,7 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
@@ -2483,7 +2483,7 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
@@ -2510,7 +2510,7 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
@@ -2537,7 +2537,7 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -2564,7 +2564,7 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
@@ -2591,7 +2591,7 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
@@ -2618,7 +2618,7 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
@@ -2645,7 +2645,7 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
@@ -2672,7 +2672,7 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
@@ -2699,7 +2699,7 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
@@ -2726,7 +2726,7 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
@@ -2753,7 +2753,7 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
@@ -2780,7 +2780,7 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
@@ -2807,7 +2807,7 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
@@ -2834,7 +2834,7 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
@@ -2861,7 +2861,7 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
@@ -2888,7 +2888,7 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
@@ -2915,7 +2915,7 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
@@ -2942,7 +2942,7 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
@@ -2969,7 +2969,7 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
@@ -2996,7 +2996,7 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
@@ -3023,7 +3023,7 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
@@ -3050,7 +3050,7 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
@@ -3077,7 +3077,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
@@ -3104,7 +3104,7 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
@@ -3131,7 +3131,7 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
@@ -3158,7 +3158,7 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
@@ -3185,7 +3185,7 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
@@ -3212,7 +3212,7 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
@@ -3239,7 +3239,7 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
@@ -3266,7 +3266,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="8"/>
@@ -3293,7 +3293,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="19"/>
       <c r="C93" s="12"/>
@@ -3320,7 +3320,7 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
@@ -3347,7 +3347,7 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="19"/>
       <c r="C95" s="12"/>
@@ -3374,7 +3374,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="19"/>
       <c r="C96" s="12"/>
@@ -3401,7 +3401,7 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="19"/>
       <c r="C97" s="12"/>
@@ -3428,7 +3428,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="19"/>
       <c r="C98" s="12"/>
@@ -3455,7 +3455,7 @@
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
     </row>
-    <row r="99" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="19"/>
       <c r="C99" s="12"/>
@@ -3482,7 +3482,7 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
     </row>
-    <row r="100" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="19"/>
       <c r="C100" s="12"/>
@@ -3509,7 +3509,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
     </row>
-    <row r="101" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="19"/>
       <c r="C101" s="12"/>
@@ -3536,7 +3536,7 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
-    <row r="102" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="19"/>
       <c r="C102" s="12"/>
@@ -3563,7 +3563,7 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
     </row>
-    <row r="103" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="19"/>
       <c r="C103" s="12"/>
@@ -3590,7 +3590,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="19"/>
       <c r="C104" s="12"/>
@@ -3617,7 +3617,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
-    <row r="105" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="19"/>
       <c r="C105" s="12"/>
@@ -3644,7 +3644,7 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
     </row>
-    <row r="106" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="19"/>
       <c r="C106" s="8"/>
@@ -3671,7 +3671,7 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
     </row>
-    <row r="107" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="19"/>
       <c r="C107" s="8"/>
@@ -3698,7 +3698,7 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
     </row>
-    <row r="108" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="21"/>
       <c r="C108" s="24"/>
@@ -3725,7 +3725,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
     </row>
-    <row r="109" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="19"/>
       <c r="C109" s="8"/>
@@ -3752,7 +3752,7 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
     </row>
-    <row r="110" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="19"/>
       <c r="C110" s="8"/>
@@ -3779,7 +3779,7 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
     </row>
-    <row r="111" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="19"/>
       <c r="C111" s="12"/>
@@ -3806,7 +3806,7 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
     </row>
-    <row r="112" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="19"/>
       <c r="C112" s="12"/>
@@ -3833,7 +3833,7 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
     </row>
-    <row r="113" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="19"/>
       <c r="C113" s="12"/>
@@ -3860,7 +3860,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="19"/>
       <c r="C114" s="8"/>
@@ -3887,7 +3887,7 @@
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
     </row>
-    <row r="115" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="19"/>
       <c r="C115" s="12"/>
@@ -3914,7 +3914,7 @@
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
     </row>
-    <row r="116" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="19"/>
       <c r="C116" s="8"/>
@@ -3941,7 +3941,7 @@
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
     </row>
-    <row r="117" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="19"/>
       <c r="C117" s="12"/>
@@ -3968,7 +3968,7 @@
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
     </row>
-    <row r="118" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="19"/>
       <c r="C118" s="8"/>
@@ -3995,7 +3995,7 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
     </row>
-    <row r="119" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="19"/>
       <c r="C119" s="12"/>
@@ -4022,7 +4022,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
     </row>
-    <row r="120" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="19"/>
       <c r="C120" s="8"/>
@@ -4049,7 +4049,7 @@
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
     </row>
-    <row r="121" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="19"/>
       <c r="C121" s="12"/>
@@ -4076,7 +4076,7 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="19"/>
       <c r="C122" s="12"/>
@@ -4103,7 +4103,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="19"/>
       <c r="C123" s="12"/>
@@ -4130,7 +4130,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
-    <row r="124" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="19"/>
       <c r="C124" s="12"/>
@@ -4157,7 +4157,7 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
     </row>
-    <row r="125" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="19"/>
       <c r="C125" s="12"/>
@@ -4184,7 +4184,7 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
     </row>
-    <row r="126" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="19"/>
       <c r="C126" s="8"/>
@@ -4211,7 +4211,7 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
     </row>
-    <row r="127" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="19"/>
       <c r="C127" s="8"/>
@@ -4238,7 +4238,7 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
     </row>
-    <row r="128" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="19"/>
       <c r="C128" s="8"/>
@@ -4265,7 +4265,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="19"/>
       <c r="C129" s="8"/>
@@ -4292,7 +4292,7 @@
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
     </row>
-    <row r="130" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="19"/>
       <c r="C130" s="8"/>
@@ -4319,7 +4319,7 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="15"/>
       <c r="C131" s="26"/>
@@ -4346,7 +4346,7 @@
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="15"/>
       <c r="C132" s="26"/>
@@ -4373,7 +4373,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="15"/>
       <c r="C133" s="26"/>
@@ -4400,7 +4400,7 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="15"/>
       <c r="C134" s="26"/>
@@ -4427,7 +4427,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="15"/>
       <c r="C135" s="26"/>
@@ -4454,7 +4454,7 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
     </row>
-    <row r="136" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="15"/>
       <c r="C136" s="26"/>
@@ -4481,7 +4481,7 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
     </row>
-    <row r="137" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="B137" s="15"/>
       <c r="C137" s="26"/>
@@ -4508,7 +4508,7 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
-    <row r="138" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="B138" s="15"/>
       <c r="C138" s="26"/>
@@ -4535,7 +4535,7 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
     </row>
-    <row r="139" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="15"/>
       <c r="C139" s="26"/>
@@ -4562,7 +4562,7 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
     </row>
-    <row r="140" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="15"/>
       <c r="C140" s="26"/>
@@ -4589,7 +4589,7 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
     </row>
-    <row r="141" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="15"/>
       <c r="C141" s="26"/>
@@ -4616,7 +4616,7 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="15"/>
       <c r="C142" s="26"/>
@@ -4643,7 +4643,7 @@
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
     </row>
-    <row r="143" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="15"/>
       <c r="C143" s="26"/>
@@ -4670,7 +4670,7 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
     </row>
-    <row r="144" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="15"/>
       <c r="C144" s="26"/>
@@ -4697,7 +4697,7 @@
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
     </row>
-    <row r="145" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="15"/>
       <c r="C145" s="26"/>
@@ -4724,7 +4724,7 @@
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
     </row>
-    <row r="146" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="15"/>
       <c r="C146" s="26"/>
@@ -4751,7 +4751,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
     </row>
-    <row r="147" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="15"/>
       <c r="C147" s="26"/>
@@ -4778,7 +4778,7 @@
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
     </row>
-    <row r="148" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="15"/>
       <c r="C148" s="26"/>
@@ -4805,7 +4805,7 @@
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
     </row>
-    <row r="149" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="15"/>
       <c r="C149" s="26"/>
@@ -4832,7 +4832,7 @@
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
     </row>
-    <row r="150" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="15"/>
       <c r="C150" s="26"/>
@@ -4859,7 +4859,7 @@
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
     </row>
-    <row r="151" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="15"/>
       <c r="C151" s="26"/>
@@ -4886,7 +4886,7 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
     </row>
-    <row r="152" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="15"/>
       <c r="C152" s="26"/>
@@ -4913,7 +4913,7 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="15"/>
       <c r="C153" s="26"/>
@@ -4940,7 +4940,7 @@
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
     </row>
-    <row r="154" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="15"/>
       <c r="C154" s="26"/>
@@ -4967,7 +4967,7 @@
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
     </row>
-    <row r="155" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="15"/>
       <c r="C155" s="26"/>
@@ -4994,7 +4994,7 @@
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
     </row>
-    <row r="156" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="15"/>
       <c r="C156" s="26"/>
@@ -5021,7 +5021,7 @@
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
     </row>
-    <row r="157" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="15"/>
       <c r="C157" s="26"/>
@@ -5048,7 +5048,7 @@
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
     </row>
-    <row r="158" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="15"/>
       <c r="C158" s="26"/>
@@ -5075,7 +5075,7 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
     </row>
-    <row r="159" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="15"/>
       <c r="C159" s="26"/>
@@ -5102,7 +5102,7 @@
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
     </row>
-    <row r="160" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="15"/>
       <c r="C160" s="26"/>
@@ -5129,7 +5129,7 @@
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
     </row>
-    <row r="161" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="15"/>
       <c r="C161" s="26"/>
@@ -5156,7 +5156,7 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
     </row>
-    <row r="162" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="15"/>
       <c r="C162" s="26"/>
@@ -5183,7 +5183,7 @@
       <c r="X162" s="5"/>
       <c r="Y162" s="5"/>
     </row>
-    <row r="163" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="15"/>
       <c r="C163" s="26"/>
@@ -5210,7 +5210,7 @@
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
     </row>
-    <row r="164" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="15"/>
       <c r="C164" s="26"/>
@@ -5237,7 +5237,7 @@
       <c r="X164" s="5"/>
       <c r="Y164" s="5"/>
     </row>
-    <row r="165" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="15"/>
       <c r="C165" s="26"/>
@@ -5264,7 +5264,7 @@
       <c r="X165" s="5"/>
       <c r="Y165" s="5"/>
     </row>
-    <row r="166" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="15"/>
       <c r="C166" s="26"/>
@@ -5291,7 +5291,7 @@
       <c r="X166" s="5"/>
       <c r="Y166" s="5"/>
     </row>
-    <row r="167" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="15"/>
       <c r="C167" s="26"/>
@@ -5318,7 +5318,7 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
     </row>
-    <row r="168" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="15"/>
       <c r="C168" s="26"/>
@@ -5345,7 +5345,7 @@
       <c r="X168" s="5"/>
       <c r="Y168" s="5"/>
     </row>
-    <row r="169" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="15"/>
       <c r="C169" s="26"/>
@@ -5372,7 +5372,7 @@
       <c r="X169" s="5"/>
       <c r="Y169" s="5"/>
     </row>
-    <row r="170" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="15"/>
       <c r="C170" s="26"/>
@@ -5399,7 +5399,7 @@
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
     </row>
-    <row r="171" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="15"/>
       <c r="C171" s="26"/>
@@ -5426,7 +5426,7 @@
       <c r="X171" s="5"/>
       <c r="Y171" s="5"/>
     </row>
-    <row r="172" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="15"/>
       <c r="C172" s="26"/>
@@ -5453,7 +5453,7 @@
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
     </row>
-    <row r="173" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="15"/>
       <c r="C173" s="26"/>
@@ -5480,7 +5480,7 @@
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
     </row>
-    <row r="174" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="15"/>
       <c r="C174" s="26"/>
@@ -5507,7 +5507,7 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="5"/>
     </row>
-    <row r="175" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="15"/>
       <c r="C175" s="26"/>
@@ -5534,7 +5534,7 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="5"/>
     </row>
-    <row r="176" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="15"/>
       <c r="C176" s="26"/>
@@ -5561,7 +5561,7 @@
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
     </row>
-    <row r="177" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="15"/>
       <c r="C177" s="26"/>
@@ -5588,7 +5588,7 @@
       <c r="X177" s="5"/>
       <c r="Y177" s="5"/>
     </row>
-    <row r="178" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="15"/>
       <c r="C178" s="26"/>
@@ -5615,7 +5615,7 @@
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
     </row>
-    <row r="179" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="15"/>
       <c r="C179" s="26"/>
@@ -5642,7 +5642,7 @@
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
     </row>
-    <row r="180" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="15"/>
       <c r="C180" s="26"/>
@@ -5669,7 +5669,7 @@
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
     </row>
-    <row r="181" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="15"/>
       <c r="C181" s="26"/>
@@ -5696,7 +5696,7 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
     </row>
-    <row r="182" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="15"/>
       <c r="C182" s="26"/>
@@ -5723,7 +5723,7 @@
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
     </row>
-    <row r="183" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="15"/>
       <c r="C183" s="26"/>
@@ -5750,7 +5750,7 @@
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
     </row>
-    <row r="184" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="15"/>
       <c r="C184" s="26"/>
@@ -5777,7 +5777,7 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
     </row>
-    <row r="185" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="15"/>
       <c r="C185" s="26"/>
@@ -5804,7 +5804,7 @@
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
     </row>
-    <row r="186" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="15"/>
       <c r="C186" s="26"/>
@@ -5831,7 +5831,7 @@
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
     </row>
-    <row r="187" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="15"/>
       <c r="C187" s="26"/>
@@ -5858,7 +5858,7 @@
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
     </row>
-    <row r="188" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="15"/>
       <c r="C188" s="26"/>
@@ -5885,7 +5885,7 @@
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
     </row>
-    <row r="189" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="15"/>
       <c r="C189" s="26"/>
@@ -5912,7 +5912,7 @@
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
     </row>
-    <row r="190" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="15"/>
       <c r="C190" s="26"/>
@@ -5939,7 +5939,7 @@
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
     </row>
-    <row r="191" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="15"/>
       <c r="C191" s="26"/>
@@ -5966,7 +5966,7 @@
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
     </row>
-    <row r="192" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="15"/>
       <c r="C192" s="26"/>
@@ -5993,7 +5993,7 @@
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
     </row>
-    <row r="193" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="15"/>
       <c r="C193" s="26"/>
@@ -6020,7 +6020,7 @@
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
     </row>
-    <row r="194" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="15"/>
       <c r="C194" s="26"/>
@@ -6047,7 +6047,7 @@
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
     </row>
-    <row r="195" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="15"/>
       <c r="C195" s="26"/>
@@ -6074,7 +6074,7 @@
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
     </row>
-    <row r="196" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="15"/>
       <c r="C196" s="26"/>
@@ -6101,7 +6101,7 @@
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
     </row>
-    <row r="197" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="15"/>
       <c r="C197" s="26"/>
@@ -6128,7 +6128,7 @@
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
     </row>
-    <row r="198" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="15"/>
       <c r="C198" s="26"/>
@@ -6155,7 +6155,7 @@
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
     </row>
-    <row r="199" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="15"/>
       <c r="C199" s="26"/>
@@ -6182,7 +6182,7 @@
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
     </row>
-    <row r="200" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="15"/>
       <c r="C200" s="26"/>
@@ -6209,7 +6209,7 @@
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
     </row>
-    <row r="201" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="15"/>
       <c r="C201" s="26"/>
@@ -6236,7 +6236,7 @@
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
     </row>
-    <row r="202" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="15"/>
       <c r="C202" s="26"/>
@@ -6263,7 +6263,7 @@
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
     </row>
-    <row r="203" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="15"/>
       <c r="C203" s="26"/>
@@ -6290,7 +6290,7 @@
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
     </row>
-    <row r="204" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="15"/>
       <c r="C204" s="26"/>
@@ -6317,7 +6317,7 @@
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
     </row>
-    <row r="205" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="15"/>
       <c r="C205" s="26"/>
@@ -6344,7 +6344,7 @@
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
     </row>
-    <row r="206" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="15"/>
       <c r="C206" s="26"/>
@@ -6371,7 +6371,7 @@
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
     </row>
-    <row r="207" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="25"/>
       <c r="B207" s="15"/>
       <c r="C207" s="26"/>
@@ -6398,7 +6398,7 @@
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
     </row>
-    <row r="208" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="25"/>
       <c r="B208" s="15"/>
       <c r="C208" s="26"/>
@@ -6425,7 +6425,7 @@
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
     </row>
-    <row r="209" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="15"/>
       <c r="C209" s="26"/>
@@ -6452,7 +6452,7 @@
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
     </row>
-    <row r="210" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="15"/>
       <c r="C210" s="26"/>
@@ -6479,7 +6479,7 @@
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
     </row>
-    <row r="211" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="15"/>
       <c r="C211" s="26"/>
@@ -6506,7 +6506,7 @@
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
     </row>
-    <row r="212" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="15"/>
       <c r="C212" s="26"/>
@@ -6533,7 +6533,7 @@
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
     </row>
-    <row r="213" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="15"/>
       <c r="C213" s="26"/>
@@ -6560,7 +6560,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="25"/>
       <c r="B214" s="15"/>
       <c r="C214" s="26"/>
@@ -6587,7 +6587,7 @@
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
     </row>
-    <row r="215" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="25"/>
       <c r="B215" s="15"/>
       <c r="C215" s="26"/>
@@ -6614,7 +6614,7 @@
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
     </row>
-    <row r="216" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="15"/>
       <c r="C216" s="26"/>
@@ -6641,7 +6641,7 @@
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
     </row>
-    <row r="217" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="15"/>
       <c r="C217" s="26"/>
@@ -6668,7 +6668,7 @@
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
     </row>
-    <row r="218" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="15"/>
       <c r="C218" s="26"/>
@@ -6695,7 +6695,7 @@
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
     </row>
-    <row r="219" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="15"/>
       <c r="C219" s="26"/>
@@ -6722,7 +6722,7 @@
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
     </row>
-    <row r="220" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="15"/>
       <c r="C220" s="26"/>
@@ -6749,7 +6749,7 @@
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
     </row>
-    <row r="221" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="B221" s="15"/>
       <c r="C221" s="26"/>
@@ -6776,7 +6776,7 @@
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
     </row>
-    <row r="222" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="25"/>
       <c r="B222" s="15"/>
       <c r="C222" s="26"/>
@@ -6803,7 +6803,7 @@
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
     </row>
-    <row r="223" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="15"/>
       <c r="C223" s="26"/>
@@ -6830,7 +6830,7 @@
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
     </row>
-    <row r="224" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="15"/>
       <c r="C224" s="26"/>
@@ -6857,7 +6857,7 @@
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
     </row>
-    <row r="225" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="15"/>
       <c r="C225" s="26"/>
@@ -6884,7 +6884,7 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
     </row>
-    <row r="226" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="15"/>
       <c r="C226" s="26"/>
@@ -6911,7 +6911,7 @@
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
     </row>
-    <row r="227" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="15"/>
       <c r="C227" s="26"/>
@@ -6938,7 +6938,7 @@
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
     </row>
-    <row r="228" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="25"/>
       <c r="B228" s="15"/>
       <c r="C228" s="26"/>
@@ -6965,7 +6965,7 @@
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
     </row>
-    <row r="229" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="25"/>
       <c r="B229" s="15"/>
       <c r="C229" s="26"/>
@@ -6992,7 +6992,7 @@
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
     </row>
-    <row r="230" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="15"/>
       <c r="C230" s="26"/>
@@ -7019,7 +7019,7 @@
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
     </row>
-    <row r="231" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="15"/>
       <c r="C231" s="26"/>
@@ -7046,7 +7046,7 @@
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
     </row>
-    <row r="232" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="15"/>
       <c r="C232" s="26"/>
@@ -7073,7 +7073,7 @@
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
     </row>
-    <row r="233" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="25"/>
       <c r="B233" s="15"/>
       <c r="C233" s="26"/>
@@ -7100,7 +7100,7 @@
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
     </row>
-    <row r="234" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="15"/>
       <c r="C234" s="26"/>
@@ -7127,7 +7127,7 @@
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
     </row>
-    <row r="235" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="25"/>
       <c r="B235" s="15"/>
       <c r="C235" s="26"/>
@@ -7154,7 +7154,7 @@
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
     </row>
-    <row r="236" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="25"/>
       <c r="B236" s="15"/>
       <c r="C236" s="26"/>
@@ -7181,7 +7181,7 @@
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
     </row>
-    <row r="237" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="15"/>
       <c r="C237" s="26"/>
@@ -7208,7 +7208,7 @@
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
     </row>
-    <row r="238" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="15"/>
       <c r="C238" s="26"/>
@@ -7235,7 +7235,7 @@
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
     </row>
-    <row r="239" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="15"/>
       <c r="C239" s="26"/>
@@ -7262,7 +7262,7 @@
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
     </row>
-    <row r="240" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="25"/>
       <c r="B240" s="15"/>
       <c r="C240" s="26"/>
@@ -7289,7 +7289,7 @@
       <c r="X240" s="5"/>
       <c r="Y240" s="5"/>
     </row>
-    <row r="241" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="15"/>
       <c r="C241" s="26"/>
@@ -7316,7 +7316,7 @@
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
     </row>
-    <row r="242" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="25"/>
       <c r="B242" s="15"/>
       <c r="C242" s="26"/>
@@ -7343,7 +7343,7 @@
       <c r="X242" s="5"/>
       <c r="Y242" s="5"/>
     </row>
-    <row r="243" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="25"/>
       <c r="B243" s="15"/>
       <c r="C243" s="26"/>
@@ -7370,7 +7370,7 @@
       <c r="X243" s="5"/>
       <c r="Y243" s="5"/>
     </row>
-    <row r="244" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="15"/>
       <c r="C244" s="26"/>
@@ -7397,7 +7397,7 @@
       <c r="X244" s="5"/>
       <c r="Y244" s="5"/>
     </row>
-    <row r="245" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="15"/>
       <c r="C245" s="26"/>
@@ -7424,7 +7424,7 @@
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
     </row>
-    <row r="246" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="15"/>
       <c r="C246" s="26"/>
@@ -7451,7 +7451,7 @@
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
     </row>
-    <row r="247" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="25"/>
       <c r="B247" s="15"/>
       <c r="C247" s="26"/>
@@ -7478,7 +7478,7 @@
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
     </row>
-    <row r="248" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="25"/>
       <c r="B248" s="15"/>
       <c r="C248" s="26"/>
@@ -7505,7 +7505,7 @@
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
     </row>
-    <row r="249" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="25"/>
       <c r="B249" s="15"/>
       <c r="C249" s="26"/>
@@ -7532,7 +7532,7 @@
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
     </row>
-    <row r="250" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="25"/>
       <c r="B250" s="15"/>
       <c r="C250" s="26"/>
@@ -7559,7 +7559,7 @@
       <c r="X250" s="5"/>
       <c r="Y250" s="5"/>
     </row>
-    <row r="251" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="15"/>
       <c r="C251" s="26"/>
@@ -7586,7 +7586,7 @@
       <c r="X251" s="5"/>
       <c r="Y251" s="5"/>
     </row>
-    <row r="252" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="15"/>
       <c r="C252" s="26"/>
@@ -7613,7 +7613,7 @@
       <c r="X252" s="5"/>
       <c r="Y252" s="5"/>
     </row>
-    <row r="253" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="15"/>
       <c r="C253" s="26"/>
@@ -7640,7 +7640,7 @@
       <c r="X253" s="5"/>
       <c r="Y253" s="5"/>
     </row>
-    <row r="254" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="15"/>
       <c r="C254" s="26"/>
@@ -7667,7 +7667,7 @@
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
     </row>
-    <row r="255" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="28"/>
       <c r="B255" s="29"/>
       <c r="C255" s="30"/>
@@ -7680,7 +7680,7 @@
       <c r="J255" s="29"/>
       <c r="K255" s="32"/>
     </row>
-    <row r="256" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="28"/>
       <c r="B256" s="29"/>
       <c r="C256" s="30"/>
@@ -7693,7 +7693,7 @@
       <c r="J256" s="29"/>
       <c r="K256" s="32"/>
     </row>
-    <row r="257" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="28"/>
       <c r="B257" s="29"/>
       <c r="C257" s="30"/>
@@ -7706,7 +7706,7 @@
       <c r="J257" s="29"/>
       <c r="K257" s="32"/>
     </row>
-    <row r="258" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="33"/>
       <c r="B258" s="34"/>
       <c r="C258" s="35"/>
@@ -7719,7 +7719,7 @@
       <c r="J258" s="34"/>
       <c r="K258" s="38"/>
     </row>
-    <row r="259" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="33"/>
       <c r="B259" s="34"/>
       <c r="C259" s="35"/>
@@ -7732,7 +7732,7 @@
       <c r="J259" s="34"/>
       <c r="K259" s="38"/>
     </row>
-    <row r="260" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="33"/>
       <c r="B260" s="34"/>
       <c r="C260" s="35"/>
@@ -7745,7 +7745,7 @@
       <c r="J260" s="34"/>
       <c r="K260" s="38"/>
     </row>
-    <row r="261" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="33"/>
       <c r="B261" s="34"/>
       <c r="C261" s="35"/>
@@ -7758,7 +7758,7 @@
       <c r="J261" s="34"/>
       <c r="K261" s="38"/>
     </row>
-    <row r="262" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="33"/>
       <c r="B262" s="34"/>
       <c r="C262" s="35"/>
@@ -7771,7 +7771,7 @@
       <c r="J262" s="34"/>
       <c r="K262" s="38"/>
     </row>
-    <row r="263" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="33"/>
       <c r="B263" s="34"/>
       <c r="C263" s="35"/>
@@ -7784,7 +7784,7 @@
       <c r="J263" s="34"/>
       <c r="K263" s="38"/>
     </row>
-    <row r="264" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="33"/>
       <c r="B264" s="34"/>
       <c r="C264" s="35"/>
@@ -7797,7 +7797,7 @@
       <c r="J264" s="34"/>
       <c r="K264" s="38"/>
     </row>
-    <row r="265" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="33"/>
       <c r="B265" s="34"/>
       <c r="C265" s="35"/>
@@ -7810,7 +7810,7 @@
       <c r="J265" s="34"/>
       <c r="K265" s="38"/>
     </row>
-    <row r="266" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="33"/>
       <c r="B266" s="34"/>
       <c r="C266" s="35"/>
@@ -7823,7 +7823,7 @@
       <c r="J266" s="34"/>
       <c r="K266" s="38"/>
     </row>
-    <row r="267" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="33"/>
       <c r="B267" s="34"/>
       <c r="C267" s="35"/>
@@ -7836,7 +7836,7 @@
       <c r="J267" s="34"/>
       <c r="K267" s="38"/>
     </row>
-    <row r="268" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="33"/>
       <c r="B268" s="34"/>
       <c r="C268" s="35"/>
@@ -7849,7 +7849,7 @@
       <c r="J268" s="34"/>
       <c r="K268" s="38"/>
     </row>
-    <row r="269" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="33"/>
       <c r="B269" s="34"/>
       <c r="C269" s="35"/>
@@ -7862,7 +7862,7 @@
       <c r="J269" s="34"/>
       <c r="K269" s="38"/>
     </row>
-    <row r="270" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="33"/>
       <c r="B270" s="34"/>
       <c r="C270" s="35"/>
@@ -7875,7 +7875,7 @@
       <c r="J270" s="34"/>
       <c r="K270" s="38"/>
     </row>
-    <row r="271" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="33"/>
       <c r="B271" s="34"/>
       <c r="C271" s="35"/>
@@ -7888,7 +7888,7 @@
       <c r="J271" s="34"/>
       <c r="K271" s="38"/>
     </row>
-    <row r="272" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="33"/>
       <c r="B272" s="34"/>
       <c r="C272" s="35"/>
@@ -7901,7 +7901,7 @@
       <c r="J272" s="34"/>
       <c r="K272" s="38"/>
     </row>
-    <row r="273" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="33"/>
       <c r="B273" s="34"/>
       <c r="C273" s="35"/>
@@ -7914,7 +7914,7 @@
       <c r="J273" s="34"/>
       <c r="K273" s="38"/>
     </row>
-    <row r="274" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="33"/>
       <c r="B274" s="34"/>
       <c r="C274" s="35"/>
@@ -7927,7 +7927,7 @@
       <c r="J274" s="34"/>
       <c r="K274" s="38"/>
     </row>
-    <row r="275" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="33"/>
       <c r="B275" s="34"/>
       <c r="C275" s="35"/>
@@ -7940,7 +7940,7 @@
       <c r="J275" s="34"/>
       <c r="K275" s="38"/>
     </row>
-    <row r="276" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="33"/>
       <c r="B276" s="34"/>
       <c r="C276" s="35"/>
@@ -7953,7 +7953,7 @@
       <c r="J276" s="34"/>
       <c r="K276" s="38"/>
     </row>
-    <row r="277" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="33"/>
       <c r="B277" s="34"/>
       <c r="C277" s="35"/>
@@ -7966,7 +7966,7 @@
       <c r="J277" s="34"/>
       <c r="K277" s="38"/>
     </row>
-    <row r="278" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="33"/>
       <c r="B278" s="34"/>
       <c r="C278" s="35"/>
@@ -7979,7 +7979,7 @@
       <c r="J278" s="34"/>
       <c r="K278" s="38"/>
     </row>
-    <row r="279" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="33"/>
       <c r="B279" s="34"/>
       <c r="C279" s="35"/>
@@ -7992,7 +7992,7 @@
       <c r="J279" s="34"/>
       <c r="K279" s="38"/>
     </row>
-    <row r="280" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="33"/>
       <c r="B280" s="34"/>
       <c r="C280" s="35"/>
@@ -8005,7 +8005,7 @@
       <c r="J280" s="34"/>
       <c r="K280" s="38"/>
     </row>
-    <row r="281" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="33"/>
       <c r="B281" s="34"/>
       <c r="C281" s="35"/>
@@ -8018,7 +8018,7 @@
       <c r="J281" s="34"/>
       <c r="K281" s="38"/>
     </row>
-    <row r="282" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="33"/>
       <c r="B282" s="34"/>
       <c r="C282" s="35"/>
@@ -8031,7 +8031,7 @@
       <c r="J282" s="34"/>
       <c r="K282" s="38"/>
     </row>
-    <row r="283" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="33"/>
       <c r="B283" s="34"/>
       <c r="C283" s="35"/>
@@ -8044,7 +8044,7 @@
       <c r="J283" s="34"/>
       <c r="K283" s="38"/>
     </row>
-    <row r="284" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="33"/>
       <c r="B284" s="34"/>
       <c r="C284" s="35"/>
@@ -8057,7 +8057,7 @@
       <c r="J284" s="34"/>
       <c r="K284" s="38"/>
     </row>
-    <row r="285" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="33"/>
       <c r="B285" s="34"/>
       <c r="C285" s="35"/>
@@ -8070,7 +8070,7 @@
       <c r="J285" s="34"/>
       <c r="K285" s="38"/>
     </row>
-    <row r="286" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="33"/>
       <c r="B286" s="34"/>
       <c r="C286" s="35"/>
@@ -8083,7 +8083,7 @@
       <c r="J286" s="34"/>
       <c r="K286" s="38"/>
     </row>
-    <row r="287" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="33"/>
       <c r="B287" s="34"/>
       <c r="C287" s="35"/>
@@ -8096,7 +8096,7 @@
       <c r="J287" s="34"/>
       <c r="K287" s="38"/>
     </row>
-    <row r="288" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="33"/>
       <c r="B288" s="34"/>
       <c r="C288" s="35"/>
@@ -8109,7 +8109,7 @@
       <c r="J288" s="34"/>
       <c r="K288" s="38"/>
     </row>
-    <row r="289" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="33"/>
       <c r="B289" s="34"/>
       <c r="C289" s="35"/>
@@ -8122,7 +8122,7 @@
       <c r="J289" s="34"/>
       <c r="K289" s="38"/>
     </row>
-    <row r="290" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="33"/>
       <c r="B290" s="34"/>
       <c r="C290" s="35"/>
@@ -8135,7 +8135,7 @@
       <c r="J290" s="34"/>
       <c r="K290" s="38"/>
     </row>
-    <row r="291" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="33"/>
       <c r="B291" s="34"/>
       <c r="C291" s="35"/>
@@ -8148,7 +8148,7 @@
       <c r="J291" s="34"/>
       <c r="K291" s="38"/>
     </row>
-    <row r="292" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="33"/>
       <c r="B292" s="34"/>
       <c r="C292" s="35"/>
@@ -8161,7 +8161,7 @@
       <c r="J292" s="34"/>
       <c r="K292" s="38"/>
     </row>
-    <row r="293" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="33"/>
       <c r="B293" s="34"/>
       <c r="C293" s="35"/>
@@ -8174,7 +8174,7 @@
       <c r="J293" s="34"/>
       <c r="K293" s="38"/>
     </row>
-    <row r="294" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="33"/>
       <c r="B294" s="34"/>
       <c r="C294" s="35"/>
@@ -8187,7 +8187,7 @@
       <c r="J294" s="34"/>
       <c r="K294" s="38"/>
     </row>
-    <row r="295" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="33"/>
       <c r="B295" s="34"/>
       <c r="C295" s="35"/>
@@ -8200,7 +8200,7 @@
       <c r="J295" s="34"/>
       <c r="K295" s="38"/>
     </row>
-    <row r="296" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="33"/>
       <c r="B296" s="34"/>
       <c r="C296" s="35"/>
@@ -8213,7 +8213,7 @@
       <c r="J296" s="34"/>
       <c r="K296" s="38"/>
     </row>
-    <row r="297" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="33"/>
       <c r="B297" s="34"/>
       <c r="C297" s="35"/>
@@ -8226,7 +8226,7 @@
       <c r="J297" s="34"/>
       <c r="K297" s="38"/>
     </row>
-    <row r="298" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="33"/>
       <c r="B298" s="34"/>
       <c r="C298" s="35"/>
@@ -8239,7 +8239,7 @@
       <c r="J298" s="34"/>
       <c r="K298" s="38"/>
     </row>
-    <row r="299" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="33"/>
       <c r="B299" s="34"/>
       <c r="C299" s="35"/>
@@ -8252,7 +8252,7 @@
       <c r="J299" s="34"/>
       <c r="K299" s="38"/>
     </row>
-    <row r="300" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="33"/>
       <c r="B300" s="34"/>
       <c r="C300" s="35"/>
@@ -8265,7 +8265,7 @@
       <c r="J300" s="34"/>
       <c r="K300" s="38"/>
     </row>
-    <row r="301" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="33"/>
       <c r="B301" s="34"/>
       <c r="C301" s="35"/>
@@ -8278,7 +8278,7 @@
       <c r="J301" s="34"/>
       <c r="K301" s="38"/>
     </row>
-    <row r="302" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="33"/>
       <c r="B302" s="34"/>
       <c r="C302" s="35"/>
@@ -8291,7 +8291,7 @@
       <c r="J302" s="34"/>
       <c r="K302" s="38"/>
     </row>
-    <row r="303" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="33"/>
       <c r="B303" s="34"/>
       <c r="C303" s="35"/>
@@ -8304,7 +8304,7 @@
       <c r="J303" s="34"/>
       <c r="K303" s="38"/>
     </row>
-    <row r="304" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="33"/>
       <c r="B304" s="34"/>
       <c r="C304" s="35"/>
@@ -8317,7 +8317,7 @@
       <c r="J304" s="34"/>
       <c r="K304" s="38"/>
     </row>
-    <row r="305" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="33"/>
       <c r="B305" s="34"/>
       <c r="C305" s="35"/>
@@ -8330,7 +8330,7 @@
       <c r="J305" s="34"/>
       <c r="K305" s="38"/>
     </row>
-    <row r="306" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="33"/>
       <c r="B306" s="34"/>
       <c r="C306" s="35"/>
@@ -8343,7 +8343,7 @@
       <c r="J306" s="34"/>
       <c r="K306" s="38"/>
     </row>
-    <row r="307" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="33"/>
       <c r="B307" s="34"/>
       <c r="C307" s="35"/>
@@ -8356,7 +8356,7 @@
       <c r="J307" s="34"/>
       <c r="K307" s="38"/>
     </row>
-    <row r="308" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="33"/>
       <c r="B308" s="34"/>
       <c r="C308" s="35"/>
@@ -8369,7 +8369,7 @@
       <c r="J308" s="34"/>
       <c r="K308" s="38"/>
     </row>
-    <row r="309" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="33"/>
       <c r="B309" s="34"/>
       <c r="C309" s="35"/>
@@ -8382,7 +8382,7 @@
       <c r="J309" s="34"/>
       <c r="K309" s="38"/>
     </row>
-    <row r="310" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="33"/>
       <c r="B310" s="34"/>
       <c r="C310" s="35"/>
@@ -8395,7 +8395,7 @@
       <c r="J310" s="34"/>
       <c r="K310" s="38"/>
     </row>
-    <row r="311" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="33"/>
       <c r="B311" s="34"/>
       <c r="C311" s="35"/>
@@ -8408,7 +8408,7 @@
       <c r="J311" s="34"/>
       <c r="K311" s="38"/>
     </row>
-    <row r="312" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="33"/>
       <c r="B312" s="34"/>
       <c r="C312" s="35"/>
@@ -8421,7 +8421,7 @@
       <c r="J312" s="34"/>
       <c r="K312" s="38"/>
     </row>
-    <row r="313" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="33"/>
       <c r="B313" s="34"/>
       <c r="C313" s="35"/>
@@ -8434,7 +8434,7 @@
       <c r="J313" s="34"/>
       <c r="K313" s="38"/>
     </row>
-    <row r="314" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="33"/>
       <c r="B314" s="34"/>
       <c r="C314" s="35"/>
@@ -8447,7 +8447,7 @@
       <c r="J314" s="34"/>
       <c r="K314" s="38"/>
     </row>
-    <row r="315" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="33"/>
       <c r="B315" s="34"/>
       <c r="C315" s="35"/>
@@ -8460,7 +8460,7 @@
       <c r="J315" s="34"/>
       <c r="K315" s="38"/>
     </row>
-    <row r="316" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="33"/>
       <c r="B316" s="34"/>
       <c r="C316" s="35"/>
@@ -8473,7 +8473,7 @@
       <c r="J316" s="34"/>
       <c r="K316" s="38"/>
     </row>
-    <row r="317" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="33"/>
       <c r="B317" s="34"/>
       <c r="C317" s="35"/>
@@ -8486,7 +8486,7 @@
       <c r="J317" s="34"/>
       <c r="K317" s="38"/>
     </row>
-    <row r="318" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="33"/>
       <c r="B318" s="34"/>
       <c r="C318" s="35"/>
@@ -8499,7 +8499,7 @@
       <c r="J318" s="34"/>
       <c r="K318" s="38"/>
     </row>
-    <row r="319" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="33"/>
       <c r="B319" s="34"/>
       <c r="C319" s="35"/>
@@ -8512,7 +8512,7 @@
       <c r="J319" s="34"/>
       <c r="K319" s="38"/>
     </row>
-    <row r="320" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="33"/>
       <c r="B320" s="34"/>
       <c r="C320" s="35"/>
@@ -8525,7 +8525,7 @@
       <c r="J320" s="34"/>
       <c r="K320" s="38"/>
     </row>
-    <row r="321" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="33"/>
       <c r="B321" s="34"/>
       <c r="C321" s="35"/>
@@ -8538,7 +8538,7 @@
       <c r="J321" s="34"/>
       <c r="K321" s="38"/>
     </row>
-    <row r="322" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="33"/>
       <c r="B322" s="34"/>
       <c r="C322" s="35"/>
@@ -8551,7 +8551,7 @@
       <c r="J322" s="34"/>
       <c r="K322" s="38"/>
     </row>
-    <row r="323" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="33"/>
       <c r="B323" s="34"/>
       <c r="C323" s="35"/>
@@ -8564,7 +8564,7 @@
       <c r="J323" s="34"/>
       <c r="K323" s="38"/>
     </row>
-    <row r="324" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="33"/>
       <c r="B324" s="34"/>
       <c r="C324" s="35"/>
@@ -8577,7 +8577,7 @@
       <c r="J324" s="34"/>
       <c r="K324" s="38"/>
     </row>
-    <row r="325" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="33"/>
       <c r="B325" s="34"/>
       <c r="C325" s="35"/>
@@ -8590,7 +8590,7 @@
       <c r="J325" s="34"/>
       <c r="K325" s="38"/>
     </row>
-    <row r="326" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="33"/>
       <c r="B326" s="34"/>
       <c r="C326" s="35"/>
@@ -8603,7 +8603,7 @@
       <c r="J326" s="34"/>
       <c r="K326" s="38"/>
     </row>
-    <row r="327" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="33"/>
       <c r="B327" s="34"/>
       <c r="C327" s="35"/>
@@ -8616,7 +8616,7 @@
       <c r="J327" s="34"/>
       <c r="K327" s="38"/>
     </row>
-    <row r="328" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="33"/>
       <c r="B328" s="34"/>
       <c r="C328" s="35"/>
@@ -8629,7 +8629,7 @@
       <c r="J328" s="34"/>
       <c r="K328" s="38"/>
     </row>
-    <row r="329" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="33"/>
       <c r="B329" s="34"/>
       <c r="C329" s="35"/>
@@ -8642,7 +8642,7 @@
       <c r="J329" s="34"/>
       <c r="K329" s="38"/>
     </row>
-    <row r="330" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="33"/>
       <c r="B330" s="34"/>
       <c r="C330" s="35"/>
@@ -8655,7 +8655,7 @@
       <c r="J330" s="34"/>
       <c r="K330" s="38"/>
     </row>
-    <row r="331" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="34"/>
       <c r="C331" s="34"/>
@@ -8668,7 +8668,7 @@
       <c r="J331" s="34"/>
       <c r="K331" s="40"/>
     </row>
-    <row r="332" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39"/>
       <c r="B332" s="34"/>
       <c r="C332" s="34"/>
@@ -8681,7 +8681,7 @@
       <c r="J332" s="34"/>
       <c r="K332" s="40"/>
     </row>
-    <row r="333" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39"/>
       <c r="B333" s="34"/>
       <c r="C333" s="34"/>
@@ -8694,7 +8694,7 @@
       <c r="J333" s="34"/>
       <c r="K333" s="40"/>
     </row>
-    <row r="334" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39"/>
       <c r="B334" s="34"/>
       <c r="C334" s="34"/>
@@ -8707,7 +8707,7 @@
       <c r="J334" s="34"/>
       <c r="K334" s="40"/>
     </row>
-    <row r="335" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39"/>
       <c r="B335" s="34"/>
       <c r="C335" s="34"/>
@@ -8720,7 +8720,7 @@
       <c r="J335" s="34"/>
       <c r="K335" s="40"/>
     </row>
-    <row r="336" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39"/>
       <c r="B336" s="34"/>
       <c r="C336" s="34"/>
@@ -8733,7 +8733,7 @@
       <c r="J336" s="34"/>
       <c r="K336" s="40"/>
     </row>
-    <row r="337" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39"/>
       <c r="B337" s="34"/>
       <c r="C337" s="34"/>
@@ -8746,7 +8746,7 @@
       <c r="J337" s="34"/>
       <c r="K337" s="40"/>
     </row>
-    <row r="338" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39"/>
       <c r="B338" s="34"/>
       <c r="C338" s="34"/>
@@ -8759,7 +8759,7 @@
       <c r="J338" s="34"/>
       <c r="K338" s="40"/>
     </row>
-    <row r="339" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39"/>
       <c r="B339" s="34"/>
       <c r="C339" s="34"/>
@@ -8772,7 +8772,7 @@
       <c r="J339" s="34"/>
       <c r="K339" s="40"/>
     </row>
-    <row r="340" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39"/>
       <c r="B340" s="34"/>
       <c r="C340" s="34"/>
@@ -8785,7 +8785,7 @@
       <c r="J340" s="34"/>
       <c r="K340" s="40"/>
     </row>
-    <row r="341" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39"/>
       <c r="B341" s="34"/>
       <c r="C341" s="34"/>
@@ -8798,7 +8798,7 @@
       <c r="J341" s="34"/>
       <c r="K341" s="40"/>
     </row>
-    <row r="342" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39"/>
       <c r="B342" s="34"/>
       <c r="C342" s="34"/>
@@ -8811,7 +8811,7 @@
       <c r="J342" s="34"/>
       <c r="K342" s="40"/>
     </row>
-    <row r="343" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39"/>
       <c r="B343" s="34"/>
       <c r="C343" s="34"/>
@@ -8824,7 +8824,7 @@
       <c r="J343" s="34"/>
       <c r="K343" s="40"/>
     </row>
-    <row r="344" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="34"/>
       <c r="C344" s="34"/>
@@ -8837,7 +8837,7 @@
       <c r="J344" s="34"/>
       <c r="K344" s="40"/>
     </row>
-    <row r="345" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39"/>
       <c r="B345" s="34"/>
       <c r="C345" s="34"/>
@@ -8850,7 +8850,7 @@
       <c r="J345" s="34"/>
       <c r="K345" s="40"/>
     </row>
-    <row r="346" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39"/>
       <c r="B346" s="34"/>
       <c r="C346" s="34"/>
@@ -8863,7 +8863,7 @@
       <c r="J346" s="34"/>
       <c r="K346" s="40"/>
     </row>
-    <row r="347" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="34"/>
       <c r="C347" s="34"/>
@@ -8876,7 +8876,7 @@
       <c r="J347" s="34"/>
       <c r="K347" s="40"/>
     </row>
-    <row r="348" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39"/>
       <c r="B348" s="34"/>
       <c r="C348" s="34"/>
@@ -8889,7 +8889,7 @@
       <c r="J348" s="34"/>
       <c r="K348" s="40"/>
     </row>
-    <row r="349" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39"/>
       <c r="B349" s="34"/>
       <c r="C349" s="34"/>
@@ -8902,7 +8902,7 @@
       <c r="J349" s="34"/>
       <c r="K349" s="40"/>
     </row>
-    <row r="350" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39"/>
       <c r="B350" s="34"/>
       <c r="C350" s="34"/>
@@ -8915,7 +8915,7 @@
       <c r="J350" s="34"/>
       <c r="K350" s="40"/>
     </row>
-    <row r="351" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39"/>
       <c r="B351" s="34"/>
       <c r="C351" s="34"/>
@@ -8928,7 +8928,7 @@
       <c r="J351" s="34"/>
       <c r="K351" s="40"/>
     </row>
-    <row r="352" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39"/>
       <c r="B352" s="34"/>
       <c r="C352" s="34"/>
@@ -8941,7 +8941,7 @@
       <c r="J352" s="34"/>
       <c r="K352" s="40"/>
     </row>
-    <row r="353" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39"/>
       <c r="B353" s="34"/>
       <c r="C353" s="34"/>
@@ -8954,7 +8954,7 @@
       <c r="J353" s="34"/>
       <c r="K353" s="40"/>
     </row>
-    <row r="354" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39"/>
       <c r="B354" s="34"/>
       <c r="C354" s="34"/>
@@ -8967,7 +8967,7 @@
       <c r="J354" s="34"/>
       <c r="K354" s="40"/>
     </row>
-    <row r="355" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39"/>
       <c r="B355" s="34"/>
       <c r="C355" s="34"/>
@@ -8980,7 +8980,7 @@
       <c r="J355" s="34"/>
       <c r="K355" s="40"/>
     </row>
-    <row r="356" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39"/>
       <c r="B356" s="34"/>
       <c r="C356" s="34"/>
@@ -8993,7 +8993,7 @@
       <c r="J356" s="34"/>
       <c r="K356" s="40"/>
     </row>
-    <row r="357" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39"/>
       <c r="B357" s="34"/>
       <c r="C357" s="34"/>
@@ -9006,7 +9006,7 @@
       <c r="J357" s="34"/>
       <c r="K357" s="40"/>
     </row>
-    <row r="358" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39"/>
       <c r="B358" s="34"/>
       <c r="C358" s="34"/>
@@ -9019,7 +9019,7 @@
       <c r="J358" s="34"/>
       <c r="K358" s="40"/>
     </row>
-    <row r="359" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39"/>
       <c r="B359" s="34"/>
       <c r="C359" s="34"/>
@@ -9032,7 +9032,7 @@
       <c r="J359" s="34"/>
       <c r="K359" s="40"/>
     </row>
-    <row r="360" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39"/>
       <c r="B360" s="34"/>
       <c r="C360" s="34"/>
@@ -9045,7 +9045,7 @@
       <c r="J360" s="34"/>
       <c r="K360" s="40"/>
     </row>
-    <row r="361" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39"/>
       <c r="B361" s="34"/>
       <c r="C361" s="34"/>
@@ -9058,7 +9058,7 @@
       <c r="J361" s="34"/>
       <c r="K361" s="40"/>
     </row>
-    <row r="362" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39"/>
       <c r="B362" s="34"/>
       <c r="C362" s="34"/>
@@ -9071,7 +9071,7 @@
       <c r="J362" s="34"/>
       <c r="K362" s="40"/>
     </row>
-    <row r="363" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39"/>
       <c r="B363" s="34"/>
       <c r="C363" s="34"/>
@@ -9084,7 +9084,7 @@
       <c r="J363" s="34"/>
       <c r="K363" s="40"/>
     </row>
-    <row r="364" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39"/>
       <c r="B364" s="34"/>
       <c r="C364" s="34"/>
@@ -9097,7 +9097,7 @@
       <c r="J364" s="34"/>
       <c r="K364" s="40"/>
     </row>
-    <row r="365" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39"/>
       <c r="B365" s="34"/>
       <c r="C365" s="34"/>
@@ -9110,7 +9110,7 @@
       <c r="J365" s="34"/>
       <c r="K365" s="40"/>
     </row>
-    <row r="366" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39"/>
       <c r="B366" s="34"/>
       <c r="C366" s="34"/>
@@ -9123,7 +9123,7 @@
       <c r="J366" s="34"/>
       <c r="K366" s="40"/>
     </row>
-    <row r="367" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39"/>
       <c r="B367" s="34"/>
       <c r="C367" s="34"/>
@@ -9136,7 +9136,7 @@
       <c r="J367" s="34"/>
       <c r="K367" s="40"/>
     </row>
-    <row r="368" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39"/>
       <c r="B368" s="34"/>
       <c r="C368" s="34"/>
@@ -9149,7 +9149,7 @@
       <c r="J368" s="34"/>
       <c r="K368" s="40"/>
     </row>
-    <row r="369" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39"/>
       <c r="B369" s="34"/>
       <c r="C369" s="34"/>
@@ -9162,7 +9162,7 @@
       <c r="J369" s="34"/>
       <c r="K369" s="40"/>
     </row>
-    <row r="370" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39"/>
       <c r="B370" s="34"/>
       <c r="C370" s="34"/>
@@ -9175,7 +9175,7 @@
       <c r="J370" s="34"/>
       <c r="K370" s="40"/>
     </row>
-    <row r="371" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39"/>
       <c r="B371" s="34"/>
       <c r="C371" s="34"/>
@@ -9188,7 +9188,7 @@
       <c r="J371" s="34"/>
       <c r="K371" s="40"/>
     </row>
-    <row r="372" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39"/>
       <c r="B372" s="34"/>
       <c r="C372" s="34"/>
@@ -9201,7 +9201,7 @@
       <c r="J372" s="34"/>
       <c r="K372" s="40"/>
     </row>
-    <row r="373" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39"/>
       <c r="B373" s="34"/>
       <c r="C373" s="34"/>
@@ -9214,7 +9214,7 @@
       <c r="J373" s="34"/>
       <c r="K373" s="40"/>
     </row>
-    <row r="374" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39"/>
       <c r="B374" s="34"/>
       <c r="C374" s="34"/>
@@ -9227,7 +9227,7 @@
       <c r="J374" s="34"/>
       <c r="K374" s="40"/>
     </row>
-    <row r="375" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39"/>
       <c r="B375" s="34"/>
       <c r="C375" s="34"/>
@@ -9240,7 +9240,7 @@
       <c r="J375" s="34"/>
       <c r="K375" s="40"/>
     </row>
-    <row r="376" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39"/>
       <c r="B376" s="34"/>
       <c r="C376" s="34"/>
@@ -9253,7 +9253,7 @@
       <c r="J376" s="34"/>
       <c r="K376" s="40"/>
     </row>
-    <row r="377" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39"/>
       <c r="B377" s="34"/>
       <c r="C377" s="34"/>
@@ -9266,7 +9266,7 @@
       <c r="J377" s="34"/>
       <c r="K377" s="40"/>
     </row>
-    <row r="378" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39"/>
       <c r="B378" s="34"/>
       <c r="C378" s="34"/>
@@ -9279,7 +9279,7 @@
       <c r="J378" s="34"/>
       <c r="K378" s="40"/>
     </row>
-    <row r="379" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39"/>
       <c r="B379" s="34"/>
       <c r="C379" s="34"/>
@@ -9292,7 +9292,7 @@
       <c r="J379" s="34"/>
       <c r="K379" s="40"/>
     </row>
-    <row r="380" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39"/>
       <c r="B380" s="34"/>
       <c r="C380" s="34"/>
@@ -9305,7 +9305,7 @@
       <c r="J380" s="34"/>
       <c r="K380" s="40"/>
     </row>
-    <row r="381" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39"/>
       <c r="B381" s="34"/>
       <c r="C381" s="34"/>
@@ -9318,7 +9318,7 @@
       <c r="J381" s="34"/>
       <c r="K381" s="40"/>
     </row>
-    <row r="382" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39"/>
       <c r="B382" s="34"/>
       <c r="C382" s="34"/>
@@ -9331,7 +9331,7 @@
       <c r="J382" s="34"/>
       <c r="K382" s="40"/>
     </row>
-    <row r="383" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39"/>
       <c r="B383" s="34"/>
       <c r="C383" s="34"/>
@@ -9344,7 +9344,7 @@
       <c r="J383" s="34"/>
       <c r="K383" s="40"/>
     </row>
-    <row r="384" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39"/>
       <c r="B384" s="34"/>
       <c r="C384" s="34"/>
@@ -9357,7 +9357,7 @@
       <c r="J384" s="34"/>
       <c r="K384" s="40"/>
     </row>
-    <row r="385" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39"/>
       <c r="B385" s="34"/>
       <c r="C385" s="34"/>
@@ -9370,7 +9370,7 @@
       <c r="J385" s="34"/>
       <c r="K385" s="40"/>
     </row>
-    <row r="386" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39"/>
       <c r="B386" s="34"/>
       <c r="C386" s="34"/>
@@ -9383,7 +9383,7 @@
       <c r="J386" s="34"/>
       <c r="K386" s="40"/>
     </row>
-    <row r="387" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="34"/>
       <c r="C387" s="34"/>
@@ -9396,7 +9396,7 @@
       <c r="J387" s="34"/>
       <c r="K387" s="40"/>
     </row>
-    <row r="388" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39"/>
       <c r="B388" s="34"/>
       <c r="C388" s="34"/>
@@ -9409,7 +9409,7 @@
       <c r="J388" s="34"/>
       <c r="K388" s="40"/>
     </row>
-    <row r="389" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39"/>
       <c r="B389" s="34"/>
       <c r="C389" s="34"/>
@@ -9422,7 +9422,7 @@
       <c r="J389" s="34"/>
       <c r="K389" s="40"/>
     </row>
-    <row r="390" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39"/>
       <c r="B390" s="34"/>
       <c r="C390" s="34"/>
@@ -9435,7 +9435,7 @@
       <c r="J390" s="34"/>
       <c r="K390" s="40"/>
     </row>
-    <row r="391" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39"/>
       <c r="B391" s="34"/>
       <c r="C391" s="34"/>
@@ -9448,7 +9448,7 @@
       <c r="J391" s="34"/>
       <c r="K391" s="40"/>
     </row>
-    <row r="392" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39"/>
       <c r="B392" s="34"/>
       <c r="C392" s="34"/>
@@ -9461,7 +9461,7 @@
       <c r="J392" s="34"/>
       <c r="K392" s="40"/>
     </row>
-    <row r="393" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39"/>
       <c r="B393" s="34"/>
       <c r="C393" s="34"/>
@@ -9474,7 +9474,7 @@
       <c r="J393" s="34"/>
       <c r="K393" s="40"/>
     </row>
-    <row r="394" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39"/>
       <c r="B394" s="34"/>
       <c r="C394" s="34"/>
@@ -9487,7 +9487,7 @@
       <c r="J394" s="34"/>
       <c r="K394" s="40"/>
     </row>
-    <row r="395" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39"/>
       <c r="B395" s="34"/>
       <c r="C395" s="34"/>
@@ -9500,7 +9500,7 @@
       <c r="J395" s="34"/>
       <c r="K395" s="40"/>
     </row>
-    <row r="396" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39"/>
       <c r="B396" s="34"/>
       <c r="C396" s="34"/>
@@ -9513,7 +9513,7 @@
       <c r="J396" s="34"/>
       <c r="K396" s="40"/>
     </row>
-    <row r="397" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39"/>
       <c r="B397" s="34"/>
       <c r="C397" s="34"/>
@@ -9526,7 +9526,7 @@
       <c r="J397" s="34"/>
       <c r="K397" s="40"/>
     </row>
-    <row r="398" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39"/>
       <c r="B398" s="34"/>
       <c r="C398" s="34"/>
@@ -9539,7 +9539,7 @@
       <c r="J398" s="34"/>
       <c r="K398" s="40"/>
     </row>
-    <row r="399" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="34"/>
       <c r="C399" s="34"/>
@@ -9552,7 +9552,7 @@
       <c r="J399" s="34"/>
       <c r="K399" s="40"/>
     </row>
-    <row r="400" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39"/>
       <c r="B400" s="34"/>
       <c r="C400" s="34"/>
@@ -9565,7 +9565,7 @@
       <c r="J400" s="34"/>
       <c r="K400" s="40"/>
     </row>
-    <row r="401" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39"/>
       <c r="B401" s="34"/>
       <c r="C401" s="34"/>
@@ -9578,7 +9578,7 @@
       <c r="J401" s="34"/>
       <c r="K401" s="40"/>
     </row>
-    <row r="402" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39"/>
       <c r="B402" s="34"/>
       <c r="C402" s="34"/>
@@ -9591,7 +9591,7 @@
       <c r="J402" s="34"/>
       <c r="K402" s="40"/>
     </row>
-    <row r="403" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39"/>
       <c r="B403" s="34"/>
       <c r="C403" s="34"/>
@@ -9604,7 +9604,7 @@
       <c r="J403" s="34"/>
       <c r="K403" s="40"/>
     </row>
-    <row r="404" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39"/>
       <c r="B404" s="34"/>
       <c r="C404" s="34"/>
@@ -9617,7 +9617,7 @@
       <c r="J404" s="34"/>
       <c r="K404" s="40"/>
     </row>
-    <row r="405" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="34"/>
       <c r="C405" s="34"/>
@@ -9630,7 +9630,7 @@
       <c r="J405" s="34"/>
       <c r="K405" s="40"/>
     </row>
-    <row r="406" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="39"/>
       <c r="B406" s="34"/>
       <c r="C406" s="34"/>
@@ -9643,7 +9643,7 @@
       <c r="J406" s="34"/>
       <c r="K406" s="40"/>
     </row>
-    <row r="407" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39"/>
       <c r="B407" s="34"/>
       <c r="C407" s="34"/>
@@ -9656,7 +9656,7 @@
       <c r="J407" s="34"/>
       <c r="K407" s="40"/>
     </row>
-    <row r="408" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39"/>
       <c r="B408" s="34"/>
       <c r="C408" s="34"/>
@@ -9669,7 +9669,7 @@
       <c r="J408" s="34"/>
       <c r="K408" s="40"/>
     </row>
-    <row r="409" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39"/>
       <c r="B409" s="34"/>
       <c r="C409" s="34"/>
@@ -9682,7 +9682,7 @@
       <c r="J409" s="34"/>
       <c r="K409" s="40"/>
     </row>
-    <row r="410" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39"/>
       <c r="B410" s="34"/>
       <c r="C410" s="34"/>
@@ -9695,7 +9695,7 @@
       <c r="J410" s="34"/>
       <c r="K410" s="40"/>
     </row>
-    <row r="411" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39"/>
       <c r="B411" s="34"/>
       <c r="C411" s="34"/>
@@ -9708,7 +9708,7 @@
       <c r="J411" s="34"/>
       <c r="K411" s="40"/>
     </row>
-    <row r="412" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39"/>
       <c r="B412" s="34"/>
       <c r="C412" s="34"/>
@@ -9721,7 +9721,7 @@
       <c r="J412" s="34"/>
       <c r="K412" s="40"/>
     </row>
-    <row r="413" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39"/>
       <c r="B413" s="34"/>
       <c r="C413" s="34"/>
@@ -9734,7 +9734,7 @@
       <c r="J413" s="34"/>
       <c r="K413" s="40"/>
     </row>
-    <row r="414" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="34"/>
       <c r="C414" s="34"/>
@@ -9747,7 +9747,7 @@
       <c r="J414" s="34"/>
       <c r="K414" s="40"/>
     </row>
-    <row r="415" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39"/>
       <c r="B415" s="34"/>
       <c r="C415" s="34"/>
@@ -9760,7 +9760,7 @@
       <c r="J415" s="34"/>
       <c r="K415" s="40"/>
     </row>
-    <row r="416" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39"/>
       <c r="B416" s="34"/>
       <c r="C416" s="34"/>
@@ -9773,7 +9773,7 @@
       <c r="J416" s="34"/>
       <c r="K416" s="40"/>
     </row>
-    <row r="417" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39"/>
       <c r="B417" s="34"/>
       <c r="C417" s="34"/>
@@ -9786,7 +9786,7 @@
       <c r="J417" s="34"/>
       <c r="K417" s="40"/>
     </row>
-    <row r="418" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39"/>
       <c r="B418" s="34"/>
       <c r="C418" s="34"/>
@@ -9799,7 +9799,7 @@
       <c r="J418" s="34"/>
       <c r="K418" s="40"/>
     </row>
-    <row r="419" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39"/>
       <c r="B419" s="34"/>
       <c r="C419" s="34"/>
@@ -9812,7 +9812,7 @@
       <c r="J419" s="34"/>
       <c r="K419" s="40"/>
     </row>
-    <row r="420" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="39"/>
       <c r="B420" s="34"/>
       <c r="C420" s="34"/>
@@ -9825,7 +9825,7 @@
       <c r="J420" s="34"/>
       <c r="K420" s="40"/>
     </row>
-    <row r="421" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39"/>
       <c r="B421" s="34"/>
       <c r="C421" s="34"/>
@@ -9838,7 +9838,7 @@
       <c r="J421" s="34"/>
       <c r="K421" s="40"/>
     </row>
-    <row r="422" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39"/>
       <c r="B422" s="34"/>
       <c r="C422" s="34"/>
@@ -9851,7 +9851,7 @@
       <c r="J422" s="34"/>
       <c r="K422" s="40"/>
     </row>
-    <row r="423" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39"/>
       <c r="B423" s="34"/>
       <c r="C423" s="34"/>
@@ -9864,7 +9864,7 @@
       <c r="J423" s="34"/>
       <c r="K423" s="40"/>
     </row>
-    <row r="424" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39"/>
       <c r="B424" s="34"/>
       <c r="C424" s="34"/>
@@ -9877,7 +9877,7 @@
       <c r="J424" s="34"/>
       <c r="K424" s="40"/>
     </row>
-    <row r="425" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39"/>
       <c r="B425" s="34"/>
       <c r="C425" s="34"/>
@@ -9890,7 +9890,7 @@
       <c r="J425" s="34"/>
       <c r="K425" s="40"/>
     </row>
-    <row r="426" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39"/>
       <c r="B426" s="34"/>
       <c r="C426" s="34"/>
@@ -9903,7 +9903,7 @@
       <c r="J426" s="34"/>
       <c r="K426" s="40"/>
     </row>
-    <row r="427" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39"/>
       <c r="B427" s="34"/>
       <c r="C427" s="34"/>
@@ -9916,7 +9916,7 @@
       <c r="J427" s="34"/>
       <c r="K427" s="40"/>
     </row>
-    <row r="428" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39"/>
       <c r="B428" s="34"/>
       <c r="C428" s="34"/>
@@ -9929,7 +9929,7 @@
       <c r="J428" s="34"/>
       <c r="K428" s="40"/>
     </row>
-    <row r="429" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39"/>
       <c r="B429" s="34"/>
       <c r="C429" s="34"/>
@@ -9942,7 +9942,7 @@
       <c r="J429" s="34"/>
       <c r="K429" s="40"/>
     </row>
-    <row r="430" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39"/>
       <c r="B430" s="34"/>
       <c r="C430" s="34"/>
@@ -9955,7 +9955,7 @@
       <c r="J430" s="34"/>
       <c r="K430" s="40"/>
     </row>
-    <row r="431" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39"/>
       <c r="B431" s="34"/>
       <c r="C431" s="34"/>
@@ -9968,7 +9968,7 @@
       <c r="J431" s="34"/>
       <c r="K431" s="40"/>
     </row>
-    <row r="432" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39"/>
       <c r="B432" s="34"/>
       <c r="C432" s="34"/>
@@ -9981,7 +9981,7 @@
       <c r="J432" s="34"/>
       <c r="K432" s="40"/>
     </row>
-    <row r="433" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39"/>
       <c r="B433" s="34"/>
       <c r="C433" s="34"/>
@@ -9994,7 +9994,7 @@
       <c r="J433" s="34"/>
       <c r="K433" s="40"/>
     </row>
-    <row r="434" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="39"/>
       <c r="B434" s="34"/>
       <c r="C434" s="34"/>
@@ -10007,7 +10007,7 @@
       <c r="J434" s="34"/>
       <c r="K434" s="40"/>
     </row>
-    <row r="435" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39"/>
       <c r="B435" s="34"/>
       <c r="C435" s="34"/>
@@ -10020,7 +10020,7 @@
       <c r="J435" s="34"/>
       <c r="K435" s="40"/>
     </row>
-    <row r="436" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39"/>
       <c r="B436" s="34"/>
       <c r="C436" s="34"/>
@@ -10033,7 +10033,7 @@
       <c r="J436" s="34"/>
       <c r="K436" s="40"/>
     </row>
-    <row r="437" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39"/>
       <c r="B437" s="34"/>
       <c r="C437" s="34"/>
@@ -10046,7 +10046,7 @@
       <c r="J437" s="34"/>
       <c r="K437" s="40"/>
     </row>
-    <row r="438" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39"/>
       <c r="B438" s="34"/>
       <c r="C438" s="34"/>
@@ -10059,7 +10059,7 @@
       <c r="J438" s="34"/>
       <c r="K438" s="40"/>
     </row>
-    <row r="439" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39"/>
       <c r="B439" s="34"/>
       <c r="C439" s="34"/>
@@ -10072,7 +10072,7 @@
       <c r="J439" s="34"/>
       <c r="K439" s="40"/>
     </row>
-    <row r="440" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="34"/>
       <c r="C440" s="34"/>
@@ -10085,7 +10085,7 @@
       <c r="J440" s="34"/>
       <c r="K440" s="40"/>
     </row>
-    <row r="441" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39"/>
       <c r="B441" s="34"/>
       <c r="C441" s="34"/>
@@ -10098,7 +10098,7 @@
       <c r="J441" s="34"/>
       <c r="K441" s="40"/>
     </row>
-    <row r="442" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39"/>
       <c r="B442" s="34"/>
       <c r="C442" s="34"/>
@@ -10111,7 +10111,7 @@
       <c r="J442" s="34"/>
       <c r="K442" s="40"/>
     </row>
-    <row r="443" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39"/>
       <c r="B443" s="34"/>
       <c r="C443" s="34"/>
@@ -10124,7 +10124,7 @@
       <c r="J443" s="34"/>
       <c r="K443" s="40"/>
     </row>
-    <row r="444" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39"/>
       <c r="B444" s="34"/>
       <c r="C444" s="34"/>
@@ -10137,7 +10137,7 @@
       <c r="J444" s="34"/>
       <c r="K444" s="40"/>
     </row>
-    <row r="445" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39"/>
       <c r="B445" s="34"/>
       <c r="C445" s="34"/>
@@ -10150,7 +10150,7 @@
       <c r="J445" s="34"/>
       <c r="K445" s="40"/>
     </row>
-    <row r="446" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39"/>
       <c r="B446" s="34"/>
       <c r="C446" s="34"/>
@@ -10163,7 +10163,7 @@
       <c r="J446" s="34"/>
       <c r="K446" s="40"/>
     </row>
-    <row r="447" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39"/>
       <c r="B447" s="34"/>
       <c r="C447" s="34"/>
@@ -10176,7 +10176,7 @@
       <c r="J447" s="34"/>
       <c r="K447" s="40"/>
     </row>
-    <row r="448" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="34"/>
       <c r="C448" s="34"/>
@@ -10189,7 +10189,7 @@
       <c r="J448" s="34"/>
       <c r="K448" s="40"/>
     </row>
-    <row r="449" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="39"/>
       <c r="B449" s="34"/>
       <c r="C449" s="34"/>
@@ -10202,7 +10202,7 @@
       <c r="J449" s="34"/>
       <c r="K449" s="40"/>
     </row>
-    <row r="450" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39"/>
       <c r="B450" s="34"/>
       <c r="C450" s="34"/>
@@ -10215,7 +10215,7 @@
       <c r="J450" s="34"/>
       <c r="K450" s="40"/>
     </row>
-    <row r="451" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="39"/>
       <c r="B451" s="34"/>
       <c r="C451" s="34"/>
@@ -10228,7 +10228,7 @@
       <c r="J451" s="34"/>
       <c r="K451" s="40"/>
     </row>
-    <row r="452" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="39"/>
       <c r="B452" s="34"/>
       <c r="C452" s="34"/>
@@ -10241,7 +10241,7 @@
       <c r="J452" s="34"/>
       <c r="K452" s="40"/>
     </row>
-    <row r="453" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39"/>
       <c r="B453" s="34"/>
       <c r="C453" s="34"/>
@@ -10254,7 +10254,7 @@
       <c r="J453" s="34"/>
       <c r="K453" s="40"/>
     </row>
-    <row r="454" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39"/>
       <c r="B454" s="34"/>
       <c r="C454" s="34"/>
@@ -10267,7 +10267,7 @@
       <c r="J454" s="34"/>
       <c r="K454" s="40"/>
     </row>
-    <row r="455" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39"/>
       <c r="B455" s="34"/>
       <c r="C455" s="34"/>
@@ -10280,7 +10280,7 @@
       <c r="J455" s="34"/>
       <c r="K455" s="40"/>
     </row>
-    <row r="456" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39"/>
       <c r="B456" s="34"/>
       <c r="C456" s="34"/>
@@ -10293,7 +10293,7 @@
       <c r="J456" s="34"/>
       <c r="K456" s="40"/>
     </row>
-    <row r="457" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39"/>
       <c r="B457" s="34"/>
       <c r="C457" s="34"/>
@@ -10306,7 +10306,7 @@
       <c r="J457" s="34"/>
       <c r="K457" s="40"/>
     </row>
-    <row r="458" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39"/>
       <c r="B458" s="34"/>
       <c r="C458" s="34"/>
@@ -10319,7 +10319,7 @@
       <c r="J458" s="34"/>
       <c r="K458" s="40"/>
     </row>
-    <row r="459" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39"/>
       <c r="B459" s="34"/>
       <c r="C459" s="34"/>
@@ -10332,7 +10332,7 @@
       <c r="J459" s="34"/>
       <c r="K459" s="40"/>
     </row>
-    <row r="460" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39"/>
       <c r="B460" s="34"/>
       <c r="C460" s="34"/>
@@ -10345,7 +10345,7 @@
       <c r="J460" s="34"/>
       <c r="K460" s="40"/>
     </row>
-    <row r="461" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39"/>
       <c r="B461" s="34"/>
       <c r="C461" s="34"/>
@@ -10358,7 +10358,7 @@
       <c r="J461" s="34"/>
       <c r="K461" s="40"/>
     </row>
-    <row r="462" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39"/>
       <c r="B462" s="34"/>
       <c r="C462" s="34"/>
@@ -10371,7 +10371,7 @@
       <c r="J462" s="34"/>
       <c r="K462" s="40"/>
     </row>
-    <row r="463" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39"/>
       <c r="B463" s="34"/>
       <c r="C463" s="34"/>
@@ -10384,7 +10384,7 @@
       <c r="J463" s="34"/>
       <c r="K463" s="40"/>
     </row>
-    <row r="464" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39"/>
       <c r="B464" s="34"/>
       <c r="C464" s="34"/>
@@ -10397,7 +10397,7 @@
       <c r="J464" s="34"/>
       <c r="K464" s="40"/>
     </row>
-    <row r="465" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39"/>
       <c r="B465" s="34"/>
       <c r="C465" s="34"/>
@@ -10410,7 +10410,7 @@
       <c r="J465" s="34"/>
       <c r="K465" s="40"/>
     </row>
-    <row r="466" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39"/>
       <c r="B466" s="34"/>
       <c r="C466" s="34"/>
@@ -10423,7 +10423,7 @@
       <c r="J466" s="34"/>
       <c r="K466" s="40"/>
     </row>
-    <row r="467" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39"/>
       <c r="B467" s="34"/>
       <c r="C467" s="34"/>
@@ -10436,7 +10436,7 @@
       <c r="J467" s="34"/>
       <c r="K467" s="40"/>
     </row>
-    <row r="468" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39"/>
       <c r="B468" s="34"/>
       <c r="C468" s="34"/>
@@ -10449,7 +10449,7 @@
       <c r="J468" s="34"/>
       <c r="K468" s="40"/>
     </row>
-    <row r="469" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39"/>
       <c r="B469" s="34"/>
       <c r="C469" s="34"/>
@@ -10462,7 +10462,7 @@
       <c r="J469" s="34"/>
       <c r="K469" s="40"/>
     </row>
-    <row r="470" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39"/>
       <c r="B470" s="34"/>
       <c r="C470" s="34"/>
@@ -10475,7 +10475,7 @@
       <c r="J470" s="34"/>
       <c r="K470" s="40"/>
     </row>
-    <row r="471" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39"/>
       <c r="B471" s="34"/>
       <c r="C471" s="34"/>
@@ -10488,7 +10488,7 @@
       <c r="J471" s="34"/>
       <c r="K471" s="40"/>
     </row>
-    <row r="472" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39"/>
       <c r="B472" s="34"/>
       <c r="C472" s="34"/>
@@ -10501,7 +10501,7 @@
       <c r="J472" s="34"/>
       <c r="K472" s="40"/>
     </row>
-    <row r="473" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39"/>
       <c r="B473" s="34"/>
       <c r="C473" s="34"/>
@@ -10514,7 +10514,7 @@
       <c r="J473" s="34"/>
       <c r="K473" s="40"/>
     </row>
-    <row r="474" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39"/>
       <c r="B474" s="34"/>
       <c r="C474" s="34"/>
@@ -10527,7 +10527,7 @@
       <c r="J474" s="34"/>
       <c r="K474" s="40"/>
     </row>
-    <row r="475" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39"/>
       <c r="B475" s="34"/>
       <c r="C475" s="34"/>
@@ -10540,7 +10540,7 @@
       <c r="J475" s="34"/>
       <c r="K475" s="40"/>
     </row>
-    <row r="476" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39"/>
       <c r="B476" s="34"/>
       <c r="C476" s="34"/>
@@ -10553,7 +10553,7 @@
       <c r="J476" s="34"/>
       <c r="K476" s="40"/>
     </row>
-    <row r="477" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39"/>
       <c r="B477" s="34"/>
       <c r="C477" s="34"/>
@@ -10566,7 +10566,7 @@
       <c r="J477" s="34"/>
       <c r="K477" s="40"/>
     </row>
-    <row r="478" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39"/>
       <c r="B478" s="34"/>
       <c r="C478" s="34"/>
@@ -10579,7 +10579,7 @@
       <c r="J478" s="34"/>
       <c r="K478" s="40"/>
     </row>
-    <row r="479" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39"/>
       <c r="B479" s="34"/>
       <c r="C479" s="34"/>
@@ -10592,7 +10592,7 @@
       <c r="J479" s="34"/>
       <c r="K479" s="40"/>
     </row>
-    <row r="480" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39"/>
       <c r="B480" s="34"/>
       <c r="C480" s="34"/>
@@ -10605,7 +10605,7 @@
       <c r="J480" s="34"/>
       <c r="K480" s="40"/>
     </row>
-    <row r="481" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39"/>
       <c r="B481" s="34"/>
       <c r="C481" s="34"/>
@@ -10618,7 +10618,7 @@
       <c r="J481" s="34"/>
       <c r="K481" s="40"/>
     </row>
-    <row r="482" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39"/>
       <c r="B482" s="34"/>
       <c r="C482" s="34"/>
@@ -10631,7 +10631,7 @@
       <c r="J482" s="34"/>
       <c r="K482" s="40"/>
     </row>
-    <row r="483" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39"/>
       <c r="B483" s="34"/>
       <c r="C483" s="34"/>
@@ -10644,7 +10644,7 @@
       <c r="J483" s="34"/>
       <c r="K483" s="40"/>
     </row>
-    <row r="484" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39"/>
       <c r="B484" s="34"/>
       <c r="C484" s="34"/>
@@ -10657,7 +10657,7 @@
       <c r="J484" s="34"/>
       <c r="K484" s="40"/>
     </row>
-    <row r="485" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39"/>
       <c r="B485" s="34"/>
       <c r="C485" s="34"/>
@@ -10670,7 +10670,7 @@
       <c r="J485" s="34"/>
       <c r="K485" s="40"/>
     </row>
-    <row r="486" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39"/>
       <c r="B486" s="34"/>
       <c r="C486" s="34"/>
@@ -10683,7 +10683,7 @@
       <c r="J486" s="34"/>
       <c r="K486" s="40"/>
     </row>
-    <row r="487" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39"/>
       <c r="B487" s="34"/>
       <c r="C487" s="34"/>
@@ -10696,7 +10696,7 @@
       <c r="J487" s="34"/>
       <c r="K487" s="40"/>
     </row>
-    <row r="488" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39"/>
       <c r="B488" s="34"/>
       <c r="C488" s="34"/>
@@ -10709,7 +10709,7 @@
       <c r="J488" s="34"/>
       <c r="K488" s="40"/>
     </row>
-    <row r="489" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39"/>
       <c r="B489" s="34"/>
       <c r="C489" s="34"/>
@@ -10722,7 +10722,7 @@
       <c r="J489" s="34"/>
       <c r="K489" s="40"/>
     </row>
-    <row r="490" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39"/>
       <c r="B490" s="34"/>
       <c r="C490" s="34"/>
@@ -10735,7 +10735,7 @@
       <c r="J490" s="34"/>
       <c r="K490" s="40"/>
     </row>
-    <row r="491" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="39"/>
       <c r="B491" s="34"/>
       <c r="C491" s="34"/>
@@ -10748,7 +10748,7 @@
       <c r="J491" s="34"/>
       <c r="K491" s="40"/>
     </row>
-    <row r="492" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39"/>
       <c r="B492" s="34"/>
       <c r="C492" s="34"/>
@@ -10761,7 +10761,7 @@
       <c r="J492" s="34"/>
       <c r="K492" s="40"/>
     </row>
-    <row r="493" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="39"/>
       <c r="B493" s="34"/>
       <c r="C493" s="34"/>
@@ -10774,7 +10774,7 @@
       <c r="J493" s="34"/>
       <c r="K493" s="40"/>
     </row>
-    <row r="494" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="39"/>
       <c r="B494" s="34"/>
       <c r="C494" s="34"/>
@@ -10787,7 +10787,7 @@
       <c r="J494" s="34"/>
       <c r="K494" s="40"/>
     </row>
-    <row r="495" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="39"/>
       <c r="B495" s="34"/>
       <c r="C495" s="34"/>
@@ -10800,7 +10800,7 @@
       <c r="J495" s="34"/>
       <c r="K495" s="40"/>
     </row>
-    <row r="496" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="39"/>
       <c r="B496" s="34"/>
       <c r="C496" s="34"/>
@@ -10813,7 +10813,7 @@
       <c r="J496" s="34"/>
       <c r="K496" s="40"/>
     </row>
-    <row r="497" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="39"/>
       <c r="B497" s="34"/>
       <c r="C497" s="34"/>
@@ -10826,7 +10826,7 @@
       <c r="J497" s="34"/>
       <c r="K497" s="40"/>
     </row>
-    <row r="498" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="39"/>
       <c r="B498" s="34"/>
       <c r="C498" s="34"/>
@@ -10839,7 +10839,7 @@
       <c r="J498" s="34"/>
       <c r="K498" s="40"/>
     </row>
-    <row r="499" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="39"/>
       <c r="B499" s="34"/>
       <c r="C499" s="34"/>
@@ -10852,7 +10852,7 @@
       <c r="J499" s="34"/>
       <c r="K499" s="40"/>
     </row>
-    <row r="500" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="39"/>
       <c r="B500" s="34"/>
       <c r="C500" s="34"/>
@@ -10865,7 +10865,7 @@
       <c r="J500" s="34"/>
       <c r="K500" s="40"/>
     </row>
-    <row r="501" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="39"/>
       <c r="B501" s="34"/>
       <c r="C501" s="34"/>
@@ -10878,7 +10878,7 @@
       <c r="J501" s="34"/>
       <c r="K501" s="40"/>
     </row>
-    <row r="502" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="39"/>
       <c r="B502" s="34"/>
       <c r="C502" s="34"/>
@@ -10891,7 +10891,7 @@
       <c r="J502" s="34"/>
       <c r="K502" s="40"/>
     </row>
-    <row r="503" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="39"/>
       <c r="B503" s="34"/>
       <c r="C503" s="34"/>
@@ -10904,7 +10904,7 @@
       <c r="J503" s="34"/>
       <c r="K503" s="40"/>
     </row>
-    <row r="504" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="39"/>
       <c r="B504" s="34"/>
       <c r="C504" s="34"/>
@@ -10917,7 +10917,7 @@
       <c r="J504" s="34"/>
       <c r="K504" s="40"/>
     </row>
-    <row r="505" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="39"/>
       <c r="B505" s="34"/>
       <c r="C505" s="34"/>
@@ -10930,7 +10930,7 @@
       <c r="J505" s="34"/>
       <c r="K505" s="40"/>
     </row>
-    <row r="506" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="39"/>
       <c r="B506" s="34"/>
       <c r="C506" s="34"/>
@@ -10943,7 +10943,7 @@
       <c r="J506" s="34"/>
       <c r="K506" s="40"/>
     </row>
-    <row r="507" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="39"/>
       <c r="B507" s="34"/>
       <c r="C507" s="34"/>
@@ -10956,7 +10956,7 @@
       <c r="J507" s="34"/>
       <c r="K507" s="40"/>
     </row>
-    <row r="508" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="39"/>
       <c r="B508" s="34"/>
       <c r="C508" s="34"/>
@@ -10969,7 +10969,7 @@
       <c r="J508" s="34"/>
       <c r="K508" s="40"/>
     </row>
-    <row r="509" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="39"/>
       <c r="B509" s="34"/>
       <c r="C509" s="34"/>
@@ -10982,7 +10982,7 @@
       <c r="J509" s="34"/>
       <c r="K509" s="40"/>
     </row>
-    <row r="510" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="39"/>
       <c r="B510" s="34"/>
       <c r="C510" s="34"/>
@@ -10995,7 +10995,7 @@
       <c r="J510" s="34"/>
       <c r="K510" s="40"/>
     </row>
-    <row r="511" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="39"/>
       <c r="B511" s="34"/>
       <c r="C511" s="34"/>
@@ -11008,7 +11008,7 @@
       <c r="J511" s="34"/>
       <c r="K511" s="40"/>
     </row>
-    <row r="512" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39"/>
       <c r="B512" s="34"/>
       <c r="C512" s="34"/>
@@ -11021,7 +11021,7 @@
       <c r="J512" s="34"/>
       <c r="K512" s="40"/>
     </row>
-    <row r="513" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="39"/>
       <c r="B513" s="34"/>
       <c r="C513" s="34"/>
@@ -11034,7 +11034,7 @@
       <c r="J513" s="34"/>
       <c r="K513" s="40"/>
     </row>
-    <row r="514" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39"/>
       <c r="B514" s="34"/>
       <c r="C514" s="34"/>
@@ -11047,7 +11047,7 @@
       <c r="J514" s="34"/>
       <c r="K514" s="40"/>
     </row>
-    <row r="515" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39"/>
       <c r="B515" s="34"/>
       <c r="C515" s="34"/>
@@ -11060,7 +11060,7 @@
       <c r="J515" s="34"/>
       <c r="K515" s="40"/>
     </row>
-    <row r="516" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39"/>
       <c r="B516" s="34"/>
       <c r="C516" s="34"/>
@@ -11073,7 +11073,7 @@
       <c r="J516" s="34"/>
       <c r="K516" s="40"/>
     </row>
-    <row r="517" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="39"/>
       <c r="B517" s="34"/>
       <c r="C517" s="34"/>
@@ -11086,7 +11086,7 @@
       <c r="J517" s="34"/>
       <c r="K517" s="40"/>
     </row>
-    <row r="518" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39"/>
       <c r="B518" s="34"/>
       <c r="C518" s="34"/>
@@ -11099,7 +11099,7 @@
       <c r="J518" s="34"/>
       <c r="K518" s="40"/>
     </row>
-    <row r="519" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="39"/>
       <c r="B519" s="34"/>
       <c r="C519" s="34"/>
@@ -11112,7 +11112,7 @@
       <c r="J519" s="34"/>
       <c r="K519" s="40"/>
     </row>
-    <row r="520" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="39"/>
       <c r="B520" s="34"/>
       <c r="C520" s="34"/>
@@ -11125,7 +11125,7 @@
       <c r="J520" s="34"/>
       <c r="K520" s="40"/>
     </row>
-    <row r="521" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="39"/>
       <c r="B521" s="34"/>
       <c r="C521" s="34"/>
@@ -11138,7 +11138,7 @@
       <c r="J521" s="34"/>
       <c r="K521" s="40"/>
     </row>
-    <row r="522" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="39"/>
       <c r="B522" s="34"/>
       <c r="C522" s="34"/>
@@ -11151,7 +11151,7 @@
       <c r="J522" s="34"/>
       <c r="K522" s="40"/>
     </row>
-    <row r="523" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="39"/>
       <c r="B523" s="34"/>
       <c r="C523" s="34"/>
@@ -11164,7 +11164,7 @@
       <c r="J523" s="34"/>
       <c r="K523" s="40"/>
     </row>
-    <row r="524" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="39"/>
       <c r="B524" s="34"/>
       <c r="C524" s="34"/>
@@ -11177,7 +11177,7 @@
       <c r="J524" s="34"/>
       <c r="K524" s="40"/>
     </row>
-    <row r="525" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="39"/>
       <c r="B525" s="34"/>
       <c r="C525" s="34"/>
@@ -11190,7 +11190,7 @@
       <c r="J525" s="34"/>
       <c r="K525" s="40"/>
     </row>
-    <row r="526" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="39"/>
       <c r="B526" s="34"/>
       <c r="C526" s="34"/>
@@ -11203,7 +11203,7 @@
       <c r="J526" s="34"/>
       <c r="K526" s="40"/>
     </row>
-    <row r="527" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="39"/>
       <c r="B527" s="34"/>
       <c r="C527" s="34"/>
@@ -11216,7 +11216,7 @@
       <c r="J527" s="34"/>
       <c r="K527" s="40"/>
     </row>
-    <row r="528" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="39"/>
       <c r="B528" s="34"/>
       <c r="C528" s="34"/>
@@ -11229,7 +11229,7 @@
       <c r="J528" s="34"/>
       <c r="K528" s="40"/>
     </row>
-    <row r="529" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="39"/>
       <c r="B529" s="34"/>
       <c r="C529" s="34"/>
@@ -11242,7 +11242,7 @@
       <c r="J529" s="34"/>
       <c r="K529" s="40"/>
     </row>
-    <row r="530" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="39"/>
       <c r="B530" s="34"/>
       <c r="C530" s="34"/>
@@ -11255,7 +11255,7 @@
       <c r="J530" s="34"/>
       <c r="K530" s="40"/>
     </row>
-    <row r="531" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="39"/>
       <c r="B531" s="34"/>
       <c r="C531" s="34"/>
@@ -11268,7 +11268,7 @@
       <c r="J531" s="34"/>
       <c r="K531" s="40"/>
     </row>
-    <row r="532" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="39"/>
       <c r="B532" s="34"/>
       <c r="C532" s="34"/>
@@ -11281,7 +11281,7 @@
       <c r="J532" s="34"/>
       <c r="K532" s="40"/>
     </row>
-    <row r="533" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="39"/>
       <c r="B533" s="34"/>
       <c r="C533" s="34"/>
@@ -11294,7 +11294,7 @@
       <c r="J533" s="34"/>
       <c r="K533" s="40"/>
     </row>
-    <row r="534" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="39"/>
       <c r="B534" s="34"/>
       <c r="C534" s="34"/>
@@ -11307,7 +11307,7 @@
       <c r="J534" s="34"/>
       <c r="K534" s="40"/>
     </row>
-    <row r="535" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="39"/>
       <c r="B535" s="34"/>
       <c r="C535" s="34"/>
@@ -11320,7 +11320,7 @@
       <c r="J535" s="34"/>
       <c r="K535" s="40"/>
     </row>
-    <row r="536" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="39"/>
       <c r="B536" s="34"/>
       <c r="C536" s="34"/>
@@ -11333,7 +11333,7 @@
       <c r="J536" s="34"/>
       <c r="K536" s="40"/>
     </row>
-    <row r="537" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="39"/>
       <c r="B537" s="34"/>
       <c r="C537" s="34"/>
@@ -11346,7 +11346,7 @@
       <c r="J537" s="34"/>
       <c r="K537" s="40"/>
     </row>
-    <row r="538" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39"/>
       <c r="B538" s="34"/>
       <c r="C538" s="34"/>
@@ -11359,7 +11359,7 @@
       <c r="J538" s="34"/>
       <c r="K538" s="40"/>
     </row>
-    <row r="539" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="39"/>
       <c r="B539" s="34"/>
       <c r="C539" s="34"/>
@@ -11372,7 +11372,7 @@
       <c r="J539" s="34"/>
       <c r="K539" s="40"/>
     </row>
-    <row r="540" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="39"/>
       <c r="B540" s="34"/>
       <c r="C540" s="34"/>
@@ -11385,7 +11385,7 @@
       <c r="J540" s="34"/>
       <c r="K540" s="40"/>
     </row>
-    <row r="541" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="39"/>
       <c r="B541" s="34"/>
       <c r="C541" s="34"/>
@@ -11398,7 +11398,7 @@
       <c r="J541" s="34"/>
       <c r="K541" s="40"/>
     </row>
-    <row r="542" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="39"/>
       <c r="B542" s="34"/>
       <c r="C542" s="34"/>
@@ -11411,7 +11411,7 @@
       <c r="J542" s="34"/>
       <c r="K542" s="40"/>
     </row>
-    <row r="543" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="39"/>
       <c r="B543" s="34"/>
       <c r="C543" s="34"/>
@@ -11424,7 +11424,7 @@
       <c r="J543" s="34"/>
       <c r="K543" s="40"/>
     </row>
-    <row r="544" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="39"/>
       <c r="B544" s="34"/>
       <c r="C544" s="34"/>
@@ -11437,7 +11437,7 @@
       <c r="J544" s="34"/>
       <c r="K544" s="40"/>
     </row>
-    <row r="545" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="39"/>
       <c r="B545" s="34"/>
       <c r="C545" s="34"/>
@@ -11450,7 +11450,7 @@
       <c r="J545" s="34"/>
       <c r="K545" s="40"/>
     </row>
-    <row r="546" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="39"/>
       <c r="B546" s="34"/>
       <c r="C546" s="34"/>
@@ -11463,7 +11463,7 @@
       <c r="J546" s="34"/>
       <c r="K546" s="40"/>
     </row>
-    <row r="547" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="39"/>
       <c r="B547" s="34"/>
       <c r="C547" s="34"/>
@@ -11476,7 +11476,7 @@
       <c r="J547" s="34"/>
       <c r="K547" s="40"/>
     </row>
-    <row r="548" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="39"/>
       <c r="B548" s="34"/>
       <c r="C548" s="34"/>
@@ -11489,7 +11489,7 @@
       <c r="J548" s="34"/>
       <c r="K548" s="40"/>
     </row>
-    <row r="549" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="39"/>
       <c r="B549" s="34"/>
       <c r="C549" s="34"/>
@@ -11502,7 +11502,7 @@
       <c r="J549" s="34"/>
       <c r="K549" s="40"/>
     </row>
-    <row r="550" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="39"/>
       <c r="B550" s="34"/>
       <c r="C550" s="34"/>
@@ -11515,7 +11515,7 @@
       <c r="J550" s="34"/>
       <c r="K550" s="40"/>
     </row>
-    <row r="551" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="39"/>
       <c r="B551" s="34"/>
       <c r="C551" s="34"/>
@@ -11528,7 +11528,7 @@
       <c r="J551" s="34"/>
       <c r="K551" s="40"/>
     </row>
-    <row r="552" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="39"/>
       <c r="B552" s="34"/>
       <c r="C552" s="34"/>
@@ -11541,7 +11541,7 @@
       <c r="J552" s="34"/>
       <c r="K552" s="40"/>
     </row>
-    <row r="553" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="39"/>
       <c r="B553" s="34"/>
       <c r="C553" s="34"/>
@@ -11554,7 +11554,7 @@
       <c r="J553" s="34"/>
       <c r="K553" s="40"/>
     </row>
-    <row r="554" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="39"/>
       <c r="B554" s="34"/>
       <c r="C554" s="34"/>
@@ -11567,7 +11567,7 @@
       <c r="J554" s="34"/>
       <c r="K554" s="40"/>
     </row>
-    <row r="555" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="39"/>
       <c r="B555" s="34"/>
       <c r="C555" s="34"/>
@@ -11580,7 +11580,7 @@
       <c r="J555" s="34"/>
       <c r="K555" s="40"/>
     </row>
-    <row r="556" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="39"/>
       <c r="B556" s="34"/>
       <c r="C556" s="34"/>
@@ -11593,7 +11593,7 @@
       <c r="J556" s="34"/>
       <c r="K556" s="40"/>
     </row>
-    <row r="557" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="39"/>
       <c r="B557" s="34"/>
       <c r="C557" s="34"/>
@@ -11606,7 +11606,7 @@
       <c r="J557" s="34"/>
       <c r="K557" s="40"/>
     </row>
-    <row r="558" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="39"/>
       <c r="B558" s="34"/>
       <c r="C558" s="34"/>
@@ -11619,7 +11619,7 @@
       <c r="J558" s="34"/>
       <c r="K558" s="40"/>
     </row>
-    <row r="559" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="39"/>
       <c r="B559" s="34"/>
       <c r="C559" s="34"/>
@@ -11632,7 +11632,7 @@
       <c r="J559" s="34"/>
       <c r="K559" s="40"/>
     </row>
-    <row r="560" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="39"/>
       <c r="B560" s="34"/>
       <c r="C560" s="34"/>
@@ -11645,7 +11645,7 @@
       <c r="J560" s="34"/>
       <c r="K560" s="40"/>
     </row>
-    <row r="561" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="39"/>
       <c r="B561" s="34"/>
       <c r="C561" s="34"/>
@@ -11658,7 +11658,7 @@
       <c r="J561" s="34"/>
       <c r="K561" s="40"/>
     </row>
-    <row r="562" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="39"/>
       <c r="B562" s="34"/>
       <c r="C562" s="34"/>
@@ -11671,7 +11671,7 @@
       <c r="J562" s="34"/>
       <c r="K562" s="40"/>
     </row>
-    <row r="563" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="39"/>
       <c r="B563" s="34"/>
       <c r="C563" s="34"/>
@@ -11684,7 +11684,7 @@
       <c r="J563" s="34"/>
       <c r="K563" s="40"/>
     </row>
-    <row r="564" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="39"/>
       <c r="B564" s="34"/>
       <c r="C564" s="34"/>
@@ -11697,7 +11697,7 @@
       <c r="J564" s="34"/>
       <c r="K564" s="40"/>
     </row>
-    <row r="565" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="39"/>
       <c r="B565" s="34"/>
       <c r="C565" s="34"/>
@@ -11710,7 +11710,7 @@
       <c r="J565" s="34"/>
       <c r="K565" s="40"/>
     </row>
-    <row r="566" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="39"/>
       <c r="B566" s="34"/>
       <c r="C566" s="34"/>
@@ -11723,7 +11723,7 @@
       <c r="J566" s="34"/>
       <c r="K566" s="40"/>
     </row>
-    <row r="567" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="39"/>
       <c r="B567" s="34"/>
       <c r="C567" s="34"/>
@@ -11736,7 +11736,7 @@
       <c r="J567" s="34"/>
       <c r="K567" s="40"/>
     </row>
-    <row r="568" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="39"/>
       <c r="B568" s="34"/>
       <c r="C568" s="34"/>
@@ -11749,7 +11749,7 @@
       <c r="J568" s="34"/>
       <c r="K568" s="40"/>
     </row>
-    <row r="569" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="39"/>
       <c r="B569" s="34"/>
       <c r="C569" s="34"/>
@@ -11762,7 +11762,7 @@
       <c r="J569" s="34"/>
       <c r="K569" s="40"/>
     </row>
-    <row r="570" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="39"/>
       <c r="B570" s="34"/>
       <c r="C570" s="34"/>
@@ -11775,7 +11775,7 @@
       <c r="J570" s="34"/>
       <c r="K570" s="40"/>
     </row>
-    <row r="571" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="39"/>
       <c r="B571" s="34"/>
       <c r="C571" s="34"/>
@@ -11788,7 +11788,7 @@
       <c r="J571" s="34"/>
       <c r="K571" s="40"/>
     </row>
-    <row r="572" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="39"/>
       <c r="B572" s="34"/>
       <c r="C572" s="34"/>
@@ -11801,7 +11801,7 @@
       <c r="J572" s="34"/>
       <c r="K572" s="40"/>
     </row>
-    <row r="573" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="39"/>
       <c r="B573" s="34"/>
       <c r="C573" s="34"/>
@@ -11814,7 +11814,7 @@
       <c r="J573" s="34"/>
       <c r="K573" s="40"/>
     </row>
-    <row r="574" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="39"/>
       <c r="B574" s="34"/>
       <c r="C574" s="34"/>
@@ -11827,7 +11827,7 @@
       <c r="J574" s="34"/>
       <c r="K574" s="40"/>
     </row>
-    <row r="575" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="39"/>
       <c r="B575" s="34"/>
       <c r="C575" s="34"/>
@@ -11840,7 +11840,7 @@
       <c r="J575" s="34"/>
       <c r="K575" s="40"/>
     </row>
-    <row r="576" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39"/>
       <c r="B576" s="34"/>
       <c r="C576" s="34"/>
@@ -11853,7 +11853,7 @@
       <c r="J576" s="34"/>
       <c r="K576" s="40"/>
     </row>
-    <row r="577" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39"/>
       <c r="B577" s="34"/>
       <c r="C577" s="34"/>
@@ -11866,7 +11866,7 @@
       <c r="J577" s="34"/>
       <c r="K577" s="40"/>
     </row>
-    <row r="578" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39"/>
       <c r="B578" s="34"/>
       <c r="C578" s="34"/>
@@ -11879,7 +11879,7 @@
       <c r="J578" s="34"/>
       <c r="K578" s="40"/>
     </row>
-    <row r="579" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39"/>
       <c r="B579" s="34"/>
       <c r="C579" s="34"/>
@@ -11892,7 +11892,7 @@
       <c r="J579" s="34"/>
       <c r="K579" s="40"/>
     </row>
-    <row r="580" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39"/>
       <c r="B580" s="34"/>
       <c r="C580" s="34"/>
@@ -11905,7 +11905,7 @@
       <c r="J580" s="34"/>
       <c r="K580" s="40"/>
     </row>
-    <row r="581" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39"/>
       <c r="B581" s="34"/>
       <c r="C581" s="34"/>
@@ -11918,7 +11918,7 @@
       <c r="J581" s="34"/>
       <c r="K581" s="40"/>
     </row>
-    <row r="582" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39"/>
       <c r="B582" s="34"/>
       <c r="C582" s="34"/>
@@ -11931,7 +11931,7 @@
       <c r="J582" s="34"/>
       <c r="K582" s="40"/>
     </row>
-    <row r="583" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39"/>
       <c r="B583" s="34"/>
       <c r="C583" s="34"/>
@@ -11944,7 +11944,7 @@
       <c r="J583" s="34"/>
       <c r="K583" s="40"/>
     </row>
-    <row r="584" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39"/>
       <c r="B584" s="34"/>
       <c r="C584" s="34"/>
@@ -11957,7 +11957,7 @@
       <c r="J584" s="34"/>
       <c r="K584" s="40"/>
     </row>
-    <row r="585" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39"/>
       <c r="B585" s="34"/>
       <c r="C585" s="34"/>
@@ -11970,7 +11970,7 @@
       <c r="J585" s="34"/>
       <c r="K585" s="40"/>
     </row>
-    <row r="586" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39"/>
       <c r="B586" s="34"/>
       <c r="C586" s="34"/>
@@ -11983,7 +11983,7 @@
       <c r="J586" s="34"/>
       <c r="K586" s="40"/>
     </row>
-    <row r="587" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39"/>
       <c r="B587" s="34"/>
       <c r="C587" s="34"/>
@@ -11996,7 +11996,7 @@
       <c r="J587" s="34"/>
       <c r="K587" s="40"/>
     </row>
-    <row r="588" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39"/>
       <c r="B588" s="34"/>
       <c r="C588" s="34"/>
@@ -12009,7 +12009,7 @@
       <c r="J588" s="34"/>
       <c r="K588" s="40"/>
     </row>
-    <row r="589" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39"/>
       <c r="B589" s="34"/>
       <c r="C589" s="34"/>
@@ -12022,7 +12022,7 @@
       <c r="J589" s="34"/>
       <c r="K589" s="40"/>
     </row>
-    <row r="590" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39"/>
       <c r="B590" s="34"/>
       <c r="C590" s="34"/>
@@ -12035,7 +12035,7 @@
       <c r="J590" s="34"/>
       <c r="K590" s="40"/>
     </row>
-    <row r="591" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39"/>
       <c r="B591" s="34"/>
       <c r="C591" s="34"/>
@@ -12048,7 +12048,7 @@
       <c r="J591" s="34"/>
       <c r="K591" s="40"/>
     </row>
-    <row r="592" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39"/>
       <c r="B592" s="34"/>
       <c r="C592" s="34"/>
@@ -12061,7 +12061,7 @@
       <c r="J592" s="34"/>
       <c r="K592" s="40"/>
     </row>
-    <row r="593" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39"/>
       <c r="B593" s="34"/>
       <c r="C593" s="34"/>
@@ -12074,7 +12074,7 @@
       <c r="J593" s="34"/>
       <c r="K593" s="40"/>
     </row>
-    <row r="594" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="39"/>
       <c r="B594" s="34"/>
       <c r="C594" s="34"/>
@@ -12087,7 +12087,7 @@
       <c r="J594" s="34"/>
       <c r="K594" s="40"/>
     </row>
-    <row r="595" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39"/>
       <c r="B595" s="34"/>
       <c r="C595" s="34"/>
@@ -12100,7 +12100,7 @@
       <c r="J595" s="34"/>
       <c r="K595" s="40"/>
     </row>
-    <row r="596" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39"/>
       <c r="B596" s="34"/>
       <c r="C596" s="34"/>
@@ -12113,7 +12113,7 @@
       <c r="J596" s="34"/>
       <c r="K596" s="40"/>
     </row>
-    <row r="597" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39"/>
       <c r="B597" s="34"/>
       <c r="C597" s="34"/>
@@ -12126,7 +12126,7 @@
       <c r="J597" s="34"/>
       <c r="K597" s="40"/>
     </row>
-    <row r="598" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39"/>
       <c r="B598" s="34"/>
       <c r="C598" s="34"/>
@@ -12139,7 +12139,7 @@
       <c r="J598" s="34"/>
       <c r="K598" s="40"/>
     </row>
-    <row r="599" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39"/>
       <c r="B599" s="34"/>
       <c r="C599" s="34"/>
@@ -12152,7 +12152,7 @@
       <c r="J599" s="34"/>
       <c r="K599" s="40"/>
     </row>
-    <row r="600" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39"/>
       <c r="B600" s="34"/>
       <c r="C600" s="34"/>
@@ -12165,7 +12165,7 @@
       <c r="J600" s="34"/>
       <c r="K600" s="40"/>
     </row>
-    <row r="601" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39"/>
       <c r="B601" s="34"/>
       <c r="C601" s="34"/>
@@ -12178,7 +12178,7 @@
       <c r="J601" s="34"/>
       <c r="K601" s="40"/>
     </row>
-    <row r="602" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39"/>
       <c r="B602" s="34"/>
       <c r="C602" s="34"/>
@@ -12191,7 +12191,7 @@
       <c r="J602" s="34"/>
       <c r="K602" s="40"/>
     </row>
-    <row r="603" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39"/>
       <c r="B603" s="34"/>
       <c r="C603" s="34"/>
@@ -12204,7 +12204,7 @@
       <c r="J603" s="34"/>
       <c r="K603" s="40"/>
     </row>
-    <row r="604" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39"/>
       <c r="B604" s="34"/>
       <c r="C604" s="34"/>
@@ -12217,7 +12217,7 @@
       <c r="J604" s="34"/>
       <c r="K604" s="40"/>
     </row>
-    <row r="605" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39"/>
       <c r="B605" s="34"/>
       <c r="C605" s="34"/>
@@ -12230,7 +12230,7 @@
       <c r="J605" s="34"/>
       <c r="K605" s="40"/>
     </row>
-    <row r="606" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39"/>
       <c r="B606" s="34"/>
       <c r="C606" s="34"/>
@@ -12243,7 +12243,7 @@
       <c r="J606" s="34"/>
       <c r="K606" s="40"/>
     </row>
-    <row r="607" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39"/>
       <c r="B607" s="34"/>
       <c r="C607" s="34"/>
@@ -12256,7 +12256,7 @@
       <c r="J607" s="34"/>
       <c r="K607" s="40"/>
     </row>
-    <row r="608" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39"/>
       <c r="B608" s="34"/>
       <c r="C608" s="34"/>
@@ -12269,7 +12269,7 @@
       <c r="J608" s="34"/>
       <c r="K608" s="40"/>
     </row>
-    <row r="609" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39"/>
       <c r="B609" s="34"/>
       <c r="C609" s="34"/>
@@ -12282,7 +12282,7 @@
       <c r="J609" s="34"/>
       <c r="K609" s="40"/>
     </row>
-    <row r="610" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39"/>
       <c r="B610" s="34"/>
       <c r="C610" s="34"/>
@@ -12295,7 +12295,7 @@
       <c r="J610" s="34"/>
       <c r="K610" s="40"/>
     </row>
-    <row r="611" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39"/>
       <c r="B611" s="34"/>
       <c r="C611" s="34"/>
@@ -12308,7 +12308,7 @@
       <c r="J611" s="34"/>
       <c r="K611" s="40"/>
     </row>
-    <row r="612" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39"/>
       <c r="B612" s="34"/>
       <c r="C612" s="34"/>
@@ -12321,7 +12321,7 @@
       <c r="J612" s="34"/>
       <c r="K612" s="40"/>
     </row>
-    <row r="613" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39"/>
       <c r="B613" s="34"/>
       <c r="C613" s="34"/>
@@ -12334,7 +12334,7 @@
       <c r="J613" s="34"/>
       <c r="K613" s="40"/>
     </row>
-    <row r="614" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="39"/>
       <c r="B614" s="34"/>
       <c r="C614" s="34"/>
@@ -12347,7 +12347,7 @@
       <c r="J614" s="34"/>
       <c r="K614" s="40"/>
     </row>
-    <row r="615" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39"/>
       <c r="B615" s="34"/>
       <c r="C615" s="34"/>
@@ -12360,7 +12360,7 @@
       <c r="J615" s="34"/>
       <c r="K615" s="40"/>
     </row>
-    <row r="616" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39"/>
       <c r="B616" s="34"/>
       <c r="C616" s="34"/>
@@ -12373,7 +12373,7 @@
       <c r="J616" s="34"/>
       <c r="K616" s="40"/>
     </row>
-    <row r="617" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39"/>
       <c r="B617" s="34"/>
       <c r="C617" s="34"/>
@@ -12386,7 +12386,7 @@
       <c r="J617" s="34"/>
       <c r="K617" s="40"/>
     </row>
-    <row r="618" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39"/>
       <c r="B618" s="34"/>
       <c r="C618" s="34"/>
@@ -12399,7 +12399,7 @@
       <c r="J618" s="34"/>
       <c r="K618" s="40"/>
     </row>
-    <row r="619" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39"/>
       <c r="B619" s="34"/>
       <c r="C619" s="34"/>
@@ -12412,7 +12412,7 @@
       <c r="J619" s="34"/>
       <c r="K619" s="40"/>
     </row>
-    <row r="620" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39"/>
       <c r="B620" s="34"/>
       <c r="C620" s="34"/>
@@ -12425,7 +12425,7 @@
       <c r="J620" s="34"/>
       <c r="K620" s="40"/>
     </row>
-    <row r="621" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39"/>
       <c r="B621" s="34"/>
       <c r="C621" s="34"/>
@@ -12438,7 +12438,7 @@
       <c r="J621" s="34"/>
       <c r="K621" s="40"/>
     </row>
-    <row r="622" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39"/>
       <c r="B622" s="34"/>
       <c r="C622" s="34"/>
@@ -12451,7 +12451,7 @@
       <c r="J622" s="34"/>
       <c r="K622" s="40"/>
     </row>
-    <row r="623" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39"/>
       <c r="B623" s="34"/>
       <c r="C623" s="34"/>
@@ -12464,7 +12464,7 @@
       <c r="J623" s="34"/>
       <c r="K623" s="40"/>
     </row>
-    <row r="624" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39"/>
       <c r="B624" s="34"/>
       <c r="C624" s="34"/>
@@ -12477,7 +12477,7 @@
       <c r="J624" s="34"/>
       <c r="K624" s="40"/>
     </row>
-    <row r="625" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39"/>
       <c r="B625" s="34"/>
       <c r="C625" s="34"/>
@@ -12490,7 +12490,7 @@
       <c r="J625" s="34"/>
       <c r="K625" s="40"/>
     </row>
-    <row r="626" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39"/>
       <c r="B626" s="34"/>
       <c r="C626" s="34"/>
@@ -12503,7 +12503,7 @@
       <c r="J626" s="34"/>
       <c r="K626" s="40"/>
     </row>
-    <row r="627" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39"/>
       <c r="B627" s="34"/>
       <c r="C627" s="34"/>
@@ -12516,7 +12516,7 @@
       <c r="J627" s="34"/>
       <c r="K627" s="40"/>
     </row>
-    <row r="628" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39"/>
       <c r="B628" s="34"/>
       <c r="C628" s="34"/>
@@ -12529,7 +12529,7 @@
       <c r="J628" s="34"/>
       <c r="K628" s="40"/>
     </row>
-    <row r="629" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="39"/>
       <c r="B629" s="34"/>
       <c r="C629" s="34"/>
@@ -12542,7 +12542,7 @@
       <c r="J629" s="34"/>
       <c r="K629" s="40"/>
     </row>
-    <row r="630" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39"/>
       <c r="B630" s="34"/>
       <c r="C630" s="34"/>
@@ -12555,7 +12555,7 @@
       <c r="J630" s="34"/>
       <c r="K630" s="40"/>
     </row>
-    <row r="631" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39"/>
       <c r="B631" s="34"/>
       <c r="C631" s="34"/>
@@ -12568,7 +12568,7 @@
       <c r="J631" s="34"/>
       <c r="K631" s="40"/>
     </row>
-    <row r="632" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39"/>
       <c r="B632" s="34"/>
       <c r="C632" s="34"/>
@@ -12581,7 +12581,7 @@
       <c r="J632" s="34"/>
       <c r="K632" s="40"/>
     </row>
-    <row r="633" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39"/>
       <c r="B633" s="34"/>
       <c r="C633" s="34"/>
@@ -12594,7 +12594,7 @@
       <c r="J633" s="34"/>
       <c r="K633" s="40"/>
     </row>
-    <row r="634" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39"/>
       <c r="B634" s="34"/>
       <c r="C634" s="34"/>
@@ -12607,7 +12607,7 @@
       <c r="J634" s="34"/>
       <c r="K634" s="40"/>
     </row>
-    <row r="635" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39"/>
       <c r="B635" s="34"/>
       <c r="C635" s="34"/>
@@ -12620,7 +12620,7 @@
       <c r="J635" s="34"/>
       <c r="K635" s="40"/>
     </row>
-    <row r="636" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39"/>
       <c r="B636" s="34"/>
       <c r="C636" s="34"/>
@@ -12633,7 +12633,7 @@
       <c r="J636" s="34"/>
       <c r="K636" s="40"/>
     </row>
-    <row r="637" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39"/>
       <c r="B637" s="34"/>
       <c r="C637" s="34"/>
@@ -12646,7 +12646,7 @@
       <c r="J637" s="34"/>
       <c r="K637" s="40"/>
     </row>
-    <row r="638" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39"/>
       <c r="B638" s="34"/>
       <c r="C638" s="34"/>
@@ -12659,7 +12659,7 @@
       <c r="J638" s="34"/>
       <c r="K638" s="40"/>
     </row>
-    <row r="639" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39"/>
       <c r="B639" s="34"/>
       <c r="C639" s="34"/>
@@ -12672,7 +12672,7 @@
       <c r="J639" s="34"/>
       <c r="K639" s="40"/>
     </row>
-    <row r="640" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39"/>
       <c r="B640" s="34"/>
       <c r="C640" s="34"/>
@@ -12685,7 +12685,7 @@
       <c r="J640" s="34"/>
       <c r="K640" s="40"/>
     </row>
-    <row r="641" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39"/>
       <c r="B641" s="34"/>
       <c r="C641" s="34"/>
@@ -12698,7 +12698,7 @@
       <c r="J641" s="34"/>
       <c r="K641" s="40"/>
     </row>
-    <row r="642" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39"/>
       <c r="B642" s="34"/>
       <c r="C642" s="34"/>
@@ -12711,7 +12711,7 @@
       <c r="J642" s="34"/>
       <c r="K642" s="40"/>
     </row>
-    <row r="643" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="39"/>
       <c r="B643" s="34"/>
       <c r="C643" s="34"/>
@@ -12724,7 +12724,7 @@
       <c r="J643" s="34"/>
       <c r="K643" s="40"/>
     </row>
-    <row r="644" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39"/>
       <c r="B644" s="34"/>
       <c r="C644" s="34"/>
@@ -12737,7 +12737,7 @@
       <c r="J644" s="34"/>
       <c r="K644" s="40"/>
     </row>
-    <row r="645" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39"/>
       <c r="B645" s="34"/>
       <c r="C645" s="34"/>
@@ -12750,7 +12750,7 @@
       <c r="J645" s="34"/>
       <c r="K645" s="40"/>
     </row>
-    <row r="646" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39"/>
       <c r="B646" s="34"/>
       <c r="C646" s="34"/>
@@ -12763,7 +12763,7 @@
       <c r="J646" s="34"/>
       <c r="K646" s="40"/>
     </row>
-    <row r="647" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39"/>
       <c r="B647" s="34"/>
       <c r="C647" s="34"/>
@@ -12776,7 +12776,7 @@
       <c r="J647" s="34"/>
       <c r="K647" s="40"/>
     </row>
-    <row r="648" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39"/>
       <c r="B648" s="34"/>
       <c r="C648" s="34"/>
@@ -12789,7 +12789,7 @@
       <c r="J648" s="34"/>
       <c r="K648" s="40"/>
     </row>
-    <row r="649" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39"/>
       <c r="B649" s="34"/>
       <c r="C649" s="34"/>
@@ -12802,7 +12802,7 @@
       <c r="J649" s="34"/>
       <c r="K649" s="40"/>
     </row>
-    <row r="650" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39"/>
       <c r="B650" s="34"/>
       <c r="C650" s="34"/>
@@ -12815,7 +12815,7 @@
       <c r="J650" s="34"/>
       <c r="K650" s="40"/>
     </row>
-    <row r="651" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39"/>
       <c r="B651" s="34"/>
       <c r="C651" s="34"/>
@@ -12828,7 +12828,7 @@
       <c r="J651" s="34"/>
       <c r="K651" s="40"/>
     </row>
-    <row r="652" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39"/>
       <c r="B652" s="34"/>
       <c r="C652" s="34"/>
@@ -12841,7 +12841,7 @@
       <c r="J652" s="34"/>
       <c r="K652" s="40"/>
     </row>
-    <row r="653" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39"/>
       <c r="B653" s="34"/>
       <c r="C653" s="34"/>
@@ -12854,7 +12854,7 @@
       <c r="J653" s="34"/>
       <c r="K653" s="40"/>
     </row>
-    <row r="654" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39"/>
       <c r="B654" s="34"/>
       <c r="C654" s="34"/>
@@ -12867,7 +12867,7 @@
       <c r="J654" s="34"/>
       <c r="K654" s="40"/>
     </row>
-    <row r="655" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39"/>
       <c r="B655" s="34"/>
       <c r="C655" s="34"/>
@@ -12880,7 +12880,7 @@
       <c r="J655" s="34"/>
       <c r="K655" s="40"/>
     </row>
-    <row r="656" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39"/>
       <c r="B656" s="34"/>
       <c r="C656" s="34"/>
@@ -12893,7 +12893,7 @@
       <c r="J656" s="34"/>
       <c r="K656" s="40"/>
     </row>
-    <row r="657" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39"/>
       <c r="B657" s="34"/>
       <c r="C657" s="34"/>
@@ -12906,7 +12906,7 @@
       <c r="J657" s="34"/>
       <c r="K657" s="40"/>
     </row>
-    <row r="658" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="39"/>
       <c r="B658" s="34"/>
       <c r="C658" s="34"/>
@@ -12919,7 +12919,7 @@
       <c r="J658" s="34"/>
       <c r="K658" s="40"/>
     </row>
-    <row r="659" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39"/>
       <c r="B659" s="34"/>
       <c r="C659" s="34"/>
@@ -12932,7 +12932,7 @@
       <c r="J659" s="34"/>
       <c r="K659" s="40"/>
     </row>
-    <row r="660" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39"/>
       <c r="B660" s="34"/>
       <c r="C660" s="34"/>
@@ -12945,7 +12945,7 @@
       <c r="J660" s="34"/>
       <c r="K660" s="40"/>
     </row>
-    <row r="661" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="39"/>
       <c r="B661" s="34"/>
       <c r="C661" s="34"/>
@@ -12958,7 +12958,7 @@
       <c r="J661" s="34"/>
       <c r="K661" s="40"/>
     </row>
-    <row r="662" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="39"/>
       <c r="B662" s="34"/>
       <c r="C662" s="34"/>
@@ -12971,7 +12971,7 @@
       <c r="J662" s="34"/>
       <c r="K662" s="40"/>
     </row>
-    <row r="663" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="39"/>
       <c r="B663" s="34"/>
       <c r="C663" s="34"/>
@@ -12984,7 +12984,7 @@
       <c r="J663" s="34"/>
       <c r="K663" s="40"/>
     </row>
-    <row r="664" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="39"/>
       <c r="B664" s="34"/>
       <c r="C664" s="34"/>
@@ -12997,7 +12997,7 @@
       <c r="J664" s="34"/>
       <c r="K664" s="40"/>
     </row>
-    <row r="665" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="39"/>
       <c r="B665" s="34"/>
       <c r="C665" s="34"/>
@@ -13010,7 +13010,7 @@
       <c r="J665" s="34"/>
       <c r="K665" s="40"/>
     </row>
-    <row r="666" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="39"/>
       <c r="B666" s="34"/>
       <c r="C666" s="34"/>
@@ -13023,7 +13023,7 @@
       <c r="J666" s="34"/>
       <c r="K666" s="40"/>
     </row>
-    <row r="667" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="39"/>
       <c r="B667" s="34"/>
       <c r="C667" s="34"/>
@@ -13036,7 +13036,7 @@
       <c r="J667" s="34"/>
       <c r="K667" s="40"/>
     </row>
-    <row r="668" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="39"/>
       <c r="B668" s="34"/>
       <c r="C668" s="34"/>
@@ -13049,7 +13049,7 @@
       <c r="J668" s="34"/>
       <c r="K668" s="40"/>
     </row>
-    <row r="669" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="39"/>
       <c r="B669" s="34"/>
       <c r="C669" s="34"/>
@@ -13062,7 +13062,7 @@
       <c r="J669" s="34"/>
       <c r="K669" s="40"/>
     </row>
-    <row r="670" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="39"/>
       <c r="B670" s="34"/>
       <c r="C670" s="34"/>
@@ -13075,7 +13075,7 @@
       <c r="J670" s="34"/>
       <c r="K670" s="40"/>
     </row>
-    <row r="671" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="39"/>
       <c r="B671" s="34"/>
       <c r="C671" s="34"/>
@@ -13088,7 +13088,7 @@
       <c r="J671" s="34"/>
       <c r="K671" s="40"/>
     </row>
-    <row r="672" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="39"/>
       <c r="B672" s="34"/>
       <c r="C672" s="34"/>
@@ -13101,7 +13101,7 @@
       <c r="J672" s="34"/>
       <c r="K672" s="40"/>
     </row>
-    <row r="673" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="39"/>
       <c r="B673" s="34"/>
       <c r="C673" s="34"/>
@@ -13114,7 +13114,7 @@
       <c r="J673" s="34"/>
       <c r="K673" s="40"/>
     </row>
-    <row r="674" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="39"/>
       <c r="B674" s="34"/>
       <c r="C674" s="34"/>
@@ -13127,7 +13127,7 @@
       <c r="J674" s="34"/>
       <c r="K674" s="40"/>
     </row>
-    <row r="675" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="39"/>
       <c r="B675" s="34"/>
       <c r="C675" s="34"/>
@@ -13140,7 +13140,7 @@
       <c r="J675" s="34"/>
       <c r="K675" s="40"/>
     </row>
-    <row r="676" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="39"/>
       <c r="B676" s="34"/>
       <c r="C676" s="34"/>
@@ -13153,7 +13153,7 @@
       <c r="J676" s="34"/>
       <c r="K676" s="40"/>
     </row>
-    <row r="677" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="39"/>
       <c r="B677" s="34"/>
       <c r="C677" s="34"/>
@@ -13166,7 +13166,7 @@
       <c r="J677" s="34"/>
       <c r="K677" s="40"/>
     </row>
-    <row r="678" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="39"/>
       <c r="B678" s="34"/>
       <c r="C678" s="34"/>
@@ -13179,7 +13179,7 @@
       <c r="J678" s="34"/>
       <c r="K678" s="40"/>
     </row>
-    <row r="679" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="39"/>
       <c r="B679" s="34"/>
       <c r="C679" s="34"/>
@@ -13192,7 +13192,7 @@
       <c r="J679" s="34"/>
       <c r="K679" s="40"/>
     </row>
-    <row r="680" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="39"/>
       <c r="B680" s="34"/>
       <c r="C680" s="34"/>
@@ -13205,7 +13205,7 @@
       <c r="J680" s="34"/>
       <c r="K680" s="40"/>
     </row>
-    <row r="681" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="39"/>
       <c r="B681" s="34"/>
       <c r="C681" s="34"/>
@@ -13218,7 +13218,7 @@
       <c r="J681" s="34"/>
       <c r="K681" s="40"/>
     </row>
-    <row r="682" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="39"/>
       <c r="B682" s="34"/>
       <c r="C682" s="34"/>
@@ -13231,7 +13231,7 @@
       <c r="J682" s="34"/>
       <c r="K682" s="40"/>
     </row>
-    <row r="683" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="39"/>
       <c r="B683" s="34"/>
       <c r="C683" s="34"/>
@@ -13244,7 +13244,7 @@
       <c r="J683" s="34"/>
       <c r="K683" s="40"/>
     </row>
-    <row r="684" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="39"/>
       <c r="B684" s="34"/>
       <c r="C684" s="34"/>
@@ -13257,7 +13257,7 @@
       <c r="J684" s="34"/>
       <c r="K684" s="40"/>
     </row>
-    <row r="685" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="39"/>
       <c r="B685" s="34"/>
       <c r="C685" s="34"/>
@@ -13270,7 +13270,7 @@
       <c r="J685" s="34"/>
       <c r="K685" s="40"/>
     </row>
-    <row r="686" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="39"/>
       <c r="B686" s="34"/>
       <c r="C686" s="34"/>
@@ -13283,7 +13283,7 @@
       <c r="J686" s="34"/>
       <c r="K686" s="40"/>
     </row>
-    <row r="687" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="39"/>
       <c r="B687" s="34"/>
       <c r="C687" s="34"/>
@@ -13296,7 +13296,7 @@
       <c r="J687" s="34"/>
       <c r="K687" s="40"/>
     </row>
-    <row r="688" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="39"/>
       <c r="B688" s="34"/>
       <c r="C688" s="34"/>
@@ -13309,7 +13309,7 @@
       <c r="J688" s="34"/>
       <c r="K688" s="40"/>
     </row>
-    <row r="689" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="39"/>
       <c r="B689" s="34"/>
       <c r="C689" s="34"/>
@@ -13322,7 +13322,7 @@
       <c r="J689" s="34"/>
       <c r="K689" s="40"/>
     </row>
-    <row r="690" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="39"/>
       <c r="B690" s="34"/>
       <c r="C690" s="34"/>
@@ -13335,7 +13335,7 @@
       <c r="J690" s="34"/>
       <c r="K690" s="40"/>
     </row>
-    <row r="691" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="39"/>
       <c r="B691" s="34"/>
       <c r="C691" s="34"/>
@@ -13348,7 +13348,7 @@
       <c r="J691" s="34"/>
       <c r="K691" s="40"/>
     </row>
-    <row r="692" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="39"/>
       <c r="B692" s="34"/>
       <c r="C692" s="34"/>
@@ -13361,7 +13361,7 @@
       <c r="J692" s="34"/>
       <c r="K692" s="40"/>
     </row>
-    <row r="693" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="39"/>
       <c r="B693" s="34"/>
       <c r="C693" s="34"/>
@@ -13374,7 +13374,7 @@
       <c r="J693" s="34"/>
       <c r="K693" s="40"/>
     </row>
-    <row r="694" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="39"/>
       <c r="B694" s="34"/>
       <c r="C694" s="34"/>
@@ -13387,7 +13387,7 @@
       <c r="J694" s="34"/>
       <c r="K694" s="40"/>
     </row>
-    <row r="695" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="39"/>
       <c r="B695" s="34"/>
       <c r="C695" s="34"/>
@@ -13400,7 +13400,7 @@
       <c r="J695" s="34"/>
       <c r="K695" s="40"/>
     </row>
-    <row r="696" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="39"/>
       <c r="B696" s="34"/>
       <c r="C696" s="34"/>
@@ -13413,7 +13413,7 @@
       <c r="J696" s="34"/>
       <c r="K696" s="40"/>
     </row>
-    <row r="697" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="39"/>
       <c r="B697" s="34"/>
       <c r="C697" s="34"/>
@@ -13426,7 +13426,7 @@
       <c r="J697" s="34"/>
       <c r="K697" s="40"/>
     </row>
-    <row r="698" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="39"/>
       <c r="B698" s="34"/>
       <c r="C698" s="34"/>
@@ -13439,7 +13439,7 @@
       <c r="J698" s="34"/>
       <c r="K698" s="40"/>
     </row>
-    <row r="699" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="39"/>
       <c r="B699" s="34"/>
       <c r="C699" s="34"/>
@@ -13452,7 +13452,7 @@
       <c r="J699" s="34"/>
       <c r="K699" s="40"/>
     </row>
-    <row r="700" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="39"/>
       <c r="B700" s="34"/>
       <c r="C700" s="34"/>
@@ -13465,7 +13465,7 @@
       <c r="J700" s="34"/>
       <c r="K700" s="40"/>
     </row>
-    <row r="701" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="39"/>
       <c r="B701" s="34"/>
       <c r="C701" s="34"/>
@@ -13478,7 +13478,7 @@
       <c r="J701" s="34"/>
       <c r="K701" s="40"/>
     </row>
-    <row r="702" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="39"/>
       <c r="B702" s="34"/>
       <c r="C702" s="34"/>
@@ -13491,7 +13491,7 @@
       <c r="J702" s="34"/>
       <c r="K702" s="40"/>
     </row>
-    <row r="703" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="39"/>
       <c r="B703" s="34"/>
       <c r="C703" s="34"/>
@@ -13504,7 +13504,7 @@
       <c r="J703" s="34"/>
       <c r="K703" s="40"/>
     </row>
-    <row r="704" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="39"/>
       <c r="B704" s="34"/>
       <c r="C704" s="34"/>
@@ -13517,7 +13517,7 @@
       <c r="J704" s="34"/>
       <c r="K704" s="40"/>
     </row>
-    <row r="705" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="39"/>
       <c r="B705" s="34"/>
       <c r="C705" s="34"/>
@@ -13530,7 +13530,7 @@
       <c r="J705" s="34"/>
       <c r="K705" s="40"/>
     </row>
-    <row r="706" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="39"/>
       <c r="B706" s="34"/>
       <c r="C706" s="34"/>
@@ -13543,7 +13543,7 @@
       <c r="J706" s="34"/>
       <c r="K706" s="40"/>
     </row>
-    <row r="707" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="39"/>
       <c r="B707" s="34"/>
       <c r="C707" s="34"/>
@@ -13556,7 +13556,7 @@
       <c r="J707" s="34"/>
       <c r="K707" s="40"/>
     </row>
-    <row r="708" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="39"/>
       <c r="B708" s="34"/>
       <c r="C708" s="34"/>
@@ -13569,7 +13569,7 @@
       <c r="J708" s="34"/>
       <c r="K708" s="40"/>
     </row>
-    <row r="709" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="39"/>
       <c r="B709" s="34"/>
       <c r="C709" s="34"/>
@@ -13582,7 +13582,7 @@
       <c r="J709" s="34"/>
       <c r="K709" s="40"/>
     </row>
-    <row r="710" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="39"/>
       <c r="B710" s="34"/>
       <c r="C710" s="34"/>
@@ -13595,7 +13595,7 @@
       <c r="J710" s="34"/>
       <c r="K710" s="40"/>
     </row>
-    <row r="711" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="39"/>
       <c r="B711" s="34"/>
       <c r="C711" s="34"/>
@@ -13608,7 +13608,7 @@
       <c r="J711" s="34"/>
       <c r="K711" s="40"/>
     </row>
-    <row r="712" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="39"/>
       <c r="B712" s="34"/>
       <c r="C712" s="34"/>
@@ -13621,7 +13621,7 @@
       <c r="J712" s="34"/>
       <c r="K712" s="40"/>
     </row>
-    <row r="713" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="39"/>
       <c r="B713" s="34"/>
       <c r="C713" s="34"/>
@@ -13634,7 +13634,7 @@
       <c r="J713" s="34"/>
       <c r="K713" s="40"/>
     </row>
-    <row r="714" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="39"/>
       <c r="B714" s="34"/>
       <c r="C714" s="34"/>
@@ -13647,7 +13647,7 @@
       <c r="J714" s="34"/>
       <c r="K714" s="40"/>
     </row>
-    <row r="715" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="39"/>
       <c r="B715" s="34"/>
       <c r="C715" s="34"/>
@@ -13660,7 +13660,7 @@
       <c r="J715" s="34"/>
       <c r="K715" s="40"/>
     </row>
-    <row r="716" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="39"/>
       <c r="B716" s="34"/>
       <c r="C716" s="34"/>
@@ -13673,7 +13673,7 @@
       <c r="J716" s="34"/>
       <c r="K716" s="40"/>
     </row>
-    <row r="717" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="39"/>
       <c r="B717" s="34"/>
       <c r="C717" s="34"/>
@@ -13686,7 +13686,7 @@
       <c r="J717" s="34"/>
       <c r="K717" s="40"/>
     </row>
-    <row r="718" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="39"/>
       <c r="B718" s="34"/>
       <c r="C718" s="34"/>
@@ -13699,7 +13699,7 @@
       <c r="J718" s="34"/>
       <c r="K718" s="40"/>
     </row>
-    <row r="719" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="39"/>
       <c r="B719" s="34"/>
       <c r="C719" s="34"/>
@@ -13712,7 +13712,7 @@
       <c r="J719" s="34"/>
       <c r="K719" s="40"/>
     </row>
-    <row r="720" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="39"/>
       <c r="B720" s="34"/>
       <c r="C720" s="34"/>
@@ -13725,7 +13725,7 @@
       <c r="J720" s="34"/>
       <c r="K720" s="40"/>
     </row>
-    <row r="721" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="39"/>
       <c r="B721" s="34"/>
       <c r="C721" s="34"/>
@@ -13738,7 +13738,7 @@
       <c r="J721" s="34"/>
       <c r="K721" s="40"/>
     </row>
-    <row r="722" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="39"/>
       <c r="B722" s="34"/>
       <c r="C722" s="34"/>
@@ -13751,7 +13751,7 @@
       <c r="J722" s="34"/>
       <c r="K722" s="40"/>
     </row>
-    <row r="723" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="39"/>
       <c r="B723" s="34"/>
       <c r="C723" s="34"/>
@@ -13764,7 +13764,7 @@
       <c r="J723" s="34"/>
       <c r="K723" s="40"/>
     </row>
-    <row r="724" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="39"/>
       <c r="B724" s="34"/>
       <c r="C724" s="34"/>
@@ -13777,7 +13777,7 @@
       <c r="J724" s="34"/>
       <c r="K724" s="40"/>
     </row>
-    <row r="725" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="39"/>
       <c r="B725" s="34"/>
       <c r="C725" s="34"/>
@@ -13790,7 +13790,7 @@
       <c r="J725" s="34"/>
       <c r="K725" s="40"/>
     </row>
-    <row r="726" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="39"/>
       <c r="B726" s="34"/>
       <c r="C726" s="34"/>
@@ -13803,7 +13803,7 @@
       <c r="J726" s="34"/>
       <c r="K726" s="40"/>
     </row>
-    <row r="727" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="39"/>
       <c r="B727" s="34"/>
       <c r="C727" s="34"/>
@@ -13816,7 +13816,7 @@
       <c r="J727" s="34"/>
       <c r="K727" s="40"/>
     </row>
-    <row r="728" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="39"/>
       <c r="B728" s="34"/>
       <c r="C728" s="34"/>
@@ -13829,7 +13829,7 @@
       <c r="J728" s="34"/>
       <c r="K728" s="40"/>
     </row>
-    <row r="729" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="39"/>
       <c r="B729" s="34"/>
       <c r="C729" s="34"/>
@@ -13842,7 +13842,7 @@
       <c r="J729" s="34"/>
       <c r="K729" s="40"/>
     </row>
-    <row r="730" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="39"/>
       <c r="B730" s="34"/>
       <c r="C730" s="34"/>
@@ -13855,7 +13855,7 @@
       <c r="J730" s="34"/>
       <c r="K730" s="40"/>
     </row>
-    <row r="731" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="39"/>
       <c r="B731" s="34"/>
       <c r="C731" s="34"/>
@@ -13868,7 +13868,7 @@
       <c r="J731" s="34"/>
       <c r="K731" s="40"/>
     </row>
-    <row r="732" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="39"/>
       <c r="B732" s="34"/>
       <c r="C732" s="34"/>
@@ -13881,7 +13881,7 @@
       <c r="J732" s="34"/>
       <c r="K732" s="40"/>
     </row>
-    <row r="733" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="39"/>
       <c r="B733" s="34"/>
       <c r="C733" s="34"/>
@@ -13894,7 +13894,7 @@
       <c r="J733" s="34"/>
       <c r="K733" s="40"/>
     </row>
-    <row r="734" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="39"/>
       <c r="B734" s="34"/>
       <c r="C734" s="34"/>
@@ -13907,7 +13907,7 @@
       <c r="J734" s="34"/>
       <c r="K734" s="40"/>
     </row>
-    <row r="735" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="39"/>
       <c r="B735" s="34"/>
       <c r="C735" s="34"/>
@@ -13920,7 +13920,7 @@
       <c r="J735" s="34"/>
       <c r="K735" s="40"/>
     </row>
-    <row r="736" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="39"/>
       <c r="B736" s="34"/>
       <c r="C736" s="34"/>
@@ -13933,7 +13933,7 @@
       <c r="J736" s="34"/>
       <c r="K736" s="40"/>
     </row>
-    <row r="737" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="39"/>
       <c r="B737" s="34"/>
       <c r="C737" s="34"/>
@@ -13946,7 +13946,7 @@
       <c r="J737" s="34"/>
       <c r="K737" s="40"/>
     </row>
-    <row r="738" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="39"/>
       <c r="B738" s="34"/>
       <c r="C738" s="34"/>
@@ -13959,7 +13959,7 @@
       <c r="J738" s="34"/>
       <c r="K738" s="40"/>
     </row>
-    <row r="739" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="39"/>
       <c r="B739" s="34"/>
       <c r="C739" s="34"/>
@@ -13972,7 +13972,7 @@
       <c r="J739" s="34"/>
       <c r="K739" s="40"/>
     </row>
-    <row r="740" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="39"/>
       <c r="B740" s="34"/>
       <c r="C740" s="34"/>
@@ -13985,7 +13985,7 @@
       <c r="J740" s="34"/>
       <c r="K740" s="40"/>
     </row>
-    <row r="741" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="39"/>
       <c r="B741" s="34"/>
       <c r="C741" s="34"/>
@@ -13998,7 +13998,7 @@
       <c r="J741" s="34"/>
       <c r="K741" s="40"/>
     </row>
-    <row r="742" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="39"/>
       <c r="B742" s="34"/>
       <c r="C742" s="34"/>
@@ -14011,7 +14011,7 @@
       <c r="J742" s="34"/>
       <c r="K742" s="40"/>
     </row>
-    <row r="743" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="39"/>
       <c r="B743" s="34"/>
       <c r="C743" s="34"/>
@@ -14024,7 +14024,7 @@
       <c r="J743" s="34"/>
       <c r="K743" s="40"/>
     </row>
-    <row r="744" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="39"/>
       <c r="B744" s="34"/>
       <c r="C744" s="34"/>
@@ -14037,7 +14037,7 @@
       <c r="J744" s="34"/>
       <c r="K744" s="40"/>
     </row>
-    <row r="745" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="39"/>
       <c r="B745" s="34"/>
       <c r="C745" s="34"/>
@@ -14050,7 +14050,7 @@
       <c r="J745" s="34"/>
       <c r="K745" s="40"/>
     </row>
-    <row r="746" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="39"/>
       <c r="B746" s="34"/>
       <c r="C746" s="34"/>
@@ -14063,7 +14063,7 @@
       <c r="J746" s="34"/>
       <c r="K746" s="40"/>
     </row>
-    <row r="747" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="39"/>
       <c r="B747" s="34"/>
       <c r="C747" s="34"/>
@@ -14076,7 +14076,7 @@
       <c r="J747" s="34"/>
       <c r="K747" s="40"/>
     </row>
-    <row r="748" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="39"/>
       <c r="B748" s="34"/>
       <c r="C748" s="34"/>
@@ -14089,7 +14089,7 @@
       <c r="J748" s="34"/>
       <c r="K748" s="40"/>
     </row>
-    <row r="749" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="39"/>
       <c r="B749" s="34"/>
       <c r="C749" s="34"/>
@@ -14102,7 +14102,7 @@
       <c r="J749" s="34"/>
       <c r="K749" s="40"/>
     </row>
-    <row r="750" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="39"/>
       <c r="B750" s="34"/>
       <c r="C750" s="34"/>
@@ -14115,7 +14115,7 @@
       <c r="J750" s="34"/>
       <c r="K750" s="40"/>
     </row>
-    <row r="751" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="39"/>
       <c r="B751" s="34"/>
       <c r="C751" s="34"/>
@@ -14128,7 +14128,7 @@
       <c r="J751" s="34"/>
       <c r="K751" s="40"/>
     </row>
-    <row r="752" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="39"/>
       <c r="B752" s="34"/>
       <c r="C752" s="34"/>
@@ -14141,7 +14141,7 @@
       <c r="J752" s="34"/>
       <c r="K752" s="40"/>
     </row>
-    <row r="753" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="39"/>
       <c r="B753" s="34"/>
       <c r="C753" s="34"/>
@@ -14154,7 +14154,7 @@
       <c r="J753" s="34"/>
       <c r="K753" s="40"/>
     </row>
-    <row r="754" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="39"/>
       <c r="B754" s="34"/>
       <c r="C754" s="34"/>
@@ -14167,7 +14167,7 @@
       <c r="J754" s="34"/>
       <c r="K754" s="40"/>
     </row>
-    <row r="755" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="39"/>
       <c r="B755" s="34"/>
       <c r="C755" s="34"/>
@@ -14180,7 +14180,7 @@
       <c r="J755" s="34"/>
       <c r="K755" s="40"/>
     </row>
-    <row r="756" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="39"/>
       <c r="B756" s="34"/>
       <c r="C756" s="34"/>
@@ -14193,7 +14193,7 @@
       <c r="J756" s="34"/>
       <c r="K756" s="40"/>
     </row>
-    <row r="757" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="39"/>
       <c r="B757" s="34"/>
       <c r="C757" s="34"/>
@@ -14206,7 +14206,7 @@
       <c r="J757" s="34"/>
       <c r="K757" s="40"/>
     </row>
-    <row r="758" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="39"/>
       <c r="B758" s="34"/>
       <c r="C758" s="34"/>
@@ -14219,7 +14219,7 @@
       <c r="J758" s="34"/>
       <c r="K758" s="40"/>
     </row>
-    <row r="759" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="39"/>
       <c r="B759" s="34"/>
       <c r="C759" s="34"/>
@@ -14232,7 +14232,7 @@
       <c r="J759" s="34"/>
       <c r="K759" s="40"/>
     </row>
-    <row r="760" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="39"/>
       <c r="B760" s="34"/>
       <c r="C760" s="34"/>
@@ -14245,7 +14245,7 @@
       <c r="J760" s="34"/>
       <c r="K760" s="40"/>
     </row>
-    <row r="761" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="39"/>
       <c r="B761" s="34"/>
       <c r="C761" s="34"/>
@@ -14258,7 +14258,7 @@
       <c r="J761" s="34"/>
       <c r="K761" s="40"/>
     </row>
-    <row r="762" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="39"/>
       <c r="B762" s="34"/>
       <c r="C762" s="34"/>
@@ -14271,7 +14271,7 @@
       <c r="J762" s="34"/>
       <c r="K762" s="40"/>
     </row>
-    <row r="763" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="39"/>
       <c r="B763" s="34"/>
       <c r="C763" s="34"/>
@@ -14284,7 +14284,7 @@
       <c r="J763" s="34"/>
       <c r="K763" s="40"/>
     </row>
-    <row r="764" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="39"/>
       <c r="B764" s="34"/>
       <c r="C764" s="34"/>
@@ -14297,7 +14297,7 @@
       <c r="J764" s="34"/>
       <c r="K764" s="40"/>
     </row>
-    <row r="765" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="39"/>
       <c r="B765" s="34"/>
       <c r="C765" s="34"/>
@@ -14310,7 +14310,7 @@
       <c r="J765" s="34"/>
       <c r="K765" s="40"/>
     </row>
-    <row r="766" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="39"/>
       <c r="B766" s="34"/>
       <c r="C766" s="34"/>
@@ -14323,7 +14323,7 @@
       <c r="J766" s="34"/>
       <c r="K766" s="40"/>
     </row>
-    <row r="767" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="39"/>
       <c r="B767" s="34"/>
       <c r="C767" s="34"/>
@@ -14336,7 +14336,7 @@
       <c r="J767" s="34"/>
       <c r="K767" s="40"/>
     </row>
-    <row r="768" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="39"/>
       <c r="B768" s="34"/>
       <c r="C768" s="34"/>
@@ -14349,7 +14349,7 @@
       <c r="J768" s="34"/>
       <c r="K768" s="40"/>
     </row>
-    <row r="769" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="39"/>
       <c r="B769" s="34"/>
       <c r="C769" s="34"/>
@@ -14362,7 +14362,7 @@
       <c r="J769" s="34"/>
       <c r="K769" s="40"/>
     </row>
-    <row r="770" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="39"/>
       <c r="B770" s="34"/>
       <c r="C770" s="34"/>
@@ -14375,7 +14375,7 @@
       <c r="J770" s="34"/>
       <c r="K770" s="40"/>
     </row>
-    <row r="771" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="39"/>
       <c r="B771" s="34"/>
       <c r="C771" s="34"/>
@@ -14388,7 +14388,7 @@
       <c r="J771" s="34"/>
       <c r="K771" s="40"/>
     </row>
-    <row r="772" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="39"/>
       <c r="B772" s="34"/>
       <c r="C772" s="34"/>
@@ -14401,7 +14401,7 @@
       <c r="J772" s="34"/>
       <c r="K772" s="40"/>
     </row>
-    <row r="773" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="39"/>
       <c r="B773" s="34"/>
       <c r="C773" s="34"/>
@@ -14414,7 +14414,7 @@
       <c r="J773" s="34"/>
       <c r="K773" s="40"/>
     </row>
-    <row r="774" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="39"/>
       <c r="B774" s="34"/>
       <c r="C774" s="34"/>
@@ -14427,7 +14427,7 @@
       <c r="J774" s="34"/>
       <c r="K774" s="40"/>
     </row>
-    <row r="775" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="39"/>
       <c r="B775" s="34"/>
       <c r="C775" s="34"/>
@@ -14440,7 +14440,7 @@
       <c r="J775" s="34"/>
       <c r="K775" s="40"/>
     </row>
-    <row r="776" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="39"/>
       <c r="B776" s="34"/>
       <c r="C776" s="34"/>
@@ -14453,7 +14453,7 @@
       <c r="J776" s="34"/>
       <c r="K776" s="40"/>
     </row>
-    <row r="777" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="39"/>
       <c r="B777" s="34"/>
       <c r="C777" s="34"/>
@@ -14466,7 +14466,7 @@
       <c r="J777" s="34"/>
       <c r="K777" s="40"/>
     </row>
-    <row r="778" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="39"/>
       <c r="B778" s="34"/>
       <c r="C778" s="34"/>
@@ -14479,7 +14479,7 @@
       <c r="J778" s="34"/>
       <c r="K778" s="40"/>
     </row>
-    <row r="779" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="39"/>
       <c r="B779" s="34"/>
       <c r="C779" s="34"/>
@@ -14492,7 +14492,7 @@
       <c r="J779" s="34"/>
       <c r="K779" s="40"/>
     </row>
-    <row r="780" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="39"/>
       <c r="B780" s="34"/>
       <c r="C780" s="34"/>
@@ -14505,7 +14505,7 @@
       <c r="J780" s="34"/>
       <c r="K780" s="40"/>
     </row>
-    <row r="781" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="39"/>
       <c r="B781" s="34"/>
       <c r="C781" s="34"/>
@@ -14518,7 +14518,7 @@
       <c r="J781" s="34"/>
       <c r="K781" s="40"/>
     </row>
-    <row r="782" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="39"/>
       <c r="B782" s="34"/>
       <c r="C782" s="34"/>
@@ -14531,7 +14531,7 @@
       <c r="J782" s="34"/>
       <c r="K782" s="40"/>
     </row>
-    <row r="783" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="39"/>
       <c r="B783" s="34"/>
       <c r="C783" s="34"/>
@@ -14544,7 +14544,7 @@
       <c r="J783" s="34"/>
       <c r="K783" s="40"/>
     </row>
-    <row r="784" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="39"/>
       <c r="B784" s="34"/>
       <c r="C784" s="34"/>
@@ -14557,7 +14557,7 @@
       <c r="J784" s="34"/>
       <c r="K784" s="40"/>
     </row>
-    <row r="785" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="39"/>
       <c r="B785" s="34"/>
       <c r="C785" s="34"/>
@@ -14570,7 +14570,7 @@
       <c r="J785" s="34"/>
       <c r="K785" s="40"/>
     </row>
-    <row r="786" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="39"/>
       <c r="B786" s="34"/>
       <c r="C786" s="34"/>
@@ -14583,7 +14583,7 @@
       <c r="J786" s="34"/>
       <c r="K786" s="40"/>
     </row>
-    <row r="787" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="39"/>
       <c r="B787" s="34"/>
       <c r="C787" s="34"/>
@@ -14596,7 +14596,7 @@
       <c r="J787" s="34"/>
       <c r="K787" s="40"/>
     </row>
-    <row r="788" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="39"/>
       <c r="B788" s="34"/>
       <c r="C788" s="34"/>
@@ -14609,7 +14609,7 @@
       <c r="J788" s="34"/>
       <c r="K788" s="40"/>
     </row>
-    <row r="789" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="39"/>
       <c r="B789" s="34"/>
       <c r="C789" s="34"/>
@@ -14622,7 +14622,7 @@
       <c r="J789" s="34"/>
       <c r="K789" s="40"/>
     </row>
-    <row r="790" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="39"/>
       <c r="B790" s="34"/>
       <c r="C790" s="34"/>
@@ -14635,7 +14635,7 @@
       <c r="J790" s="34"/>
       <c r="K790" s="40"/>
     </row>
-    <row r="791" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="39"/>
       <c r="B791" s="34"/>
       <c r="C791" s="34"/>
@@ -14648,7 +14648,7 @@
       <c r="J791" s="34"/>
       <c r="K791" s="40"/>
     </row>
-    <row r="792" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="39"/>
       <c r="B792" s="34"/>
       <c r="C792" s="34"/>
@@ -14661,7 +14661,7 @@
       <c r="J792" s="34"/>
       <c r="K792" s="40"/>
     </row>
-    <row r="793" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="39"/>
       <c r="B793" s="34"/>
       <c r="C793" s="34"/>
@@ -14674,7 +14674,7 @@
       <c r="J793" s="34"/>
       <c r="K793" s="40"/>
     </row>
-    <row r="794" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="39"/>
       <c r="B794" s="34"/>
       <c r="C794" s="34"/>
@@ -14687,7 +14687,7 @@
       <c r="J794" s="34"/>
       <c r="K794" s="40"/>
     </row>
-    <row r="795" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="39"/>
       <c r="B795" s="34"/>
       <c r="C795" s="34"/>
@@ -14700,7 +14700,7 @@
       <c r="J795" s="34"/>
       <c r="K795" s="40"/>
     </row>
-    <row r="796" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="39"/>
       <c r="B796" s="34"/>
       <c r="C796" s="34"/>
@@ -14713,7 +14713,7 @@
       <c r="J796" s="34"/>
       <c r="K796" s="40"/>
     </row>
-    <row r="797" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="39"/>
       <c r="B797" s="34"/>
       <c r="C797" s="34"/>
@@ -14726,7 +14726,7 @@
       <c r="J797" s="34"/>
       <c r="K797" s="40"/>
     </row>
-    <row r="798" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="39"/>
       <c r="B798" s="34"/>
       <c r="C798" s="34"/>
@@ -14739,7 +14739,7 @@
       <c r="J798" s="34"/>
       <c r="K798" s="40"/>
     </row>
-    <row r="799" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="39"/>
       <c r="B799" s="34"/>
       <c r="C799" s="34"/>
@@ -14752,7 +14752,7 @@
       <c r="J799" s="34"/>
       <c r="K799" s="40"/>
     </row>
-    <row r="800" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="39"/>
       <c r="B800" s="34"/>
       <c r="C800" s="34"/>
@@ -14765,7 +14765,7 @@
       <c r="J800" s="34"/>
       <c r="K800" s="40"/>
     </row>
-    <row r="801" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="39"/>
       <c r="B801" s="34"/>
       <c r="C801" s="34"/>
@@ -14778,7 +14778,7 @@
       <c r="J801" s="34"/>
       <c r="K801" s="40"/>
     </row>
-    <row r="802" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="39"/>
       <c r="B802" s="34"/>
       <c r="C802" s="34"/>
@@ -14791,7 +14791,7 @@
       <c r="J802" s="34"/>
       <c r="K802" s="40"/>
     </row>
-    <row r="803" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="39"/>
       <c r="B803" s="34"/>
       <c r="C803" s="34"/>
@@ -14804,7 +14804,7 @@
       <c r="J803" s="34"/>
       <c r="K803" s="40"/>
     </row>
-    <row r="804" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="39"/>
       <c r="B804" s="34"/>
       <c r="C804" s="34"/>
@@ -14817,7 +14817,7 @@
       <c r="J804" s="34"/>
       <c r="K804" s="40"/>
     </row>
-    <row r="805" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="39"/>
       <c r="B805" s="34"/>
       <c r="C805" s="34"/>
@@ -14830,7 +14830,7 @@
       <c r="J805" s="34"/>
       <c r="K805" s="40"/>
     </row>
-    <row r="806" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="39"/>
       <c r="B806" s="34"/>
       <c r="C806" s="34"/>
@@ -14843,7 +14843,7 @@
       <c r="J806" s="34"/>
       <c r="K806" s="40"/>
     </row>
-    <row r="807" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="39"/>
       <c r="B807" s="34"/>
       <c r="C807" s="34"/>
@@ -14856,7 +14856,7 @@
       <c r="J807" s="34"/>
       <c r="K807" s="40"/>
     </row>
-    <row r="808" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="39"/>
       <c r="B808" s="34"/>
       <c r="C808" s="34"/>
@@ -14869,7 +14869,7 @@
       <c r="J808" s="34"/>
       <c r="K808" s="40"/>
     </row>
-    <row r="809" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="39"/>
       <c r="B809" s="34"/>
       <c r="C809" s="34"/>
@@ -14882,7 +14882,7 @@
       <c r="J809" s="34"/>
       <c r="K809" s="40"/>
     </row>
-    <row r="810" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="39"/>
       <c r="B810" s="34"/>
       <c r="C810" s="34"/>
@@ -14895,7 +14895,7 @@
       <c r="J810" s="34"/>
       <c r="K810" s="40"/>
     </row>
-    <row r="811" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="39"/>
       <c r="B811" s="34"/>
       <c r="C811" s="34"/>
@@ -14908,7 +14908,7 @@
       <c r="J811" s="34"/>
       <c r="K811" s="40"/>
     </row>
-    <row r="812" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="39"/>
       <c r="B812" s="34"/>
       <c r="C812" s="34"/>
@@ -14921,7 +14921,7 @@
       <c r="J812" s="34"/>
       <c r="K812" s="40"/>
     </row>
-    <row r="813" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="39"/>
       <c r="B813" s="34"/>
       <c r="C813" s="34"/>
@@ -14934,7 +14934,7 @@
       <c r="J813" s="34"/>
       <c r="K813" s="40"/>
     </row>
-    <row r="814" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="39"/>
       <c r="B814" s="34"/>
       <c r="C814" s="34"/>
@@ -14947,7 +14947,7 @@
       <c r="J814" s="34"/>
       <c r="K814" s="40"/>
     </row>
-    <row r="815" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="39"/>
       <c r="B815" s="34"/>
       <c r="C815" s="34"/>
@@ -14960,7 +14960,7 @@
       <c r="J815" s="34"/>
       <c r="K815" s="40"/>
     </row>
-    <row r="816" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="39"/>
       <c r="B816" s="34"/>
       <c r="C816" s="34"/>
@@ -14973,7 +14973,7 @@
       <c r="J816" s="34"/>
       <c r="K816" s="40"/>
     </row>
-    <row r="817" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="39"/>
       <c r="B817" s="34"/>
       <c r="C817" s="34"/>
@@ -14986,7 +14986,7 @@
       <c r="J817" s="34"/>
       <c r="K817" s="40"/>
     </row>
-    <row r="818" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="39"/>
       <c r="B818" s="34"/>
       <c r="C818" s="34"/>
@@ -14999,7 +14999,7 @@
       <c r="J818" s="34"/>
       <c r="K818" s="40"/>
     </row>
-    <row r="819" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="39"/>
       <c r="B819" s="34"/>
       <c r="C819" s="34"/>
@@ -15012,7 +15012,7 @@
       <c r="J819" s="34"/>
       <c r="K819" s="40"/>
     </row>
-    <row r="820" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="39"/>
       <c r="B820" s="34"/>
       <c r="C820" s="34"/>
@@ -15025,7 +15025,7 @@
       <c r="J820" s="34"/>
       <c r="K820" s="40"/>
     </row>
-    <row r="821" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="39"/>
       <c r="B821" s="34"/>
       <c r="C821" s="34"/>
@@ -15038,7 +15038,7 @@
       <c r="J821" s="34"/>
       <c r="K821" s="40"/>
     </row>
-    <row r="822" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="39"/>
       <c r="B822" s="34"/>
       <c r="C822" s="34"/>
@@ -15051,7 +15051,7 @@
       <c r="J822" s="34"/>
       <c r="K822" s="40"/>
     </row>
-    <row r="823" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="39"/>
       <c r="B823" s="34"/>
       <c r="C823" s="34"/>
@@ -15064,7 +15064,7 @@
       <c r="J823" s="34"/>
       <c r="K823" s="40"/>
     </row>
-    <row r="824" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="39"/>
       <c r="B824" s="34"/>
       <c r="C824" s="34"/>
@@ -15077,7 +15077,7 @@
       <c r="J824" s="34"/>
       <c r="K824" s="40"/>
     </row>
-    <row r="825" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="39"/>
       <c r="B825" s="34"/>
       <c r="C825" s="34"/>
@@ -15090,7 +15090,7 @@
       <c r="J825" s="34"/>
       <c r="K825" s="40"/>
     </row>
-    <row r="826" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="39"/>
       <c r="B826" s="34"/>
       <c r="C826" s="34"/>
@@ -15103,7 +15103,7 @@
       <c r="J826" s="34"/>
       <c r="K826" s="40"/>
     </row>
-    <row r="827" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="39"/>
       <c r="B827" s="34"/>
       <c r="C827" s="34"/>
@@ -15116,7 +15116,7 @@
       <c r="J827" s="34"/>
       <c r="K827" s="40"/>
     </row>
-    <row r="828" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="39"/>
       <c r="B828" s="34"/>
       <c r="C828" s="34"/>
@@ -15129,7 +15129,7 @@
       <c r="J828" s="34"/>
       <c r="K828" s="40"/>
     </row>
-    <row r="829" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="39"/>
       <c r="B829" s="34"/>
       <c r="C829" s="34"/>
@@ -15142,7 +15142,7 @@
       <c r="J829" s="34"/>
       <c r="K829" s="40"/>
     </row>
-    <row r="830" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="39"/>
       <c r="B830" s="34"/>
       <c r="C830" s="34"/>
@@ -15155,7 +15155,7 @@
       <c r="J830" s="34"/>
       <c r="K830" s="40"/>
     </row>
-    <row r="831" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="39"/>
       <c r="B831" s="34"/>
       <c r="C831" s="34"/>
@@ -15168,7 +15168,7 @@
       <c r="J831" s="34"/>
       <c r="K831" s="40"/>
     </row>
-    <row r="832" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="39"/>
       <c r="B832" s="34"/>
       <c r="C832" s="34"/>
@@ -15181,7 +15181,7 @@
       <c r="J832" s="34"/>
       <c r="K832" s="40"/>
     </row>
-    <row r="833" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="39"/>
       <c r="B833" s="34"/>
       <c r="C833" s="34"/>
@@ -15194,7 +15194,7 @@
       <c r="J833" s="34"/>
       <c r="K833" s="40"/>
     </row>
-    <row r="834" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="39"/>
       <c r="B834" s="34"/>
       <c r="C834" s="34"/>
@@ -15207,7 +15207,7 @@
       <c r="J834" s="34"/>
       <c r="K834" s="40"/>
     </row>
-    <row r="835" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="39"/>
       <c r="B835" s="34"/>
       <c r="C835" s="34"/>
@@ -15220,7 +15220,7 @@
       <c r="J835" s="34"/>
       <c r="K835" s="40"/>
     </row>
-    <row r="836" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="39"/>
       <c r="B836" s="34"/>
       <c r="C836" s="34"/>
@@ -15233,7 +15233,7 @@
       <c r="J836" s="34"/>
       <c r="K836" s="40"/>
     </row>
-    <row r="837" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="39"/>
       <c r="B837" s="34"/>
       <c r="C837" s="34"/>
@@ -15246,7 +15246,7 @@
       <c r="J837" s="34"/>
       <c r="K837" s="40"/>
     </row>
-    <row r="838" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="39"/>
       <c r="B838" s="34"/>
       <c r="C838" s="34"/>
@@ -15259,7 +15259,7 @@
       <c r="J838" s="34"/>
       <c r="K838" s="40"/>
     </row>
-    <row r="839" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="39"/>
       <c r="B839" s="34"/>
       <c r="C839" s="34"/>
@@ -15272,7 +15272,7 @@
       <c r="J839" s="34"/>
       <c r="K839" s="40"/>
     </row>
-    <row r="840" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="39"/>
       <c r="B840" s="34"/>
       <c r="C840" s="34"/>
@@ -15285,7 +15285,7 @@
       <c r="J840" s="34"/>
       <c r="K840" s="40"/>
     </row>
-    <row r="841" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="39"/>
       <c r="B841" s="34"/>
       <c r="C841" s="34"/>
@@ -15298,7 +15298,7 @@
       <c r="J841" s="34"/>
       <c r="K841" s="40"/>
     </row>
-    <row r="842" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="39"/>
       <c r="B842" s="34"/>
       <c r="C842" s="34"/>
@@ -15311,7 +15311,7 @@
       <c r="J842" s="34"/>
       <c r="K842" s="40"/>
     </row>
-    <row r="843" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="39"/>
       <c r="B843" s="34"/>
       <c r="C843" s="34"/>
@@ -15324,7 +15324,7 @@
       <c r="J843" s="34"/>
       <c r="K843" s="40"/>
     </row>
-    <row r="844" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="39"/>
       <c r="B844" s="34"/>
       <c r="C844" s="34"/>
@@ -15337,7 +15337,7 @@
       <c r="J844" s="34"/>
       <c r="K844" s="40"/>
     </row>
-    <row r="845" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="39"/>
       <c r="B845" s="34"/>
       <c r="C845" s="34"/>
@@ -15350,7 +15350,7 @@
       <c r="J845" s="34"/>
       <c r="K845" s="40"/>
     </row>
-    <row r="846" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="39"/>
       <c r="B846" s="34"/>
       <c r="C846" s="34"/>
@@ -15363,7 +15363,7 @@
       <c r="J846" s="34"/>
       <c r="K846" s="40"/>
     </row>
-    <row r="847" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" s="39"/>
       <c r="B847" s="34"/>
       <c r="C847" s="34"/>
@@ -15376,7 +15376,7 @@
       <c r="J847" s="34"/>
       <c r="K847" s="40"/>
     </row>
-    <row r="848" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" s="39"/>
       <c r="B848" s="34"/>
       <c r="C848" s="34"/>
@@ -15389,7 +15389,7 @@
       <c r="J848" s="34"/>
       <c r="K848" s="40"/>
     </row>
-    <row r="849" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" s="39"/>
       <c r="B849" s="34"/>
       <c r="C849" s="34"/>
@@ -15402,7 +15402,7 @@
       <c r="J849" s="34"/>
       <c r="K849" s="40"/>
     </row>
-    <row r="850" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" s="39"/>
       <c r="B850" s="34"/>
       <c r="C850" s="34"/>
@@ -15415,7 +15415,7 @@
       <c r="J850" s="34"/>
       <c r="K850" s="40"/>
     </row>
-    <row r="851" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" s="39"/>
       <c r="B851" s="34"/>
       <c r="C851" s="34"/>
@@ -15428,7 +15428,7 @@
       <c r="J851" s="34"/>
       <c r="K851" s="40"/>
     </row>
-    <row r="852" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" s="39"/>
       <c r="B852" s="34"/>
       <c r="C852" s="34"/>
@@ -15441,7 +15441,7 @@
       <c r="J852" s="34"/>
       <c r="K852" s="40"/>
     </row>
-    <row r="853" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" s="39"/>
       <c r="B853" s="34"/>
       <c r="C853" s="34"/>
@@ -15454,7 +15454,7 @@
       <c r="J853" s="34"/>
       <c r="K853" s="40"/>
     </row>
-    <row r="854" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" s="39"/>
       <c r="B854" s="34"/>
       <c r="C854" s="34"/>
@@ -15467,7 +15467,7 @@
       <c r="J854" s="34"/>
       <c r="K854" s="40"/>
     </row>
-    <row r="855" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" s="39"/>
       <c r="B855" s="34"/>
       <c r="C855" s="34"/>
@@ -15480,7 +15480,7 @@
       <c r="J855" s="34"/>
       <c r="K855" s="40"/>
     </row>
-    <row r="856" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" s="39"/>
       <c r="B856" s="34"/>
       <c r="C856" s="34"/>
@@ -15493,7 +15493,7 @@
       <c r="J856" s="34"/>
       <c r="K856" s="40"/>
     </row>
-    <row r="857" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" s="39"/>
       <c r="B857" s="34"/>
       <c r="C857" s="34"/>
@@ -15506,7 +15506,7 @@
       <c r="J857" s="34"/>
       <c r="K857" s="40"/>
     </row>
-    <row r="858" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" s="39"/>
       <c r="B858" s="34"/>
       <c r="C858" s="34"/>
@@ -15519,7 +15519,7 @@
       <c r="J858" s="34"/>
       <c r="K858" s="40"/>
     </row>
-    <row r="859" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" s="39"/>
       <c r="B859" s="34"/>
       <c r="C859" s="34"/>
@@ -15532,7 +15532,7 @@
       <c r="J859" s="34"/>
       <c r="K859" s="40"/>
     </row>
-    <row r="860" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" s="39"/>
       <c r="B860" s="34"/>
       <c r="C860" s="34"/>
@@ -15545,7 +15545,7 @@
       <c r="J860" s="34"/>
       <c r="K860" s="40"/>
     </row>
-    <row r="861" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" s="39"/>
       <c r="B861" s="34"/>
       <c r="C861" s="34"/>
@@ -15558,7 +15558,7 @@
       <c r="J861" s="34"/>
       <c r="K861" s="40"/>
     </row>
-    <row r="862" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" s="39"/>
       <c r="B862" s="34"/>
       <c r="C862" s="34"/>
@@ -15571,7 +15571,7 @@
       <c r="J862" s="34"/>
       <c r="K862" s="40"/>
     </row>
-    <row r="863" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" s="39"/>
       <c r="B863" s="34"/>
       <c r="C863" s="34"/>
@@ -15584,7 +15584,7 @@
       <c r="J863" s="34"/>
       <c r="K863" s="40"/>
     </row>
-    <row r="864" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" s="39"/>
       <c r="B864" s="34"/>
       <c r="C864" s="34"/>
@@ -15597,7 +15597,7 @@
       <c r="J864" s="34"/>
       <c r="K864" s="40"/>
     </row>
-    <row r="865" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" s="39"/>
       <c r="B865" s="34"/>
       <c r="C865" s="34"/>
@@ -15610,7 +15610,7 @@
       <c r="J865" s="34"/>
       <c r="K865" s="40"/>
     </row>
-    <row r="866" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" s="39"/>
       <c r="B866" s="34"/>
       <c r="C866" s="34"/>
@@ -15623,7 +15623,7 @@
       <c r="J866" s="34"/>
       <c r="K866" s="40"/>
     </row>
-    <row r="867" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" s="39"/>
       <c r="B867" s="34"/>
       <c r="C867" s="34"/>
@@ -15636,7 +15636,7 @@
       <c r="J867" s="34"/>
       <c r="K867" s="40"/>
     </row>
-    <row r="868" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" s="39"/>
       <c r="B868" s="34"/>
       <c r="C868" s="34"/>
@@ -15649,7 +15649,7 @@
       <c r="J868" s="34"/>
       <c r="K868" s="40"/>
     </row>
-    <row r="869" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" s="39"/>
       <c r="B869" s="34"/>
       <c r="C869" s="34"/>
@@ -15662,7 +15662,7 @@
       <c r="J869" s="34"/>
       <c r="K869" s="40"/>
     </row>
-    <row r="870" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" s="39"/>
       <c r="B870" s="34"/>
       <c r="C870" s="34"/>
@@ -15675,7 +15675,7 @@
       <c r="J870" s="34"/>
       <c r="K870" s="40"/>
     </row>
-    <row r="871" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" s="39"/>
       <c r="B871" s="34"/>
       <c r="C871" s="34"/>
@@ -15688,7 +15688,7 @@
       <c r="J871" s="34"/>
       <c r="K871" s="40"/>
     </row>
-    <row r="872" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" s="39"/>
       <c r="B872" s="34"/>
       <c r="C872" s="34"/>
@@ -15701,7 +15701,7 @@
       <c r="J872" s="34"/>
       <c r="K872" s="40"/>
     </row>
-    <row r="873" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" s="39"/>
       <c r="B873" s="34"/>
       <c r="C873" s="34"/>
@@ -15714,7 +15714,7 @@
       <c r="J873" s="34"/>
       <c r="K873" s="40"/>
     </row>
-    <row r="874" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" s="39"/>
       <c r="B874" s="34"/>
       <c r="C874" s="34"/>
@@ -15727,7 +15727,7 @@
       <c r="J874" s="34"/>
       <c r="K874" s="40"/>
     </row>
-    <row r="875" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" s="39"/>
       <c r="B875" s="34"/>
       <c r="C875" s="34"/>
@@ -15740,7 +15740,7 @@
       <c r="J875" s="34"/>
       <c r="K875" s="40"/>
     </row>
-    <row r="876" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A876" s="39"/>
       <c r="B876" s="34"/>
       <c r="C876" s="34"/>
@@ -15753,7 +15753,7 @@
       <c r="J876" s="34"/>
       <c r="K876" s="40"/>
     </row>
-    <row r="877" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" s="39"/>
       <c r="B877" s="34"/>
       <c r="C877" s="34"/>
@@ -15766,7 +15766,7 @@
       <c r="J877" s="34"/>
       <c r="K877" s="40"/>
     </row>
-    <row r="878" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" s="39"/>
       <c r="B878" s="34"/>
       <c r="C878" s="34"/>
@@ -15779,7 +15779,7 @@
       <c r="J878" s="34"/>
       <c r="K878" s="40"/>
     </row>
-    <row r="879" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A879" s="39"/>
       <c r="B879" s="34"/>
       <c r="C879" s="34"/>
@@ -15792,7 +15792,7 @@
       <c r="J879" s="34"/>
       <c r="K879" s="40"/>
     </row>
-    <row r="880" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" s="39"/>
       <c r="B880" s="34"/>
       <c r="C880" s="34"/>
@@ -15805,7 +15805,7 @@
       <c r="J880" s="34"/>
       <c r="K880" s="40"/>
     </row>
-    <row r="881" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A881" s="39"/>
       <c r="B881" s="34"/>
       <c r="C881" s="34"/>
@@ -15818,7 +15818,7 @@
       <c r="J881" s="34"/>
       <c r="K881" s="40"/>
     </row>
-    <row r="882" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" s="39"/>
       <c r="B882" s="34"/>
       <c r="C882" s="34"/>
@@ -15831,7 +15831,7 @@
       <c r="J882" s="34"/>
       <c r="K882" s="40"/>
     </row>
-    <row r="883" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" s="39"/>
       <c r="B883" s="34"/>
       <c r="C883" s="34"/>
@@ -15844,7 +15844,7 @@
       <c r="J883" s="34"/>
       <c r="K883" s="40"/>
     </row>
-    <row r="884" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A884" s="39"/>
       <c r="B884" s="34"/>
       <c r="C884" s="34"/>
@@ -15857,7 +15857,7 @@
       <c r="J884" s="34"/>
       <c r="K884" s="40"/>
     </row>
-    <row r="885" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" s="39"/>
       <c r="B885" s="34"/>
       <c r="C885" s="34"/>
@@ -15870,7 +15870,7 @@
       <c r="J885" s="34"/>
       <c r="K885" s="40"/>
     </row>
-    <row r="886" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" s="39"/>
       <c r="B886" s="34"/>
       <c r="C886" s="34"/>
@@ -15883,7 +15883,7 @@
       <c r="J886" s="34"/>
       <c r="K886" s="40"/>
     </row>
-    <row r="887" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A887" s="39"/>
       <c r="B887" s="34"/>
       <c r="C887" s="34"/>
@@ -15896,7 +15896,7 @@
       <c r="J887" s="34"/>
       <c r="K887" s="40"/>
     </row>
-    <row r="888" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" s="39"/>
       <c r="B888" s="34"/>
       <c r="C888" s="34"/>
@@ -15909,7 +15909,7 @@
       <c r="J888" s="34"/>
       <c r="K888" s="40"/>
     </row>
-    <row r="889" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A889" s="39"/>
       <c r="B889" s="34"/>
       <c r="C889" s="34"/>
@@ -15922,7 +15922,7 @@
       <c r="J889" s="34"/>
       <c r="K889" s="40"/>
     </row>
-    <row r="890" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A890" s="39"/>
       <c r="B890" s="34"/>
       <c r="C890" s="34"/>
@@ -15935,7 +15935,7 @@
       <c r="J890" s="34"/>
       <c r="K890" s="40"/>
     </row>
-    <row r="891" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A891" s="39"/>
       <c r="B891" s="34"/>
       <c r="C891" s="34"/>
@@ -15948,7 +15948,7 @@
       <c r="J891" s="34"/>
       <c r="K891" s="40"/>
     </row>
-    <row r="892" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A892" s="39"/>
       <c r="B892" s="34"/>
       <c r="C892" s="34"/>
@@ -15961,7 +15961,7 @@
       <c r="J892" s="34"/>
       <c r="K892" s="40"/>
     </row>
-    <row r="893" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" s="39"/>
       <c r="B893" s="34"/>
       <c r="C893" s="34"/>
@@ -15974,7 +15974,7 @@
       <c r="J893" s="34"/>
       <c r="K893" s="40"/>
     </row>
-    <row r="894" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" s="39"/>
       <c r="B894" s="34"/>
       <c r="C894" s="34"/>
@@ -15987,7 +15987,7 @@
       <c r="J894" s="34"/>
       <c r="K894" s="40"/>
     </row>
-    <row r="895" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A895" s="39"/>
       <c r="B895" s="34"/>
       <c r="C895" s="34"/>
@@ -16000,7 +16000,7 @@
       <c r="J895" s="34"/>
       <c r="K895" s="40"/>
     </row>
-    <row r="896" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A896" s="39"/>
       <c r="B896" s="34"/>
       <c r="C896" s="34"/>
@@ -16013,7 +16013,7 @@
       <c r="J896" s="34"/>
       <c r="K896" s="40"/>
     </row>
-    <row r="897" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A897" s="39"/>
       <c r="B897" s="34"/>
       <c r="C897" s="34"/>
@@ -16026,7 +16026,7 @@
       <c r="J897" s="34"/>
       <c r="K897" s="40"/>
     </row>
-    <row r="898" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A898" s="39"/>
       <c r="B898" s="34"/>
       <c r="C898" s="34"/>
@@ -16039,7 +16039,7 @@
       <c r="J898" s="34"/>
       <c r="K898" s="40"/>
     </row>
-    <row r="899" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" s="39"/>
       <c r="B899" s="34"/>
       <c r="C899" s="34"/>
@@ -16052,7 +16052,7 @@
       <c r="J899" s="34"/>
       <c r="K899" s="40"/>
     </row>
-    <row r="900" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A900" s="39"/>
       <c r="B900" s="34"/>
       <c r="C900" s="34"/>
@@ -16065,7 +16065,7 @@
       <c r="J900" s="34"/>
       <c r="K900" s="40"/>
     </row>
-    <row r="901" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A901" s="39"/>
       <c r="B901" s="34"/>
       <c r="C901" s="34"/>
@@ -16078,7 +16078,7 @@
       <c r="J901" s="34"/>
       <c r="K901" s="40"/>
     </row>
-    <row r="902" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A902" s="39"/>
       <c r="B902" s="34"/>
       <c r="C902" s="34"/>
@@ -16091,7 +16091,7 @@
       <c r="J902" s="34"/>
       <c r="K902" s="40"/>
     </row>
-    <row r="903" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A903" s="39"/>
       <c r="B903" s="34"/>
       <c r="C903" s="34"/>
@@ -16104,7 +16104,7 @@
       <c r="J903" s="34"/>
       <c r="K903" s="40"/>
     </row>
-    <row r="904" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A904" s="39"/>
       <c r="B904" s="34"/>
       <c r="C904" s="34"/>
@@ -16117,7 +16117,7 @@
       <c r="J904" s="34"/>
       <c r="K904" s="40"/>
     </row>
-    <row r="905" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A905" s="39"/>
       <c r="B905" s="34"/>
       <c r="C905" s="34"/>
@@ -16130,7 +16130,7 @@
       <c r="J905" s="34"/>
       <c r="K905" s="40"/>
     </row>
-    <row r="906" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A906" s="39"/>
       <c r="B906" s="34"/>
       <c r="C906" s="34"/>
@@ -16143,7 +16143,7 @@
       <c r="J906" s="34"/>
       <c r="K906" s="40"/>
     </row>
-    <row r="907" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A907" s="39"/>
       <c r="B907" s="34"/>
       <c r="C907" s="34"/>
@@ -16156,7 +16156,7 @@
       <c r="J907" s="34"/>
       <c r="K907" s="40"/>
     </row>
-    <row r="908" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A908" s="39"/>
       <c r="B908" s="34"/>
       <c r="C908" s="34"/>
@@ -16169,7 +16169,7 @@
       <c r="J908" s="34"/>
       <c r="K908" s="40"/>
     </row>
-    <row r="909" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A909" s="39"/>
       <c r="B909" s="34"/>
       <c r="C909" s="34"/>
@@ -16182,7 +16182,7 @@
       <c r="J909" s="34"/>
       <c r="K909" s="40"/>
     </row>
-    <row r="910" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A910" s="39"/>
       <c r="B910" s="34"/>
       <c r="C910" s="34"/>
@@ -16195,7 +16195,7 @@
       <c r="J910" s="34"/>
       <c r="K910" s="40"/>
     </row>
-    <row r="911" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A911" s="39"/>
       <c r="B911" s="34"/>
       <c r="C911" s="34"/>
@@ -16208,7 +16208,7 @@
       <c r="J911" s="34"/>
       <c r="K911" s="40"/>
     </row>
-    <row r="912" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A912" s="39"/>
       <c r="B912" s="34"/>
       <c r="C912" s="34"/>
@@ -16221,7 +16221,7 @@
       <c r="J912" s="34"/>
       <c r="K912" s="40"/>
     </row>
-    <row r="913" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" s="39"/>
       <c r="B913" s="34"/>
       <c r="C913" s="34"/>
@@ -16234,7 +16234,7 @@
       <c r="J913" s="34"/>
       <c r="K913" s="40"/>
     </row>
-    <row r="914" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" s="39"/>
       <c r="B914" s="34"/>
       <c r="C914" s="34"/>
@@ -16247,7 +16247,7 @@
       <c r="J914" s="34"/>
       <c r="K914" s="40"/>
     </row>
-    <row r="915" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" s="39"/>
       <c r="B915" s="34"/>
       <c r="C915" s="34"/>
@@ -16260,7 +16260,7 @@
       <c r="J915" s="34"/>
       <c r="K915" s="40"/>
     </row>
-    <row r="916" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" s="39"/>
       <c r="B916" s="34"/>
       <c r="C916" s="34"/>
@@ -16273,7 +16273,7 @@
       <c r="J916" s="34"/>
       <c r="K916" s="40"/>
     </row>
-    <row r="917" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" s="39"/>
       <c r="B917" s="34"/>
       <c r="C917" s="34"/>
@@ -16286,7 +16286,7 @@
       <c r="J917" s="34"/>
       <c r="K917" s="40"/>
     </row>
-    <row r="918" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A918" s="39"/>
       <c r="B918" s="34"/>
       <c r="C918" s="34"/>
@@ -16299,7 +16299,7 @@
       <c r="J918" s="34"/>
       <c r="K918" s="40"/>
     </row>
-    <row r="919" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" s="39"/>
       <c r="B919" s="34"/>
       <c r="C919" s="34"/>
@@ -16312,7 +16312,7 @@
       <c r="J919" s="34"/>
       <c r="K919" s="40"/>
     </row>
-    <row r="920" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" s="39"/>
       <c r="B920" s="34"/>
       <c r="C920" s="34"/>
@@ -16325,7 +16325,7 @@
       <c r="J920" s="34"/>
       <c r="K920" s="40"/>
     </row>
-    <row r="921" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" s="39"/>
       <c r="B921" s="34"/>
       <c r="C921" s="34"/>
@@ -16338,7 +16338,7 @@
       <c r="J921" s="34"/>
       <c r="K921" s="40"/>
     </row>
-    <row r="922" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" s="39"/>
       <c r="B922" s="34"/>
       <c r="C922" s="34"/>
@@ -16351,7 +16351,7 @@
       <c r="J922" s="34"/>
       <c r="K922" s="40"/>
     </row>
-    <row r="923" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A923" s="39"/>
       <c r="B923" s="34"/>
       <c r="C923" s="34"/>
@@ -16364,7 +16364,7 @@
       <c r="J923" s="34"/>
       <c r="K923" s="40"/>
     </row>
-    <row r="924" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" s="39"/>
       <c r="B924" s="34"/>
       <c r="C924" s="34"/>
@@ -16377,7 +16377,7 @@
       <c r="J924" s="34"/>
       <c r="K924" s="40"/>
     </row>
-    <row r="925" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A925" s="39"/>
       <c r="B925" s="34"/>
       <c r="C925" s="34"/>
@@ -16390,7 +16390,7 @@
       <c r="J925" s="34"/>
       <c r="K925" s="40"/>
     </row>
-    <row r="926" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A926" s="39"/>
       <c r="B926" s="34"/>
       <c r="C926" s="34"/>
@@ -16403,7 +16403,7 @@
       <c r="J926" s="34"/>
       <c r="K926" s="40"/>
     </row>
-    <row r="927" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A927" s="39"/>
       <c r="B927" s="34"/>
       <c r="C927" s="34"/>
@@ -16416,7 +16416,7 @@
       <c r="J927" s="34"/>
       <c r="K927" s="40"/>
     </row>
-    <row r="928" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A928" s="39"/>
       <c r="B928" s="34"/>
       <c r="C928" s="34"/>
@@ -16429,7 +16429,7 @@
       <c r="J928" s="34"/>
       <c r="K928" s="40"/>
     </row>
-    <row r="929" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A929" s="39"/>
       <c r="B929" s="34"/>
       <c r="C929" s="34"/>
@@ -16442,7 +16442,7 @@
       <c r="J929" s="34"/>
       <c r="K929" s="40"/>
     </row>
-    <row r="930" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A930" s="39"/>
       <c r="B930" s="34"/>
       <c r="C930" s="34"/>
@@ -16455,7 +16455,7 @@
       <c r="J930" s="34"/>
       <c r="K930" s="40"/>
     </row>
-    <row r="931" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A931" s="39"/>
       <c r="B931" s="34"/>
       <c r="C931" s="34"/>
@@ -16468,7 +16468,7 @@
       <c r="J931" s="34"/>
       <c r="K931" s="40"/>
     </row>
-    <row r="932" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A932" s="39"/>
       <c r="B932" s="34"/>
       <c r="C932" s="34"/>
@@ -16481,7 +16481,7 @@
       <c r="J932" s="34"/>
       <c r="K932" s="40"/>
     </row>
-    <row r="933" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A933" s="39"/>
       <c r="B933" s="34"/>
       <c r="C933" s="34"/>
@@ -16494,7 +16494,7 @@
       <c r="J933" s="34"/>
       <c r="K933" s="40"/>
     </row>
-    <row r="934" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A934" s="39"/>
       <c r="B934" s="34"/>
       <c r="C934" s="34"/>
@@ -16507,7 +16507,7 @@
       <c r="J934" s="34"/>
       <c r="K934" s="40"/>
     </row>
-    <row r="935" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A935" s="39"/>
       <c r="B935" s="34"/>
       <c r="C935" s="34"/>
@@ -16520,7 +16520,7 @@
       <c r="J935" s="34"/>
       <c r="K935" s="40"/>
     </row>
-    <row r="936" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A936" s="39"/>
       <c r="B936" s="34"/>
       <c r="C936" s="34"/>
@@ -16533,7 +16533,7 @@
       <c r="J936" s="34"/>
       <c r="K936" s="40"/>
     </row>
-    <row r="937" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A937" s="39"/>
       <c r="B937" s="34"/>
       <c r="C937" s="34"/>
@@ -16546,7 +16546,7 @@
       <c r="J937" s="34"/>
       <c r="K937" s="40"/>
     </row>
-    <row r="938" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A938" s="39"/>
       <c r="B938" s="34"/>
       <c r="C938" s="34"/>
@@ -16559,7 +16559,7 @@
       <c r="J938" s="34"/>
       <c r="K938" s="40"/>
     </row>
-    <row r="939" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A939" s="39"/>
       <c r="B939" s="34"/>
       <c r="C939" s="34"/>
@@ -16572,7 +16572,7 @@
       <c r="J939" s="34"/>
       <c r="K939" s="40"/>
     </row>
-    <row r="940" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A940" s="39"/>
       <c r="B940" s="34"/>
       <c r="C940" s="34"/>
@@ -16585,7 +16585,7 @@
       <c r="J940" s="34"/>
       <c r="K940" s="40"/>
     </row>
-    <row r="941" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A941" s="39"/>
       <c r="B941" s="34"/>
       <c r="C941" s="34"/>
@@ -16598,7 +16598,7 @@
       <c r="J941" s="34"/>
       <c r="K941" s="40"/>
     </row>
-    <row r="942" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A942" s="39"/>
       <c r="B942" s="34"/>
       <c r="C942" s="34"/>
@@ -16611,7 +16611,7 @@
       <c r="J942" s="34"/>
       <c r="K942" s="40"/>
     </row>
-    <row r="943" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A943" s="39"/>
       <c r="B943" s="34"/>
       <c r="C943" s="34"/>
@@ -16624,7 +16624,7 @@
       <c r="J943" s="34"/>
       <c r="K943" s="40"/>
     </row>
-    <row r="944" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A944" s="39"/>
       <c r="B944" s="34"/>
       <c r="C944" s="34"/>
@@ -16637,7 +16637,7 @@
       <c r="J944" s="34"/>
       <c r="K944" s="40"/>
     </row>
-    <row r="945" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A945" s="39"/>
       <c r="B945" s="34"/>
       <c r="C945" s="34"/>
@@ -16650,7 +16650,7 @@
       <c r="J945" s="34"/>
       <c r="K945" s="40"/>
     </row>
-    <row r="946" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A946" s="39"/>
       <c r="B946" s="34"/>
       <c r="C946" s="34"/>
@@ -16663,7 +16663,7 @@
       <c r="J946" s="34"/>
       <c r="K946" s="40"/>
     </row>
-    <row r="947" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A947" s="39"/>
       <c r="B947" s="34"/>
       <c r="C947" s="34"/>
@@ -16676,7 +16676,7 @@
       <c r="J947" s="34"/>
       <c r="K947" s="40"/>
     </row>
-    <row r="948" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A948" s="39"/>
       <c r="B948" s="34"/>
       <c r="C948" s="34"/>
@@ -16689,7 +16689,7 @@
       <c r="J948" s="34"/>
       <c r="K948" s="40"/>
     </row>
-    <row r="949" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A949" s="39"/>
       <c r="B949" s="34"/>
       <c r="C949" s="34"/>
@@ -16702,7 +16702,7 @@
       <c r="J949" s="34"/>
       <c r="K949" s="40"/>
     </row>
-    <row r="950" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A950" s="39"/>
       <c r="B950" s="34"/>
       <c r="C950" s="34"/>
@@ -16715,7 +16715,7 @@
       <c r="J950" s="34"/>
       <c r="K950" s="40"/>
     </row>
-    <row r="951" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A951" s="39"/>
       <c r="B951" s="34"/>
       <c r="C951" s="34"/>
@@ -16728,7 +16728,7 @@
       <c r="J951" s="34"/>
       <c r="K951" s="40"/>
     </row>
-    <row r="952" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A952" s="39"/>
       <c r="B952" s="34"/>
       <c r="C952" s="34"/>
@@ -16741,7 +16741,7 @@
       <c r="J952" s="34"/>
       <c r="K952" s="40"/>
     </row>
-    <row r="953" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A953" s="39"/>
       <c r="B953" s="34"/>
       <c r="C953" s="34"/>
@@ -16754,7 +16754,7 @@
       <c r="J953" s="34"/>
       <c r="K953" s="40"/>
     </row>
-    <row r="954" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A954" s="39"/>
       <c r="B954" s="34"/>
       <c r="C954" s="34"/>
@@ -16767,7 +16767,7 @@
       <c r="J954" s="34"/>
       <c r="K954" s="40"/>
     </row>
-    <row r="955" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A955" s="39"/>
       <c r="B955" s="34"/>
       <c r="C955" s="34"/>
@@ -16780,7 +16780,7 @@
       <c r="J955" s="34"/>
       <c r="K955" s="40"/>
     </row>
-    <row r="956" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A956" s="39"/>
       <c r="B956" s="34"/>
       <c r="C956" s="34"/>
@@ -16793,7 +16793,7 @@
       <c r="J956" s="34"/>
       <c r="K956" s="40"/>
     </row>
-    <row r="957" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A957" s="39"/>
       <c r="B957" s="34"/>
       <c r="C957" s="34"/>
@@ -16806,7 +16806,7 @@
       <c r="J957" s="34"/>
       <c r="K957" s="40"/>
     </row>
-    <row r="958" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A958" s="39"/>
       <c r="B958" s="34"/>
       <c r="C958" s="34"/>
@@ -16819,7 +16819,7 @@
       <c r="J958" s="34"/>
       <c r="K958" s="40"/>
     </row>
-    <row r="959" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A959" s="39"/>
       <c r="B959" s="34"/>
       <c r="C959" s="34"/>
@@ -16832,7 +16832,7 @@
       <c r="J959" s="34"/>
       <c r="K959" s="40"/>
     </row>
-    <row r="960" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A960" s="39"/>
       <c r="B960" s="34"/>
       <c r="C960" s="34"/>
@@ -16845,7 +16845,7 @@
       <c r="J960" s="34"/>
       <c r="K960" s="40"/>
     </row>
-    <row r="961" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A961" s="39"/>
       <c r="B961" s="34"/>
       <c r="C961" s="34"/>
@@ -16858,7 +16858,7 @@
       <c r="J961" s="34"/>
       <c r="K961" s="40"/>
     </row>
-    <row r="962" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A962" s="39"/>
       <c r="B962" s="34"/>
       <c r="C962" s="34"/>
@@ -16871,7 +16871,7 @@
       <c r="J962" s="34"/>
       <c r="K962" s="40"/>
     </row>
-    <row r="963" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A963" s="39"/>
       <c r="B963" s="34"/>
       <c r="C963" s="34"/>
@@ -16884,7 +16884,7 @@
       <c r="J963" s="34"/>
       <c r="K963" s="40"/>
     </row>
-    <row r="964" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A964" s="39"/>
       <c r="B964" s="34"/>
       <c r="C964" s="34"/>
@@ -16897,7 +16897,7 @@
       <c r="J964" s="34"/>
       <c r="K964" s="40"/>
     </row>
-    <row r="965" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A965" s="39"/>
       <c r="B965" s="34"/>
       <c r="C965" s="34"/>
@@ -16910,7 +16910,7 @@
       <c r="J965" s="34"/>
       <c r="K965" s="40"/>
     </row>
-    <row r="966" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A966" s="39"/>
       <c r="B966" s="34"/>
       <c r="C966" s="34"/>
@@ -16923,7 +16923,7 @@
       <c r="J966" s="34"/>
       <c r="K966" s="40"/>
     </row>
-    <row r="967" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A967" s="39"/>
       <c r="B967" s="34"/>
       <c r="C967" s="34"/>
@@ -16936,7 +16936,7 @@
       <c r="J967" s="34"/>
       <c r="K967" s="40"/>
     </row>
-    <row r="968" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A968" s="39"/>
       <c r="B968" s="34"/>
       <c r="C968" s="34"/>
@@ -16949,7 +16949,7 @@
       <c r="J968" s="34"/>
       <c r="K968" s="40"/>
     </row>
-    <row r="969" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A969" s="39"/>
       <c r="B969" s="34"/>
       <c r="C969" s="34"/>
@@ -16962,7 +16962,7 @@
       <c r="J969" s="34"/>
       <c r="K969" s="40"/>
     </row>
-    <row r="970" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A970" s="39"/>
       <c r="B970" s="34"/>
       <c r="C970" s="34"/>
@@ -16975,7 +16975,7 @@
       <c r="J970" s="34"/>
       <c r="K970" s="40"/>
     </row>
-    <row r="971" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A971" s="39"/>
       <c r="B971" s="34"/>
       <c r="C971" s="34"/>
@@ -16988,7 +16988,7 @@
       <c r="J971" s="34"/>
       <c r="K971" s="40"/>
     </row>
-    <row r="972" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A972" s="39"/>
       <c r="B972" s="34"/>
       <c r="C972" s="34"/>
@@ -17001,7 +17001,7 @@
       <c r="J972" s="34"/>
       <c r="K972" s="40"/>
     </row>
-    <row r="973" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A973" s="39"/>
       <c r="B973" s="34"/>
       <c r="C973" s="34"/>
@@ -17014,7 +17014,7 @@
       <c r="J973" s="34"/>
       <c r="K973" s="40"/>
     </row>
-    <row r="974" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A974" s="39"/>
       <c r="B974" s="34"/>
       <c r="C974" s="34"/>
@@ -17027,7 +17027,7 @@
       <c r="J974" s="34"/>
       <c r="K974" s="40"/>
     </row>
-    <row r="975" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A975" s="39"/>
       <c r="B975" s="34"/>
       <c r="C975" s="34"/>
@@ -17040,7 +17040,7 @@
       <c r="J975" s="34"/>
       <c r="K975" s="40"/>
     </row>
-    <row r="976" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A976" s="39"/>
       <c r="B976" s="34"/>
       <c r="C976" s="34"/>
@@ -17053,7 +17053,7 @@
       <c r="J976" s="34"/>
       <c r="K976" s="40"/>
     </row>
-    <row r="977" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A977" s="39"/>
       <c r="B977" s="34"/>
       <c r="C977" s="34"/>
@@ -17066,7 +17066,7 @@
       <c r="J977" s="34"/>
       <c r="K977" s="40"/>
     </row>
-    <row r="978" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A978" s="39"/>
       <c r="B978" s="34"/>
       <c r="C978" s="34"/>
@@ -17079,7 +17079,7 @@
       <c r="J978" s="34"/>
       <c r="K978" s="40"/>
     </row>
-    <row r="979" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A979" s="39"/>
       <c r="B979" s="34"/>
       <c r="C979" s="34"/>
@@ -17092,7 +17092,7 @@
       <c r="J979" s="34"/>
       <c r="K979" s="40"/>
     </row>
-    <row r="980" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A980" s="39"/>
       <c r="B980" s="34"/>
       <c r="C980" s="34"/>
@@ -17105,7 +17105,7 @@
       <c r="J980" s="34"/>
       <c r="K980" s="40"/>
     </row>
-    <row r="981" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A981" s="39"/>
       <c r="B981" s="34"/>
       <c r="C981" s="34"/>
@@ -17118,7 +17118,7 @@
       <c r="J981" s="34"/>
       <c r="K981" s="40"/>
     </row>
-    <row r="982" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A982" s="39"/>
       <c r="B982" s="34"/>
       <c r="C982" s="34"/>
@@ -17131,7 +17131,7 @@
       <c r="J982" s="34"/>
       <c r="K982" s="40"/>
     </row>
-    <row r="983" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A983" s="39"/>
       <c r="B983" s="34"/>
       <c r="C983" s="34"/>
@@ -17144,7 +17144,7 @@
       <c r="J983" s="34"/>
       <c r="K983" s="40"/>
     </row>
-    <row r="984" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A984" s="39"/>
       <c r="B984" s="34"/>
       <c r="C984" s="34"/>
@@ -17157,7 +17157,7 @@
       <c r="J984" s="34"/>
       <c r="K984" s="40"/>
     </row>
-    <row r="985" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A985" s="39"/>
       <c r="B985" s="34"/>
       <c r="C985" s="34"/>
@@ -17170,7 +17170,7 @@
       <c r="J985" s="34"/>
       <c r="K985" s="40"/>
     </row>
-    <row r="986" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A986" s="39"/>
       <c r="B986" s="34"/>
       <c r="C986" s="34"/>
@@ -17183,7 +17183,7 @@
       <c r="J986" s="34"/>
       <c r="K986" s="40"/>
     </row>
-    <row r="987" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A987" s="39"/>
       <c r="B987" s="34"/>
       <c r="C987" s="34"/>
@@ -17196,7 +17196,7 @@
       <c r="J987" s="34"/>
       <c r="K987" s="40"/>
     </row>
-    <row r="988" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A988" s="39"/>
       <c r="B988" s="34"/>
       <c r="C988" s="34"/>
@@ -17209,7 +17209,7 @@
       <c r="J988" s="34"/>
       <c r="K988" s="40"/>
     </row>
-    <row r="989" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A989" s="39"/>
       <c r="B989" s="34"/>
       <c r="C989" s="34"/>
@@ -17222,7 +17222,7 @@
       <c r="J989" s="34"/>
       <c r="K989" s="40"/>
     </row>
-    <row r="990" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A990" s="39"/>
       <c r="B990" s="34"/>
       <c r="C990" s="34"/>
@@ -17235,7 +17235,7 @@
       <c r="J990" s="34"/>
       <c r="K990" s="40"/>
     </row>
-    <row r="991" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A991" s="39"/>
       <c r="B991" s="34"/>
       <c r="C991" s="34"/>
@@ -17248,7 +17248,7 @@
       <c r="J991" s="34"/>
       <c r="K991" s="40"/>
     </row>
-    <row r="992" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A992" s="39"/>
       <c r="B992" s="34"/>
       <c r="C992" s="34"/>
@@ -17261,7 +17261,7 @@
       <c r="J992" s="34"/>
       <c r="K992" s="40"/>
     </row>
-    <row r="993" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A993" s="39"/>
       <c r="B993" s="34"/>
       <c r="C993" s="34"/>
